--- a/results/ts_m_negbin_combined.xlsx
+++ b/results/ts_m_negbin_combined.xlsx
@@ -3665,34 +3665,34 @@
         <v>1680</v>
       </c>
       <c r="L50" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M50" t="n">
-        <v>1.61946754220737</v>
+        <v>1.62237800055431</v>
       </c>
       <c r="N50" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O50" t="n">
-        <v>1540.78375146614</v>
+        <v>1538.01966878704</v>
       </c>
       <c r="P50" t="n">
-        <v>41.7127179500669</v>
+        <v>41.6378875911186</v>
       </c>
       <c r="Q50" t="n">
-        <v>1459.02682428401</v>
+        <v>1456.40940910845</v>
       </c>
       <c r="R50" t="n">
-        <v>1622.54067864827</v>
+        <v>1619.62992846563</v>
       </c>
       <c r="S50" t="n">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="T50" t="n">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="U50" t="n">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="V50" t="n">
         <v>1.48526742563091</v>
@@ -3704,31 +3704,31 @@
         <v>1.56407855058452</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.134200116576464</v>
+        <v>0.137110574923403</v>
       </c>
       <c r="Z50" t="n">
-        <v>8.28668146034874</v>
+        <v>8.45121019124749</v>
       </c>
       <c r="AA50" t="n">
         <v>1</v>
       </c>
       <c r="AB50" t="n">
-        <v>139.216248533859</v>
+        <v>141.980331212958</v>
       </c>
       <c r="AC50" t="n">
-        <v>8.28668146034875</v>
+        <v>8.45121019124749</v>
       </c>
       <c r="AD50" t="n">
         <v>1</v>
       </c>
       <c r="AE50" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AF50" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG50" t="n">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51">
@@ -3758,34 +3758,34 @@
         <v>1881</v>
       </c>
       <c r="L51" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M51" t="n">
-        <v>1.81322526600718</v>
+        <v>1.81648393990635</v>
       </c>
       <c r="N51" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O51" t="n">
-        <v>1374.24215779486</v>
+        <v>1371.77684172333</v>
       </c>
       <c r="P51" t="n">
-        <v>37.6924365703178</v>
+        <v>37.6248183786294</v>
       </c>
       <c r="Q51" t="n">
-        <v>1300.36498211704</v>
+        <v>1298.03219770121</v>
       </c>
       <c r="R51" t="n">
-        <v>1448.11933347269</v>
+        <v>1445.52148574544</v>
       </c>
       <c r="S51" t="n">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="T51" t="n">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="U51" t="n">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="V51" t="n">
         <v>1.3247265295725</v>
@@ -3797,31 +3797,31 @@
         <v>1.39594182012023</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.488498736434682</v>
+        <v>0.491757410333844</v>
       </c>
       <c r="Z51" t="n">
-        <v>26.940874120422</v>
+        <v>27.0719382390575</v>
       </c>
       <c r="AA51" t="n">
         <v>1</v>
       </c>
       <c r="AB51" t="n">
-        <v>506.757842205137</v>
+        <v>509.223158276671</v>
       </c>
       <c r="AC51" t="n">
-        <v>26.940874120422</v>
+        <v>27.0719382390575</v>
       </c>
       <c r="AD51" t="n">
         <v>1</v>
       </c>
       <c r="AE51" t="n">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="AF51" t="n">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="AG51" t="n">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="52">
@@ -3851,34 +3851,34 @@
         <v>2067</v>
       </c>
       <c r="L52" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M52" t="n">
-        <v>1.99252345818014</v>
+        <v>1.99610436139629</v>
       </c>
       <c r="N52" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O52" t="n">
-        <v>1424.62665245843</v>
+        <v>1422.07094932974</v>
       </c>
       <c r="P52" t="n">
-        <v>45.7043972050842</v>
+        <v>45.6224059895401</v>
       </c>
       <c r="Q52" t="n">
-        <v>1335.04603393646</v>
+        <v>1332.65103359025</v>
       </c>
       <c r="R52" t="n">
-        <v>1514.20727098039</v>
+        <v>1511.49086506924</v>
       </c>
       <c r="S52" t="n">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="T52" t="n">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="U52" t="n">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="V52" t="n">
         <v>1.37329560917855</v>
@@ -3890,31 +3890,31 @@
         <v>1.45964852828997</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.619227849001593</v>
+        <v>0.622808752217738</v>
       </c>
       <c r="Z52" t="n">
-        <v>31.0775688215566</v>
+        <v>31.2012119337327</v>
       </c>
       <c r="AA52" t="n">
         <v>1</v>
       </c>
       <c r="AB52" t="n">
-        <v>642.373347541575</v>
+        <v>644.929050670255</v>
       </c>
       <c r="AC52" t="n">
-        <v>31.0775688215566</v>
+        <v>31.2012119337327</v>
       </c>
       <c r="AD52" t="n">
         <v>1</v>
       </c>
       <c r="AE52" t="n">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="AF52" t="n">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="AG52" t="n">
-        <v>732</v>
+        <v>735</v>
       </c>
     </row>
     <row r="53">
@@ -3944,34 +3944,34 @@
         <v>1870</v>
       </c>
       <c r="L53" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M53" t="n">
-        <v>1.80262160948083</v>
+        <v>1.80586122680748</v>
       </c>
       <c r="N53" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O53" t="n">
-        <v>1377.98003736402</v>
+        <v>1375.50801573879</v>
       </c>
       <c r="P53" t="n">
-        <v>44.3739391656521</v>
+        <v>44.2943347198404</v>
       </c>
       <c r="Q53" t="n">
-        <v>1291.00711659934</v>
+        <v>1288.6911196879</v>
       </c>
       <c r="R53" t="n">
-        <v>1464.95295812869</v>
+        <v>1462.32491178968</v>
       </c>
       <c r="S53" t="n">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="T53" t="n">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="U53" t="n">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="V53" t="n">
         <v>1.32832972876234</v>
@@ -3983,31 +3983,31 @@
         <v>1.41216890866077</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.474291880718489</v>
+        <v>0.477531498045142</v>
       </c>
       <c r="Z53" t="n">
-        <v>26.3112279484484</v>
+        <v>26.4434216182466</v>
       </c>
       <c r="AA53" t="n">
         <v>1</v>
       </c>
       <c r="AB53" t="n">
-        <v>492.019962635985</v>
+        <v>494.491984261211</v>
       </c>
       <c r="AC53" t="n">
-        <v>26.3112279484484</v>
+        <v>26.4434216182466</v>
       </c>
       <c r="AD53" t="n">
         <v>1</v>
       </c>
       <c r="AE53" t="n">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="AF53" t="n">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AG53" t="n">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="54">
@@ -4037,34 +4037,34 @@
         <v>1785</v>
       </c>
       <c r="L54" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M54" t="n">
-        <v>1.72068426359533</v>
+        <v>1.72377662558896</v>
       </c>
       <c r="N54" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O54" t="n">
-        <v>1492.89547264775</v>
+        <v>1490.21729894964</v>
       </c>
       <c r="P54" t="n">
-        <v>47.6504673700138</v>
+        <v>47.5649850098948</v>
       </c>
       <c r="Q54" t="n">
-        <v>1399.50055660253</v>
+        <v>1396.98992833025</v>
       </c>
       <c r="R54" t="n">
-        <v>1586.29038869298</v>
+        <v>1583.44466956904</v>
       </c>
       <c r="S54" t="n">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="T54" t="n">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="U54" t="n">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="V54" t="n">
         <v>1.43910462015558</v>
@@ -4076,31 +4076,31 @@
         <v>1.52913440297845</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.281579643439757</v>
+        <v>0.284672005433379</v>
       </c>
       <c r="Z54" t="n">
-        <v>16.3643992914425</v>
+        <v>16.5144370336334</v>
       </c>
       <c r="AA54" t="n">
         <v>1</v>
       </c>
       <c r="AB54" t="n">
-        <v>292.104527352248</v>
+        <v>294.782701050357</v>
       </c>
       <c r="AC54" t="n">
-        <v>16.3643992914424</v>
+        <v>16.5144370336334</v>
       </c>
       <c r="AD54" t="n">
         <v>1</v>
       </c>
       <c r="AE54" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AF54" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AG54" t="n">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="55">
@@ -4130,37 +4130,37 @@
         <v>1735</v>
       </c>
       <c r="L55" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M55" t="n">
-        <v>1.67248582483916</v>
+        <v>1.67549156604865</v>
       </c>
       <c r="N55" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O55" t="n">
-        <v>1340.53024447124</v>
+        <v>1338.12540574808</v>
       </c>
       <c r="P55" t="n">
-        <v>43.3053089413084</v>
+        <v>43.2276215602962</v>
       </c>
       <c r="Q55" t="n">
-        <v>1255.65183894628</v>
+        <v>1253.3992674899</v>
       </c>
       <c r="R55" t="n">
-        <v>1425.40864999621</v>
+        <v>1422.85154400626</v>
       </c>
       <c r="S55" t="n">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="T55" t="n">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="U55" t="n">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="V55" t="n">
-        <v>1.29222929777886</v>
+        <v>1.29222929777887</v>
       </c>
       <c r="W55" t="n">
         <v>1.21040916517053</v>
@@ -4169,31 +4169,31 @@
         <v>1.3740494303872</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.380256527060297</v>
+        <v>0.383262268269785</v>
       </c>
       <c r="Z55" t="n">
-        <v>22.7360089641935</v>
+        <v>22.8746163833961</v>
       </c>
       <c r="AA55" t="n">
         <v>1</v>
       </c>
       <c r="AB55" t="n">
-        <v>394.469755528757</v>
+        <v>396.874594251923</v>
       </c>
       <c r="AC55" t="n">
-        <v>22.7360089641935</v>
+        <v>22.8746163833961</v>
       </c>
       <c r="AD55" t="n">
         <v>1</v>
       </c>
       <c r="AE55" t="n">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AF55" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AG55" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="56">
@@ -4223,70 +4223,70 @@
         <v>710</v>
       </c>
       <c r="L56" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M56" t="n">
-        <v>0.68441783033764</v>
+        <v>0.685647845472358</v>
       </c>
       <c r="N56" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O56" t="n">
-        <v>625.847856542144</v>
+        <v>624.725119351819</v>
       </c>
       <c r="P56" t="n">
-        <v>22.7472580084861</v>
+        <v>22.7064506584616</v>
       </c>
       <c r="Q56" t="n">
-        <v>581.263230845511</v>
+        <v>580.220476061234</v>
       </c>
       <c r="R56" t="n">
-        <v>670.432482238777</v>
+        <v>669.229762642404</v>
       </c>
       <c r="S56" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T56" t="n">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="U56" t="n">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="V56" t="n">
-        <v>0.603297791684558</v>
+        <v>0.603297791684559</v>
       </c>
       <c r="W56" t="n">
         <v>0.560319604662438</v>
       </c>
       <c r="X56" t="n">
-        <v>0.646275978706678</v>
+        <v>0.646275978706679</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.0811200386530813</v>
+        <v>0.0823500537877998</v>
       </c>
       <c r="Z56" t="n">
-        <v>11.852414571529</v>
+        <v>12.0105465701663</v>
       </c>
       <c r="AA56" t="n">
         <v>1</v>
       </c>
       <c r="AB56" t="n">
-        <v>84.1521434578561</v>
+        <v>85.274880648181</v>
       </c>
       <c r="AC56" t="n">
-        <v>11.852414571529</v>
+        <v>12.0105465701663</v>
       </c>
       <c r="AD56" t="n">
         <v>1</v>
       </c>
       <c r="AE56" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF56" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AG56" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57">
@@ -4316,34 +4316,34 @@
         <v>1487</v>
       </c>
       <c r="L57" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M57" t="n">
-        <v>1.43342156860855</v>
+        <v>1.43599767072873</v>
       </c>
       <c r="N57" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O57" t="n">
-        <v>1308.40426187528</v>
+        <v>1306.05705542657</v>
       </c>
       <c r="P57" t="n">
-        <v>42.3882230967875</v>
+        <v>42.3121809181572</v>
       </c>
       <c r="Q57" t="n">
-        <v>1225.32334460558</v>
+        <v>1223.12518082698</v>
       </c>
       <c r="R57" t="n">
-        <v>1391.48517914499</v>
+        <v>1388.98893002616</v>
       </c>
       <c r="S57" t="n">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="T57" t="n">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="U57" t="n">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="V57" t="n">
         <v>1.2612608536862</v>
@@ -4355,31 +4355,31 @@
         <v>1.34134826374281</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.17216071492235</v>
+        <v>0.174736817042528</v>
       </c>
       <c r="Z57" t="n">
-        <v>12.0104733103374</v>
+        <v>12.1683217601498</v>
       </c>
       <c r="AA57" t="n">
         <v>1</v>
       </c>
       <c r="AB57" t="n">
-        <v>178.595738124718</v>
+        <v>180.942944573427</v>
       </c>
       <c r="AC57" t="n">
-        <v>12.0104733103374</v>
+        <v>12.1683217601498</v>
       </c>
       <c r="AD57" t="n">
         <v>1</v>
       </c>
       <c r="AE57" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AF57" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AG57" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="58">
@@ -4409,34 +4409,34 @@
         <v>1733</v>
       </c>
       <c r="L58" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M58" t="n">
-        <v>1.67055788728891</v>
+        <v>1.67356016366704</v>
       </c>
       <c r="N58" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O58" t="n">
-        <v>1365.30670887131</v>
+        <v>1362.85742251165</v>
       </c>
       <c r="P58" t="n">
-        <v>44.0123557642342</v>
+        <v>43.9333999794795</v>
       </c>
       <c r="Q58" t="n">
-        <v>1279.04249157341</v>
+        <v>1276.74795855187</v>
       </c>
       <c r="R58" t="n">
-        <v>1451.57092616921</v>
+        <v>1448.96688647143</v>
       </c>
       <c r="S58" t="n">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="T58" t="n">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="U58" t="n">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="V58" t="n">
         <v>1.31611303581848</v>
@@ -4448,31 +4448,31 @@
         <v>1.39926904770412</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.354444851470431</v>
+        <v>0.357447127848554</v>
       </c>
       <c r="Z58" t="n">
-        <v>21.2171547102535</v>
+        <v>21.3584868718033</v>
       </c>
       <c r="AA58" t="n">
         <v>1</v>
       </c>
       <c r="AB58" t="n">
-        <v>367.693291128693</v>
+        <v>370.142577488351</v>
       </c>
       <c r="AC58" t="n">
-        <v>21.2171547102535</v>
+        <v>21.3584868718033</v>
       </c>
       <c r="AD58" t="n">
         <v>1</v>
       </c>
       <c r="AE58" t="n">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AF58" t="n">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AG58" t="n">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="59">
@@ -7522,70 +7522,70 @@
         <v>832</v>
       </c>
       <c r="L107" t="n">
-        <v>530258</v>
+        <v>529354</v>
       </c>
       <c r="M107" t="n">
-        <v>1.56904752026372</v>
+        <v>1.57172704844017</v>
       </c>
       <c r="N107" t="n">
-        <v>13.1811189595361</v>
+        <v>13.1794126741801</v>
       </c>
       <c r="O107" t="n">
-        <v>829.216095322175</v>
+        <v>827.8024224494</v>
       </c>
       <c r="P107" t="n">
-        <v>21.7157880877741</v>
+        <v>21.678766350372</v>
       </c>
       <c r="Q107" t="n">
-        <v>786.653150670137</v>
+        <v>785.312040402671</v>
       </c>
       <c r="R107" t="n">
-        <v>871.779039974212</v>
+        <v>870.292804496129</v>
       </c>
       <c r="S107" t="n">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="T107" t="n">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="U107" t="n">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="V107" t="n">
         <v>1.56379742563464</v>
       </c>
       <c r="W107" t="n">
-        <v>1.48352905693104</v>
+        <v>1.48352905693103</v>
       </c>
       <c r="X107" t="n">
         <v>1.64406579433825</v>
       </c>
       <c r="Y107" t="n">
-        <v>0.00525009462907766</v>
+        <v>0.00792962280553344</v>
       </c>
       <c r="Z107" t="n">
-        <v>0.334603927623256</v>
+        <v>0.50451653252408</v>
       </c>
       <c r="AA107" t="n">
         <v>0</v>
       </c>
       <c r="AB107" t="n">
-        <v>2.78390467782549</v>
+        <v>4.19757755060039</v>
       </c>
       <c r="AC107" t="n">
-        <v>0.334603927623256</v>
+        <v>0.50451653252408</v>
       </c>
       <c r="AD107" t="n">
         <v>0</v>
       </c>
       <c r="AE107" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF107" t="n">
-        <v>-39</v>
+        <v>-38</v>
       </c>
       <c r="AG107" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="108">
@@ -7615,34 +7615,34 @@
         <v>956</v>
       </c>
       <c r="L108" t="n">
-        <v>530258</v>
+        <v>529354</v>
       </c>
       <c r="M108" t="n">
-        <v>1.80289594876456</v>
+        <v>1.80597482969808</v>
       </c>
       <c r="N108" t="n">
-        <v>13.1811189595361</v>
+        <v>13.1794126741801</v>
       </c>
       <c r="O108" t="n">
-        <v>739.288165216978</v>
+        <v>738.027804220338</v>
       </c>
       <c r="P108" t="n">
-        <v>19.8740374164878</v>
+        <v>19.8401555517644</v>
       </c>
       <c r="Q108" t="n">
-        <v>700.335051880662</v>
+        <v>699.14109933888</v>
       </c>
       <c r="R108" t="n">
-        <v>778.241278553295</v>
+        <v>776.914509101796</v>
       </c>
       <c r="S108" t="n">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="T108" t="n">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="U108" t="n">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="V108" t="n">
         <v>1.3942046423005</v>
@@ -7654,31 +7654,31 @@
         <v>1.46766532245302</v>
       </c>
       <c r="Y108" t="n">
-        <v>0.408691306464064</v>
+        <v>0.411770187397587</v>
       </c>
       <c r="Z108" t="n">
-        <v>22.6686019647512</v>
+        <v>22.800438889086</v>
       </c>
       <c r="AA108" t="n">
         <v>1</v>
       </c>
       <c r="AB108" t="n">
-        <v>216.711834783022</v>
+        <v>217.972195779662</v>
       </c>
       <c r="AC108" t="n">
-        <v>22.6686019647512</v>
+        <v>22.800438889086</v>
       </c>
       <c r="AD108" t="n">
         <v>1</v>
       </c>
       <c r="AE108" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF108" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AG108" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="109">
@@ -7708,34 +7708,34 @@
         <v>1011</v>
       </c>
       <c r="L109" t="n">
-        <v>530258</v>
+        <v>529354</v>
       </c>
       <c r="M109" t="n">
-        <v>1.90661904205123</v>
+        <v>1.90987505525603</v>
       </c>
       <c r="N109" t="n">
-        <v>13.1811189595361</v>
+        <v>13.1794126741801</v>
       </c>
       <c r="O109" t="n">
-        <v>780.873774159227</v>
+        <v>779.542516748985</v>
       </c>
       <c r="P109" t="n">
-        <v>24.3796471818877</v>
+        <v>24.3380840163109</v>
       </c>
       <c r="Q109" t="n">
-        <v>733.089665682727</v>
+        <v>731.839872077015</v>
       </c>
       <c r="R109" t="n">
-        <v>828.657882635727</v>
+        <v>827.245161420954</v>
       </c>
       <c r="S109" t="n">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="T109" t="n">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="U109" t="n">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="V109" t="n">
         <v>1.47262987858595</v>
@@ -7747,31 +7747,31 @@
         <v>1.56274470660646</v>
       </c>
       <c r="Y109" t="n">
-        <v>0.433989163465281</v>
+        <v>0.437245176670084</v>
       </c>
       <c r="Z109" t="n">
-        <v>22.7622379664464</v>
+        <v>22.8939152572716</v>
       </c>
       <c r="AA109" t="n">
         <v>1</v>
       </c>
       <c r="AB109" t="n">
-        <v>230.126225840773</v>
+        <v>231.457483251015</v>
       </c>
       <c r="AC109" t="n">
-        <v>22.7622379664464</v>
+        <v>22.8939152572716</v>
       </c>
       <c r="AD109" t="n">
         <v>1</v>
       </c>
       <c r="AE109" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF109" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG109" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="110">
@@ -7801,34 +7801,34 @@
         <v>930</v>
       </c>
       <c r="L110" t="n">
-        <v>530258</v>
+        <v>529354</v>
       </c>
       <c r="M110" t="n">
-        <v>1.75386321375632</v>
+        <v>1.75685835943433</v>
       </c>
       <c r="N110" t="n">
-        <v>13.1811189595361</v>
+        <v>13.1794126741801</v>
       </c>
       <c r="O110" t="n">
-        <v>758.093338735254</v>
+        <v>756.800918105641</v>
       </c>
       <c r="P110" t="n">
-        <v>23.8244158253175</v>
+        <v>23.7837992350801</v>
       </c>
       <c r="Q110" t="n">
-        <v>711.397483717632</v>
+        <v>710.184671604884</v>
       </c>
       <c r="R110" t="n">
-        <v>804.789193752876</v>
+        <v>803.417164606398</v>
       </c>
       <c r="S110" t="n">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="T110" t="n">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="U110" t="n">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="V110" t="n">
         <v>1.4296688380661</v>
@@ -7840,31 +7840,31 @@
         <v>1.51773135672234</v>
       </c>
       <c r="Y110" t="n">
-        <v>0.324194375690222</v>
+        <v>0.327189521368231</v>
       </c>
       <c r="Z110" t="n">
-        <v>18.4845872327684</v>
+        <v>18.6235571929418</v>
       </c>
       <c r="AA110" t="n">
         <v>1</v>
       </c>
       <c r="AB110" t="n">
-        <v>171.906661264746</v>
+        <v>173.199081894359</v>
       </c>
       <c r="AC110" t="n">
-        <v>18.4845872327684</v>
+        <v>18.6235571929418</v>
       </c>
       <c r="AD110" t="n">
         <v>1</v>
       </c>
       <c r="AE110" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AF110" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG110" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="111">
@@ -7894,70 +7894,70 @@
         <v>830</v>
       </c>
       <c r="L111" t="n">
-        <v>530258</v>
+        <v>529354</v>
       </c>
       <c r="M111" t="n">
-        <v>1.56527577141693</v>
+        <v>1.56794885841989</v>
       </c>
       <c r="N111" t="n">
-        <v>13.1811189595361</v>
+        <v>13.1794126741801</v>
       </c>
       <c r="O111" t="n">
-        <v>833.132085116701</v>
+        <v>831.71173614517</v>
       </c>
       <c r="P111" t="n">
-        <v>25.6496557219263</v>
+        <v>25.6059274070821</v>
       </c>
       <c r="Q111" t="n">
-        <v>782.858759901726</v>
+        <v>781.524118427289</v>
       </c>
       <c r="R111" t="n">
-        <v>883.405410331677</v>
+        <v>881.899353863051</v>
       </c>
       <c r="S111" t="n">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="T111" t="n">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="U111" t="n">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="V111" t="n">
         <v>1.57118249063041</v>
       </c>
       <c r="W111" t="n">
-        <v>1.47637331242853</v>
+        <v>1.47637331242852</v>
       </c>
       <c r="X111" t="n">
         <v>1.6659916688323</v>
       </c>
       <c r="Y111" t="n">
-        <v>-0.00590671921348007</v>
+        <v>-0.00323363221052553</v>
       </c>
       <c r="Z111" t="n">
-        <v>-0.377359652614651</v>
+        <v>-0.206233270502465</v>
       </c>
       <c r="AA111" t="n">
         <v>0</v>
       </c>
       <c r="AB111" t="n">
-        <v>-3.13208511670143</v>
+        <v>-1.71173614517045</v>
       </c>
       <c r="AC111" t="n">
-        <v>-0.377359652614628</v>
+        <v>-0.206233270502465</v>
       </c>
       <c r="AD111" t="n">
         <v>0</v>
       </c>
       <c r="AE111" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AF111" t="n">
-        <v>-53</v>
+        <v>-51</v>
       </c>
       <c r="AG111" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="112">
@@ -7987,34 +7987,34 @@
         <v>836</v>
       </c>
       <c r="L112" t="n">
-        <v>530258</v>
+        <v>529354</v>
       </c>
       <c r="M112" t="n">
-        <v>1.5765910179573</v>
+        <v>1.57928342848075</v>
       </c>
       <c r="N112" t="n">
-        <v>13.1811189595361</v>
+        <v>13.1794126741801</v>
       </c>
       <c r="O112" t="n">
-        <v>733.63837339349</v>
+        <v>732.387644334148</v>
       </c>
       <c r="P112" t="n">
-        <v>23.2271698231103</v>
+        <v>23.1875714360607</v>
       </c>
       <c r="Q112" t="n">
-        <v>688.113120540194</v>
+        <v>686.940004319469</v>
       </c>
       <c r="R112" t="n">
-        <v>779.163626246786</v>
+        <v>777.835284348827</v>
       </c>
       <c r="S112" t="n">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="T112" t="n">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="U112" t="n">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="V112" t="n">
         <v>1.38354984440308</v>
@@ -8026,31 +8026,31 @@
         <v>1.46940475437765</v>
       </c>
       <c r="Y112" t="n">
-        <v>0.193041173554214</v>
+        <v>0.195733584077671</v>
       </c>
       <c r="Z112" t="n">
-        <v>12.2442137089127</v>
+        <v>12.3938224480684</v>
       </c>
       <c r="AA112" t="n">
         <v>1</v>
       </c>
       <c r="AB112" t="n">
-        <v>102.36162660651</v>
+        <v>103.612355665852</v>
       </c>
       <c r="AC112" t="n">
-        <v>12.2442137089127</v>
+        <v>12.3938224480684</v>
       </c>
       <c r="AD112" t="n">
         <v>1</v>
       </c>
       <c r="AE112" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF112" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AG112" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113">
@@ -8080,70 +8080,70 @@
         <v>310</v>
       </c>
       <c r="L113" t="n">
-        <v>530258</v>
+        <v>529354</v>
       </c>
       <c r="M113" t="n">
-        <v>0.584621071252107</v>
+        <v>0.585619453144776</v>
       </c>
       <c r="N113" t="n">
-        <v>13.1811189595361</v>
+        <v>13.1794126741801</v>
       </c>
       <c r="O113" t="n">
-        <v>298.145482369071</v>
+        <v>297.637194863627</v>
       </c>
       <c r="P113" t="n">
-        <v>12.1815155971124</v>
+        <v>12.1607481780451</v>
       </c>
       <c r="Q113" t="n">
-        <v>274.269711798731</v>
+        <v>273.802128434659</v>
       </c>
       <c r="R113" t="n">
-        <v>322.021252939412</v>
+        <v>321.472261292595</v>
       </c>
       <c r="S113" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="T113" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="U113" t="n">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="V113" t="n">
-        <v>0.562264939650267</v>
+        <v>0.562264939650266</v>
       </c>
       <c r="W113" t="n">
         <v>0.517238234592841</v>
       </c>
       <c r="X113" t="n">
-        <v>0.607291644707693</v>
+        <v>0.607291644707692</v>
       </c>
       <c r="Y113" t="n">
-        <v>0.0223561316018404</v>
+        <v>0.0233545134945102</v>
       </c>
       <c r="Z113" t="n">
-        <v>3.82403794546086</v>
+        <v>3.9880016568945</v>
       </c>
       <c r="AA113" t="n">
         <v>0</v>
       </c>
       <c r="AB113" t="n">
-        <v>11.8545176309287</v>
+        <v>12.362805136373</v>
       </c>
       <c r="AC113" t="n">
-        <v>3.82403794546087</v>
+        <v>3.9880016568945</v>
       </c>
       <c r="AD113" t="n">
         <v>0</v>
       </c>
       <c r="AE113" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF113" t="n">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="AG113" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114">
@@ -8173,37 +8173,37 @@
         <v>766</v>
       </c>
       <c r="L114" t="n">
-        <v>530258</v>
+        <v>529354</v>
       </c>
       <c r="M114" t="n">
-        <v>1.44457980831972</v>
+        <v>1.44704677777064</v>
       </c>
       <c r="N114" t="n">
-        <v>13.1811189595361</v>
+        <v>13.1794126741801</v>
       </c>
       <c r="O114" t="n">
-        <v>749.383816532745</v>
+        <v>748.106244162038</v>
       </c>
       <c r="P114" t="n">
-        <v>23.6118566642342</v>
+        <v>23.5716024513332</v>
       </c>
       <c r="Q114" t="n">
-        <v>703.104577470845</v>
+        <v>701.905903357425</v>
       </c>
       <c r="R114" t="n">
-        <v>795.663055594644</v>
+        <v>794.306584966651</v>
       </c>
       <c r="S114" t="n">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="T114" t="n">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="U114" t="n">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="V114" t="n">
-        <v>1.41324377290441</v>
+        <v>1.4132437729044</v>
       </c>
       <c r="W114" t="n">
         <v>1.32596693962344</v>
@@ -8212,31 +8212,31 @@
         <v>1.50052060618537</v>
       </c>
       <c r="Y114" t="n">
-        <v>0.0313360354153174</v>
+        <v>0.0338030048662372</v>
       </c>
       <c r="Z114" t="n">
-        <v>2.16921455186101</v>
+        <v>2.33599945665302</v>
       </c>
       <c r="AA114" t="n">
         <v>0</v>
       </c>
       <c r="AB114" t="n">
-        <v>16.6161834672555</v>
+        <v>17.8937558379621</v>
       </c>
       <c r="AC114" t="n">
-        <v>2.16921455186103</v>
+        <v>2.33599945665302</v>
       </c>
       <c r="AD114" t="n">
         <v>0</v>
       </c>
       <c r="AE114" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF114" t="n">
-        <v>-29</v>
+        <v>-28</v>
       </c>
       <c r="AG114" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="115">
@@ -8266,34 +8266,34 @@
         <v>819</v>
       </c>
       <c r="L115" t="n">
-        <v>530258</v>
+        <v>529354</v>
       </c>
       <c r="M115" t="n">
-        <v>1.5445311527596</v>
+        <v>1.5471688133083</v>
       </c>
       <c r="N115" t="n">
-        <v>13.1811189595361</v>
+        <v>13.1794126741801</v>
       </c>
       <c r="O115" t="n">
-        <v>764.125179942926</v>
+        <v>762.822476046579</v>
       </c>
       <c r="P115" t="n">
-        <v>23.971532679308</v>
+        <v>23.930665279774</v>
       </c>
       <c r="Q115" t="n">
-        <v>717.140975891482</v>
+        <v>715.918372098222</v>
       </c>
       <c r="R115" t="n">
-        <v>811.10938399437</v>
+        <v>809.726579994936</v>
       </c>
       <c r="S115" t="n">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="T115" t="n">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U115" t="n">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="V115" t="n">
         <v>1.44104413312562</v>
@@ -8305,31 +8305,31 @@
         <v>1.52965044184976</v>
       </c>
       <c r="Y115" t="n">
-        <v>0.103487019633979</v>
+        <v>0.106124680182677</v>
       </c>
       <c r="Z115" t="n">
-        <v>6.70022222919099</v>
+        <v>6.85928253399519</v>
       </c>
       <c r="AA115" t="n">
         <v>1</v>
       </c>
       <c r="AB115" t="n">
-        <v>54.8748200570741</v>
+        <v>56.1775239534206</v>
       </c>
       <c r="AC115" t="n">
-        <v>6.70022222919098</v>
+        <v>6.85928253399519</v>
       </c>
       <c r="AD115" t="n">
         <v>1</v>
       </c>
       <c r="AE115" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AF115" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AG115" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="116">
@@ -11379,37 +11379,37 @@
         <v>848</v>
       </c>
       <c r="L164" t="n">
-        <v>507120</v>
+        <v>506163</v>
       </c>
       <c r="M164" t="n">
-        <v>1.67218804227796</v>
+        <v>1.67534964033325</v>
       </c>
       <c r="N164" t="n">
-        <v>13.136502940958</v>
+        <v>13.1346140307828</v>
       </c>
       <c r="O164" t="n">
-        <v>709.963774535797</v>
+        <v>708.623982509786</v>
       </c>
       <c r="P164" t="n">
-        <v>26.5780649550353</v>
+        <v>26.5279087628875</v>
       </c>
       <c r="Q164" t="n">
-        <v>657.870767223928</v>
+        <v>656.629281334526</v>
       </c>
       <c r="R164" t="n">
-        <v>762.056781847666</v>
+        <v>760.618683685045</v>
       </c>
       <c r="S164" t="n">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="T164" t="n">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="U164" t="n">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="V164" t="n">
-        <v>1.39999166772322</v>
+        <v>1.39999166772321</v>
       </c>
       <c r="W164" t="n">
         <v>1.29726843197651</v>
@@ -11418,31 +11418,31 @@
         <v>1.50271490346992</v>
       </c>
       <c r="Y164" t="n">
-        <v>0.272196374554747</v>
+        <v>0.275357972610038</v>
       </c>
       <c r="Z164" t="n">
-        <v>16.277856776439</v>
+        <v>16.4358511191291</v>
       </c>
       <c r="AA164" t="n">
         <v>1</v>
       </c>
       <c r="AB164" t="n">
-        <v>138.036225464203</v>
+        <v>139.376017490214</v>
       </c>
       <c r="AC164" t="n">
-        <v>16.277856776439</v>
+        <v>16.4358511191291</v>
       </c>
       <c r="AD164" t="n">
         <v>1</v>
       </c>
       <c r="AE164" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF164" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AG164" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="165">
@@ -11472,34 +11472,34 @@
         <v>925</v>
       </c>
       <c r="L165" t="n">
-        <v>507120</v>
+        <v>506163</v>
       </c>
       <c r="M165" t="n">
-        <v>1.82402587158858</v>
+        <v>1.82747454871257</v>
       </c>
       <c r="N165" t="n">
-        <v>13.136502940958</v>
+        <v>13.1346140307828</v>
       </c>
       <c r="O165" t="n">
-        <v>633.602994158799</v>
+        <v>632.407304646632</v>
       </c>
       <c r="P165" t="n">
-        <v>24.0620071490744</v>
+        <v>24.0165990783186</v>
       </c>
       <c r="Q165" t="n">
-        <v>586.441460146614</v>
+        <v>585.334770453128</v>
       </c>
       <c r="R165" t="n">
-        <v>680.764528170985</v>
+        <v>679.479838840137</v>
       </c>
       <c r="S165" t="n">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="T165" t="n">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="U165" t="n">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="V165" t="n">
         <v>1.24941432828285</v>
@@ -11511,31 +11511,31 @@
         <v>1.34241309388505</v>
       </c>
       <c r="Y165" t="n">
-        <v>0.574611543305728</v>
+        <v>0.578060220429718</v>
       </c>
       <c r="Z165" t="n">
-        <v>31.5023790098595</v>
+        <v>31.6316427409046</v>
       </c>
       <c r="AA165" t="n">
         <v>1</v>
       </c>
       <c r="AB165" t="n">
-        <v>291.397005841201</v>
+        <v>292.592695353368</v>
       </c>
       <c r="AC165" t="n">
-        <v>31.5023790098595</v>
+        <v>31.6316427409046</v>
       </c>
       <c r="AD165" t="n">
         <v>1</v>
       </c>
       <c r="AE165" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF165" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG165" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="166">
@@ -11565,70 +11565,70 @@
         <v>1056</v>
       </c>
       <c r="L166" t="n">
-        <v>507120</v>
+        <v>506163</v>
       </c>
       <c r="M166" t="n">
-        <v>2.08234737340275</v>
+        <v>2.08628445777348</v>
       </c>
       <c r="N166" t="n">
-        <v>13.136502940958</v>
+        <v>13.1346140307828</v>
       </c>
       <c r="O166" t="n">
-        <v>642.682646870223</v>
+        <v>641.469822897485</v>
       </c>
       <c r="P166" t="n">
-        <v>28.5695860107971</v>
+        <v>28.5156715648823</v>
       </c>
       <c r="Q166" t="n">
-        <v>586.68625828906</v>
+        <v>585.579106630315</v>
       </c>
       <c r="R166" t="n">
-        <v>698.679035451385</v>
+        <v>697.360539164654</v>
       </c>
       <c r="S166" t="n">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="T166" t="n">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="U166" t="n">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="V166" t="n">
-        <v>1.2673186757971</v>
+        <v>1.26731867579709</v>
       </c>
       <c r="W166" t="n">
         <v>1.15689828499972</v>
       </c>
       <c r="X166" t="n">
-        <v>1.37773906659447</v>
+        <v>1.37773906659446</v>
       </c>
       <c r="Y166" t="n">
-        <v>0.81502869760565</v>
+        <v>0.81896578197639</v>
       </c>
       <c r="Z166" t="n">
-        <v>39.1399008645622</v>
+        <v>39.2547516195564</v>
       </c>
       <c r="AA166" t="n">
         <v>1</v>
       </c>
       <c r="AB166" t="n">
-        <v>413.317353129777</v>
+        <v>414.530177102515</v>
       </c>
       <c r="AC166" t="n">
-        <v>39.1399008645622</v>
+        <v>39.2547516195564</v>
       </c>
       <c r="AD166" t="n">
         <v>1</v>
       </c>
       <c r="AE166" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF166" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG166" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="167">
@@ -11658,34 +11658,34 @@
         <v>940</v>
       </c>
       <c r="L167" t="n">
-        <v>507120</v>
+        <v>506163</v>
       </c>
       <c r="M167" t="n">
-        <v>1.85360466950623</v>
+        <v>1.85710927112412</v>
       </c>
       <c r="N167" t="n">
-        <v>13.136502940958</v>
+        <v>13.1346140307828</v>
       </c>
       <c r="O167" t="n">
-        <v>619.359124233552</v>
+        <v>618.190314717281</v>
       </c>
       <c r="P167" t="n">
-        <v>27.6611225461143</v>
+        <v>27.6089224864112</v>
       </c>
       <c r="Q167" t="n">
-        <v>565.143324043168</v>
+        <v>564.076826643915</v>
       </c>
       <c r="R167" t="n">
-        <v>673.574924423936</v>
+        <v>672.303802790647</v>
       </c>
       <c r="S167" t="n">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="T167" t="n">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="U167" t="n">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="V167" t="n">
         <v>1.22132655827724</v>
@@ -11697,31 +11697,31 @@
         <v>1.32823577146225</v>
       </c>
       <c r="Y167" t="n">
-        <v>0.632278111228995</v>
+        <v>0.635782712846888</v>
       </c>
       <c r="Z167" t="n">
-        <v>34.1107314645157</v>
+        <v>34.235072902417</v>
       </c>
       <c r="AA167" t="n">
         <v>1</v>
       </c>
       <c r="AB167" t="n">
-        <v>320.640875766448</v>
+        <v>321.809685282719</v>
       </c>
       <c r="AC167" t="n">
-        <v>34.1107314645157</v>
+        <v>34.235072902417</v>
       </c>
       <c r="AD167" t="n">
         <v>1</v>
       </c>
       <c r="AE167" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF167" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG167" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="168">
@@ -11751,34 +11751,34 @@
         <v>955</v>
       </c>
       <c r="L168" t="n">
-        <v>507120</v>
+        <v>506163</v>
       </c>
       <c r="M168" t="n">
-        <v>1.88318346742388</v>
+        <v>1.88674399353568</v>
       </c>
       <c r="N168" t="n">
-        <v>13.136502940958</v>
+        <v>13.1346140307828</v>
       </c>
       <c r="O168" t="n">
-        <v>659.627639337109</v>
+        <v>658.382838006367</v>
       </c>
       <c r="P168" t="n">
-        <v>29.229222133453</v>
+        <v>29.1740628701983</v>
       </c>
       <c r="Q168" t="n">
-        <v>602.338363955541</v>
+        <v>601.201674780778</v>
       </c>
       <c r="R168" t="n">
-        <v>716.916914718677</v>
+        <v>715.564001231956</v>
       </c>
       <c r="S168" t="n">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="T168" t="n">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="U168" t="n">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="V168" t="n">
         <v>1.30073284299004</v>
@@ -11790,31 +11790,31 @@
         <v>1.41370270294738</v>
       </c>
       <c r="Y168" t="n">
-        <v>0.582450624433844</v>
+        <v>0.58601115054564</v>
       </c>
       <c r="Z168" t="n">
-        <v>30.9290430013498</v>
+        <v>31.0593886904328</v>
       </c>
       <c r="AA168" t="n">
         <v>1</v>
       </c>
       <c r="AB168" t="n">
-        <v>295.372360662891</v>
+        <v>296.617161993633</v>
       </c>
       <c r="AC168" t="n">
-        <v>30.9290430013499</v>
+        <v>31.0593886904328</v>
       </c>
       <c r="AD168" t="n">
         <v>1</v>
       </c>
       <c r="AE168" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF168" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG168" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="169">
@@ -11844,34 +11844,34 @@
         <v>899</v>
       </c>
       <c r="L169" t="n">
-        <v>507120</v>
+        <v>506163</v>
       </c>
       <c r="M169" t="n">
-        <v>1.77275595519798</v>
+        <v>1.77610769653254</v>
       </c>
       <c r="N169" t="n">
-        <v>13.136502940958</v>
+        <v>13.1346140307828</v>
       </c>
       <c r="O169" t="n">
-        <v>605.934788277575</v>
+        <v>604.791312192266</v>
       </c>
       <c r="P169" t="n">
-        <v>27.1379419391966</v>
+        <v>27.0867291879034</v>
       </c>
       <c r="Q169" t="n">
-        <v>552.74442207675</v>
+        <v>551.701322983976</v>
       </c>
       <c r="R169" t="n">
-        <v>659.1251544784</v>
+        <v>657.881301400557</v>
       </c>
       <c r="S169" t="n">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="T169" t="n">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U169" t="n">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="V169" t="n">
         <v>1.19485484358253</v>
@@ -11883,31 +11883,31 @@
         <v>1.29974198311721</v>
       </c>
       <c r="Y169" t="n">
-        <v>0.577901111615446</v>
+        <v>0.581252852950006</v>
       </c>
       <c r="Z169" t="n">
-        <v>32.5990224385345</v>
+        <v>32.7262166638191</v>
       </c>
       <c r="AA169" t="n">
         <v>1</v>
       </c>
       <c r="AB169" t="n">
-        <v>293.065211722425</v>
+        <v>294.208687807734</v>
       </c>
       <c r="AC169" t="n">
-        <v>32.5990224385345</v>
+        <v>32.7262166638191</v>
       </c>
       <c r="AD169" t="n">
         <v>1</v>
       </c>
       <c r="AE169" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF169" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AG169" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="170">
@@ -11937,28 +11937,28 @@
         <v>400</v>
       </c>
       <c r="L170" t="n">
-        <v>507120</v>
+        <v>506163</v>
       </c>
       <c r="M170" t="n">
-        <v>0.788767944470737</v>
+        <v>0.790259264308138</v>
       </c>
       <c r="N170" t="n">
-        <v>13.136502940958</v>
+        <v>13.1346140307828</v>
       </c>
       <c r="O170" t="n">
-        <v>324.432631300321</v>
+        <v>323.820385622464</v>
       </c>
       <c r="P170" t="n">
-        <v>16.0798766968991</v>
+        <v>16.0495319224889</v>
       </c>
       <c r="Q170" t="n">
-        <v>292.916072974398</v>
+        <v>292.363303054386</v>
       </c>
       <c r="R170" t="n">
-        <v>355.949189626243</v>
+        <v>355.277468190543</v>
       </c>
       <c r="S170" t="n">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="T170" t="n">
         <v>292</v>
@@ -11976,25 +11976,25 @@
         <v>0.70190327659379</v>
       </c>
       <c r="Y170" t="n">
-        <v>0.149012795195771</v>
+        <v>0.150504115033172</v>
       </c>
       <c r="Z170" t="n">
-        <v>18.8918421749198</v>
+        <v>19.0449035943839</v>
       </c>
       <c r="AA170" t="n">
         <v>1</v>
       </c>
       <c r="AB170" t="n">
-        <v>75.5673686996794</v>
+        <v>76.1796143775356</v>
       </c>
       <c r="AC170" t="n">
-        <v>18.8918421749198</v>
+        <v>19.0449035943839</v>
       </c>
       <c r="AD170" t="n">
         <v>1</v>
       </c>
       <c r="AE170" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF170" t="n">
         <v>45</v>
@@ -12030,34 +12030,34 @@
         <v>721</v>
       </c>
       <c r="L171" t="n">
-        <v>507120</v>
+        <v>506163</v>
       </c>
       <c r="M171" t="n">
-        <v>1.4217542199085</v>
+        <v>1.42444232391542</v>
       </c>
       <c r="N171" t="n">
-        <v>13.136502940958</v>
+        <v>13.1346140307828</v>
       </c>
       <c r="O171" t="n">
-        <v>560.357144004545</v>
+        <v>559.299678736339</v>
       </c>
       <c r="P171" t="n">
-        <v>25.3598532924774</v>
+        <v>25.3119960208239</v>
       </c>
       <c r="Q171" t="n">
-        <v>510.651831551289</v>
+        <v>509.688166535524</v>
       </c>
       <c r="R171" t="n">
-        <v>610.0624564578</v>
+        <v>608.911190937154</v>
       </c>
       <c r="S171" t="n">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="T171" t="n">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="U171" t="n">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="V171" t="n">
         <v>1.10497938161489</v>
@@ -12069,31 +12069,31 @@
         <v>1.20299427444747</v>
       </c>
       <c r="Y171" t="n">
-        <v>0.31677483829361</v>
+        <v>0.319462942300526</v>
       </c>
       <c r="Z171" t="n">
-        <v>22.2805625513808</v>
+        <v>22.4272290240861</v>
       </c>
       <c r="AA171" t="n">
         <v>1</v>
       </c>
       <c r="AB171" t="n">
-        <v>160.642855995455</v>
+        <v>161.700321263661</v>
       </c>
       <c r="AC171" t="n">
-        <v>22.2805625513808</v>
+        <v>22.4272290240861</v>
       </c>
       <c r="AD171" t="n">
         <v>1</v>
       </c>
       <c r="AE171" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF171" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AG171" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="172">
@@ -12123,34 +12123,34 @@
         <v>914</v>
       </c>
       <c r="L172" t="n">
-        <v>507120</v>
+        <v>506163</v>
       </c>
       <c r="M172" t="n">
-        <v>1.80233475311563</v>
+        <v>1.8057424189441</v>
       </c>
       <c r="N172" t="n">
-        <v>13.136502940958</v>
+        <v>13.1346140307828</v>
       </c>
       <c r="O172" t="n">
-        <v>601.251013464231</v>
+        <v>600.116376258273</v>
       </c>
       <c r="P172" t="n">
-        <v>26.9553494712317</v>
+        <v>26.9044812951709</v>
       </c>
       <c r="Q172" t="n">
-        <v>548.418528500617</v>
+        <v>547.383592919738</v>
       </c>
       <c r="R172" t="n">
-        <v>654.083498427845</v>
+        <v>652.849159596808</v>
       </c>
       <c r="S172" t="n">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="T172" t="n">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U172" t="n">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="V172" t="n">
         <v>1.18561881500282</v>
@@ -12162,31 +12162,31 @@
         <v>1.2898002414179</v>
       </c>
       <c r="Y172" t="n">
-        <v>0.616715938112812</v>
+        <v>0.620123603941274</v>
       </c>
       <c r="Z172" t="n">
-        <v>34.2176134065393</v>
+        <v>34.3417531446091</v>
       </c>
       <c r="AA172" t="n">
         <v>1</v>
       </c>
       <c r="AB172" t="n">
-        <v>312.748986535769</v>
+        <v>313.883623741727</v>
       </c>
       <c r="AC172" t="n">
-        <v>34.2176134065393</v>
+        <v>34.3417531446091</v>
       </c>
       <c r="AD172" t="n">
         <v>1</v>
       </c>
       <c r="AE172" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF172" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AG172" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="173">
@@ -15236,34 +15236,34 @@
         <v>1007</v>
       </c>
       <c r="L221" t="n">
-        <v>729727</v>
+        <v>727224</v>
       </c>
       <c r="M221" t="n">
-        <v>1.37996812506595</v>
+        <v>1.384717776091</v>
       </c>
       <c r="N221" t="n">
-        <v>13.5004257705766</v>
+        <v>13.4969898246011</v>
       </c>
       <c r="O221" t="n">
-        <v>975.582907980198</v>
+        <v>972.236609955492</v>
       </c>
       <c r="P221" t="n">
-        <v>28.0535665858037</v>
+        <v>27.9573414534401</v>
       </c>
       <c r="Q221" t="n">
-        <v>920.597917472023</v>
+        <v>917.44022070675</v>
       </c>
       <c r="R221" t="n">
-        <v>1030.56789848837</v>
+        <v>1027.03299920424</v>
       </c>
       <c r="S221" t="n">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="T221" t="n">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="U221" t="n">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="V221" t="n">
         <v>1.33691491198791</v>
@@ -15275,31 +15275,31 @@
         <v>1.41226499566053</v>
       </c>
       <c r="Y221" t="n">
-        <v>0.0430532130780441</v>
+        <v>0.0478028641030928</v>
       </c>
       <c r="Z221" t="n">
-        <v>3.11987011120177</v>
+        <v>3.45217378793521</v>
       </c>
       <c r="AA221" t="n">
         <v>0</v>
       </c>
       <c r="AB221" t="n">
-        <v>31.417092019802</v>
+        <v>34.7633900445076</v>
       </c>
       <c r="AC221" t="n">
-        <v>3.11987011120178</v>
+        <v>3.45217378793521</v>
       </c>
       <c r="AD221" t="n">
         <v>0</v>
       </c>
       <c r="AE221" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AF221" t="n">
-        <v>-23</v>
+        <v>-20</v>
       </c>
       <c r="AG221" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="222">
@@ -15329,34 +15329,34 @@
         <v>1132</v>
       </c>
       <c r="L222" t="n">
-        <v>729727</v>
+        <v>727224</v>
       </c>
       <c r="M222" t="n">
-        <v>1.55126506213968</v>
+        <v>1.5566042924876</v>
       </c>
       <c r="N222" t="n">
-        <v>13.5004257705766</v>
+        <v>13.4969898246011</v>
       </c>
       <c r="O222" t="n">
-        <v>888.310807610572</v>
+        <v>885.263857242216</v>
       </c>
       <c r="P222" t="n">
-        <v>25.9370661667338</v>
+        <v>25.8481007363532</v>
       </c>
       <c r="Q222" t="n">
-        <v>837.474157923774</v>
+        <v>834.601579798964</v>
       </c>
       <c r="R222" t="n">
-        <v>939.14745729737</v>
+        <v>935.926134685469</v>
       </c>
       <c r="S222" t="n">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="T222" t="n">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="U222" t="n">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="V222" t="n">
         <v>1.21731936410544</v>
@@ -15368,31 +15368,31 @@
         <v>1.28698466316495</v>
       </c>
       <c r="Y222" t="n">
-        <v>0.333945698034235</v>
+        <v>0.339284928382154</v>
       </c>
       <c r="Z222" t="n">
-        <v>21.5273138153205</v>
+        <v>21.796479042207</v>
       </c>
       <c r="AA222" t="n">
         <v>1</v>
       </c>
       <c r="AB222" t="n">
-        <v>243.689192389428</v>
+        <v>246.736142757784</v>
       </c>
       <c r="AC222" t="n">
-        <v>21.5273138153205</v>
+        <v>21.796479042207</v>
       </c>
       <c r="AD222" t="n">
         <v>1</v>
       </c>
       <c r="AE222" t="n">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AF222" t="n">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="AG222" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="223">
@@ -15422,34 +15422,34 @@
         <v>1250</v>
       </c>
       <c r="L223" t="n">
-        <v>729727</v>
+        <v>727224</v>
       </c>
       <c r="M223" t="n">
-        <v>1.71296937073728</v>
+        <v>1.71886516396599</v>
       </c>
       <c r="N223" t="n">
-        <v>13.5004257705766</v>
+        <v>13.4969898246011</v>
       </c>
       <c r="O223" t="n">
-        <v>908.28369414727</v>
+        <v>905.168235782086</v>
       </c>
       <c r="P223" t="n">
-        <v>31.0978871989619</v>
+        <v>30.9912198950811</v>
       </c>
       <c r="Q223" t="n">
-        <v>847.331835237304</v>
+        <v>844.425444787727</v>
       </c>
       <c r="R223" t="n">
-        <v>969.235553057235</v>
+        <v>965.911026776445</v>
       </c>
       <c r="S223" t="n">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="T223" t="n">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="U223" t="n">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="V223" t="n">
         <v>1.2446897184115</v>
@@ -15461,31 +15461,31 @@
         <v>1.32821665233332</v>
       </c>
       <c r="Y223" t="n">
-        <v>0.468279652325774</v>
+        <v>0.474175445554484</v>
       </c>
       <c r="Z223" t="n">
-        <v>27.3373044682184</v>
+        <v>27.5865411374331</v>
       </c>
       <c r="AA223" t="n">
         <v>1</v>
       </c>
       <c r="AB223" t="n">
-        <v>341.71630585273</v>
+        <v>344.831764217914</v>
       </c>
       <c r="AC223" t="n">
-        <v>27.3373044682184</v>
+        <v>27.5865411374331</v>
       </c>
       <c r="AD223" t="n">
         <v>1</v>
       </c>
       <c r="AE223" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AF223" t="n">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AG223" t="n">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="224">
@@ -15515,34 +15515,34 @@
         <v>1148</v>
       </c>
       <c r="L224" t="n">
-        <v>729727</v>
+        <v>727224</v>
       </c>
       <c r="M224" t="n">
-        <v>1.57319107008511</v>
+        <v>1.57860576658636</v>
       </c>
       <c r="N224" t="n">
-        <v>13.5004257705766</v>
+        <v>13.4969898246011</v>
       </c>
       <c r="O224" t="n">
-        <v>889.325177759066</v>
+        <v>886.274748050516</v>
       </c>
       <c r="P224" t="n">
-        <v>30.5525290590793</v>
+        <v>30.4477323608143</v>
       </c>
       <c r="Q224" t="n">
-        <v>829.442220803271</v>
+        <v>826.59719262332</v>
       </c>
       <c r="R224" t="n">
-        <v>949.208134714862</v>
+        <v>945.952303477712</v>
       </c>
       <c r="S224" t="n">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="T224" t="n">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="U224" t="n">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="V224" t="n">
         <v>1.21870943210141</v>
@@ -15554,31 +15554,31 @@
         <v>1.30077156897698</v>
       </c>
       <c r="Y224" t="n">
-        <v>0.354481637983703</v>
+        <v>0.359896334484951</v>
       </c>
       <c r="Z224" t="n">
-        <v>22.5326500209873</v>
+        <v>22.7983668945543</v>
       </c>
       <c r="AA224" t="n">
         <v>1</v>
       </c>
       <c r="AB224" t="n">
-        <v>258.674822240934</v>
+        <v>261.725251949484</v>
       </c>
       <c r="AC224" t="n">
-        <v>22.5326500209873</v>
+        <v>22.7983668945543</v>
       </c>
       <c r="AD224" t="n">
         <v>1</v>
       </c>
       <c r="AE224" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AF224" t="n">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AG224" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="225">
@@ -15608,34 +15608,34 @@
         <v>1062</v>
       </c>
       <c r="L225" t="n">
-        <v>729727</v>
+        <v>727224</v>
       </c>
       <c r="M225" t="n">
-        <v>1.45533877737839</v>
+        <v>1.4603478433055</v>
       </c>
       <c r="N225" t="n">
-        <v>13.5004257705766</v>
+        <v>13.4969898246011</v>
       </c>
       <c r="O225" t="n">
-        <v>966.584241869119</v>
+        <v>963.26880971792</v>
       </c>
       <c r="P225" t="n">
-        <v>32.7728696611062</v>
+        <v>32.6604570838524</v>
       </c>
       <c r="Q225" t="n">
-        <v>902.349417333351</v>
+        <v>899.254313833569</v>
       </c>
       <c r="R225" t="n">
-        <v>1030.81906640489</v>
+        <v>1027.28330560227</v>
       </c>
       <c r="S225" t="n">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="T225" t="n">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="U225" t="n">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="V225" t="n">
         <v>1.32458336044729</v>
@@ -15647,31 +15647,31 @@
         <v>1.41260919001885</v>
       </c>
       <c r="Y225" t="n">
-        <v>0.1307554169311</v>
+        <v>0.135764482858212</v>
       </c>
       <c r="Z225" t="n">
-        <v>8.98453466392478</v>
+        <v>9.29672224878346</v>
       </c>
       <c r="AA225" t="n">
         <v>1</v>
       </c>
       <c r="AB225" t="n">
-        <v>95.415758130881</v>
+        <v>98.7311902820804</v>
       </c>
       <c r="AC225" t="n">
-        <v>8.98453466392477</v>
+        <v>9.29672224878347</v>
       </c>
       <c r="AD225" t="n">
         <v>1</v>
       </c>
       <c r="AE225" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AF225" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AG225" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="226">
@@ -15701,34 +15701,34 @@
         <v>1052</v>
       </c>
       <c r="L226" t="n">
-        <v>729727</v>
+        <v>727224</v>
       </c>
       <c r="M226" t="n">
-        <v>1.44163502241249</v>
+        <v>1.44659692199377</v>
       </c>
       <c r="N226" t="n">
-        <v>13.5004257705766</v>
+        <v>13.4969898246011</v>
       </c>
       <c r="O226" t="n">
-        <v>881.368399446464</v>
+        <v>878.345261884314</v>
       </c>
       <c r="P226" t="n">
-        <v>30.3235383339511</v>
+        <v>30.2195270852925</v>
       </c>
       <c r="Q226" t="n">
-        <v>821.934264311919</v>
+        <v>819.114988797141</v>
       </c>
       <c r="R226" t="n">
-        <v>940.802534581008</v>
+        <v>937.575534971488</v>
       </c>
       <c r="S226" t="n">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="T226" t="n">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="U226" t="n">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="V226" t="n">
         <v>1.20780565807002</v>
@@ -15740,31 +15740,31 @@
         <v>1.28925274051941</v>
       </c>
       <c r="Y226" t="n">
-        <v>0.233829364342468</v>
+        <v>0.23879126392375</v>
       </c>
       <c r="Z226" t="n">
-        <v>16.2197338929217</v>
+        <v>16.5071043836203</v>
       </c>
       <c r="AA226" t="n">
         <v>1</v>
       </c>
       <c r="AB226" t="n">
-        <v>170.631600553536</v>
+        <v>173.654738115686</v>
       </c>
       <c r="AC226" t="n">
-        <v>16.2197338929217</v>
+        <v>16.5071043836203</v>
       </c>
       <c r="AD226" t="n">
         <v>1</v>
       </c>
       <c r="AE226" t="n">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AF226" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AG226" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="227">
@@ -15794,34 +15794,34 @@
         <v>363</v>
       </c>
       <c r="L227" t="n">
-        <v>729727</v>
+        <v>727224</v>
       </c>
       <c r="M227" t="n">
-        <v>0.497446305262105</v>
+        <v>0.499158443615722</v>
       </c>
       <c r="N227" t="n">
-        <v>13.5004257705766</v>
+        <v>13.4969898246011</v>
       </c>
       <c r="O227" t="n">
-        <v>321.482843640149</v>
+        <v>320.380141454769</v>
       </c>
       <c r="P227" t="n">
-        <v>13.8564967587891</v>
+        <v>13.8089682839111</v>
       </c>
       <c r="Q227" t="n">
-        <v>294.324109992923</v>
+        <v>293.314563618303</v>
       </c>
       <c r="R227" t="n">
-        <v>348.641577287376</v>
+        <v>347.445719291234</v>
       </c>
       <c r="S227" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="T227" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="U227" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="V227" t="n">
         <v>0.440552211498477</v>
@@ -15833,31 +15833,31 @@
         <v>0.477769874607046</v>
       </c>
       <c r="Y227" t="n">
-        <v>0.0568940937636278</v>
+        <v>0.0586062321172451</v>
       </c>
       <c r="Z227" t="n">
-        <v>11.4372331569837</v>
+        <v>11.7410078637001</v>
       </c>
       <c r="AA227" t="n">
         <v>1</v>
       </c>
       <c r="AB227" t="n">
-        <v>41.5171563598508</v>
+        <v>42.6198585452314</v>
       </c>
       <c r="AC227" t="n">
-        <v>11.4372331569837</v>
+        <v>11.7410078637001</v>
       </c>
       <c r="AD227" t="n">
         <v>1</v>
       </c>
       <c r="AE227" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AF227" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG227" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="228">
@@ -15887,34 +15887,34 @@
         <v>965</v>
       </c>
       <c r="L228" t="n">
-        <v>729727</v>
+        <v>727224</v>
       </c>
       <c r="M228" t="n">
-        <v>1.32241235420918</v>
+        <v>1.32696390658174</v>
       </c>
       <c r="N228" t="n">
-        <v>13.5004257705766</v>
+        <v>13.4969898246011</v>
       </c>
       <c r="O228" t="n">
-        <v>917.777853627747</v>
+        <v>914.629829822091</v>
       </c>
       <c r="P228" t="n">
-        <v>31.3708643532205</v>
+        <v>31.2632607240878</v>
       </c>
       <c r="Q228" t="n">
-        <v>856.290959495435</v>
+        <v>853.353838802879</v>
       </c>
       <c r="R228" t="n">
-        <v>979.264747760059</v>
+        <v>975.905820841303</v>
       </c>
       <c r="S228" t="n">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="T228" t="n">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="U228" t="n">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="V228" t="n">
         <v>1.25770028192426</v>
@@ -15926,31 +15926,31 @@
         <v>1.3419604150046</v>
       </c>
       <c r="Y228" t="n">
-        <v>0.0647120722849128</v>
+        <v>0.0692636246574769</v>
       </c>
       <c r="Z228" t="n">
-        <v>4.89348667069975</v>
+        <v>5.21970675418746</v>
       </c>
       <c r="AA228" t="n">
         <v>0</v>
       </c>
       <c r="AB228" t="n">
-        <v>47.2221463722527</v>
+        <v>50.370170177909</v>
       </c>
       <c r="AC228" t="n">
-        <v>4.89348667069977</v>
+        <v>5.21970675418746</v>
       </c>
       <c r="AD228" t="n">
         <v>0</v>
       </c>
       <c r="AE228" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AF228" t="n">
-        <v>-14</v>
+        <v>-10</v>
       </c>
       <c r="AG228" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="229">
@@ -15980,34 +15980,34 @@
         <v>1055</v>
       </c>
       <c r="L229" t="n">
-        <v>729727</v>
+        <v>727224</v>
       </c>
       <c r="M229" t="n">
-        <v>1.44574614890226</v>
+        <v>1.45072219838729</v>
       </c>
       <c r="N229" t="n">
-        <v>13.5004257705766</v>
+        <v>13.4969898246011</v>
       </c>
       <c r="O229" t="n">
-        <v>956.678252024961</v>
+        <v>953.396797912918</v>
       </c>
       <c r="P229" t="n">
-        <v>32.4884776947891</v>
+        <v>32.3770405961618</v>
       </c>
       <c r="Q229" t="n">
-        <v>893.000835743174</v>
+        <v>889.937798344441</v>
       </c>
       <c r="R229" t="n">
-        <v>1020.35566830675</v>
+        <v>1016.8557974814</v>
       </c>
       <c r="S229" t="n">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="T229" t="n">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="U229" t="n">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="V229" t="n">
         <v>1.31100843469539</v>
@@ -16019,31 +16019,31 @@
         <v>1.3982704056541</v>
       </c>
       <c r="Y229" t="n">
-        <v>0.134737714206874</v>
+        <v>0.139713763691904</v>
       </c>
       <c r="Z229" t="n">
-        <v>9.31959696445869</v>
+        <v>9.63063526891768</v>
       </c>
       <c r="AA229" t="n">
         <v>1</v>
       </c>
       <c r="AB229" t="n">
-        <v>98.3217479750392</v>
+        <v>101.603202087082</v>
       </c>
       <c r="AC229" t="n">
-        <v>9.3195969644587</v>
+        <v>9.63063526891768</v>
       </c>
       <c r="AD229" t="n">
         <v>1</v>
       </c>
       <c r="AE229" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AF229" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AG229" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="230">
@@ -19093,34 +19093,34 @@
         <v>673</v>
       </c>
       <c r="L278" t="n">
-        <v>307651</v>
+        <v>308293</v>
       </c>
       <c r="M278" t="n">
-        <v>2.18754367773874</v>
+        <v>2.18298826116714</v>
       </c>
       <c r="N278" t="n">
-        <v>12.6367213026103</v>
+        <v>12.6388059084592</v>
       </c>
       <c r="O278" t="n">
-        <v>563.175828909807</v>
+        <v>564.351053050668</v>
       </c>
       <c r="P278" t="n">
-        <v>19.1252809914987</v>
+        <v>19.1651912482395</v>
       </c>
       <c r="Q278" t="n">
-        <v>525.69027816647</v>
+        <v>526.787278204119</v>
       </c>
       <c r="R278" t="n">
-        <v>600.661379653145</v>
+        <v>601.914827897218</v>
       </c>
       <c r="S278" t="n">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="T278" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="U278" t="n">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="V278" t="n">
         <v>1.83056719760315</v>
@@ -19132,31 +19132,31 @@
         <v>1.95241159512937</v>
       </c>
       <c r="Y278" t="n">
-        <v>0.356976480135585</v>
+        <v>0.352421063563984</v>
       </c>
       <c r="Z278" t="n">
-        <v>16.3185989732827</v>
+        <v>16.1439742866763</v>
       </c>
       <c r="AA278" t="n">
         <v>1</v>
       </c>
       <c r="AB278" t="n">
-        <v>109.824171090193</v>
+        <v>108.648946949332</v>
       </c>
       <c r="AC278" t="n">
-        <v>16.3185989732827</v>
+        <v>16.1439742866763</v>
       </c>
       <c r="AD278" t="n">
         <v>1</v>
       </c>
       <c r="AE278" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF278" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AG278" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="279">
@@ -19186,34 +19186,34 @@
         <v>749</v>
       </c>
       <c r="L279" t="n">
-        <v>307651</v>
+        <v>308293</v>
       </c>
       <c r="M279" t="n">
-        <v>2.43457684194103</v>
+        <v>2.42950699496907</v>
       </c>
       <c r="N279" t="n">
-        <v>12.6367213026103</v>
+        <v>12.6388059084592</v>
       </c>
       <c r="O279" t="n">
-        <v>485.885929285979</v>
+        <v>486.899866398492</v>
       </c>
       <c r="P279" t="n">
-        <v>16.960440799694</v>
+        <v>16.995833510894</v>
       </c>
       <c r="Q279" t="n">
-        <v>452.643465318579</v>
+        <v>453.58803271714</v>
       </c>
       <c r="R279" t="n">
-        <v>519.128393253379</v>
+        <v>520.211700079844</v>
       </c>
       <c r="S279" t="n">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="T279" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="U279" t="n">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="V279" t="n">
         <v>1.57934129674852</v>
@@ -19225,31 +19225,31 @@
         <v>1.68739381069257</v>
       </c>
       <c r="Y279" t="n">
-        <v>0.85523554519251</v>
+        <v>0.850165698220551</v>
       </c>
       <c r="Z279" t="n">
-        <v>35.1287143810442</v>
+        <v>34.9933422698943</v>
       </c>
       <c r="AA279" t="n">
         <v>1</v>
       </c>
       <c r="AB279" t="n">
-        <v>263.114070714021</v>
+        <v>262.100133601508</v>
       </c>
       <c r="AC279" t="n">
-        <v>35.1287143810442</v>
+        <v>34.9933422698943</v>
       </c>
       <c r="AD279" t="n">
         <v>1</v>
       </c>
       <c r="AE279" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF279" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG279" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="280">
@@ -19279,34 +19279,34 @@
         <v>817</v>
       </c>
       <c r="L280" t="n">
-        <v>307651</v>
+        <v>308293</v>
       </c>
       <c r="M280" t="n">
-        <v>2.65560651517466</v>
+        <v>2.6500763883708</v>
       </c>
       <c r="N280" t="n">
-        <v>12.6367213026103</v>
+        <v>12.6388059084592</v>
       </c>
       <c r="O280" t="n">
-        <v>515.010267179544</v>
+        <v>516.084980382262</v>
       </c>
       <c r="P280" t="n">
-        <v>20.7789359812397</v>
+        <v>20.8222970523883</v>
       </c>
       <c r="Q280" t="n">
-        <v>474.283552656314</v>
+        <v>475.27327815958</v>
       </c>
       <c r="R280" t="n">
-        <v>555.736981702774</v>
+        <v>556.896682604943</v>
       </c>
       <c r="S280" t="n">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="T280" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="U280" t="n">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="V280" t="n">
         <v>1.67400810392147</v>
@@ -19318,31 +19318,31 @@
         <v>1.80638769808248</v>
       </c>
       <c r="Y280" t="n">
-        <v>0.981598411253193</v>
+        <v>0.976068284449334</v>
       </c>
       <c r="Z280" t="n">
-        <v>36.9632475912431</v>
+        <v>36.8317037475812</v>
       </c>
       <c r="AA280" t="n">
         <v>1</v>
       </c>
       <c r="AB280" t="n">
-        <v>301.989732820456</v>
+        <v>300.915019617738</v>
       </c>
       <c r="AC280" t="n">
-        <v>36.9632475912431</v>
+        <v>36.8317037475812</v>
       </c>
       <c r="AD280" t="n">
         <v>1</v>
       </c>
       <c r="AE280" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF280" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG280" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="281">
@@ -19372,34 +19372,34 @@
         <v>722</v>
       </c>
       <c r="L281" t="n">
-        <v>307651</v>
+        <v>308293</v>
       </c>
       <c r="M281" t="n">
-        <v>2.34681505992179</v>
+        <v>2.34192797111838</v>
       </c>
       <c r="N281" t="n">
-        <v>12.6367213026103</v>
+        <v>12.6388059084592</v>
       </c>
       <c r="O281" t="n">
-        <v>488.378444646155</v>
+        <v>489.397583090245</v>
       </c>
       <c r="P281" t="n">
-        <v>19.896357996542</v>
+        <v>19.9378773214711</v>
       </c>
       <c r="Q281" t="n">
-        <v>449.381582972932</v>
+        <v>450.319343540162</v>
       </c>
       <c r="R281" t="n">
-        <v>527.375306319377</v>
+        <v>528.475822640328</v>
       </c>
       <c r="S281" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="T281" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="U281" t="n">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="V281" t="n">
         <v>1.58744305933072</v>
@@ -19411,31 +19411,31 @@
         <v>1.71419987687145</v>
       </c>
       <c r="Y281" t="n">
-        <v>0.759372000591076</v>
+        <v>0.754484911787666</v>
       </c>
       <c r="Z281" t="n">
-        <v>32.3575561431919</v>
+        <v>32.2164012340381</v>
       </c>
       <c r="AA281" t="n">
         <v>1</v>
       </c>
       <c r="AB281" t="n">
-        <v>233.621555353845</v>
+        <v>232.602416909755</v>
       </c>
       <c r="AC281" t="n">
-        <v>32.3575561431919</v>
+        <v>32.2164012340381</v>
       </c>
       <c r="AD281" t="n">
         <v>1</v>
       </c>
       <c r="AE281" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF281" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AG281" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="282">
@@ -19465,34 +19465,34 @@
         <v>723</v>
       </c>
       <c r="L282" t="n">
-        <v>307651</v>
+        <v>308293</v>
       </c>
       <c r="M282" t="n">
-        <v>2.35006549629288</v>
+        <v>2.34517163866841</v>
       </c>
       <c r="N282" t="n">
-        <v>12.6367213026103</v>
+        <v>12.6388059084592</v>
       </c>
       <c r="O282" t="n">
-        <v>526.452085717369</v>
+        <v>527.550675479894</v>
       </c>
       <c r="P282" t="n">
-        <v>21.1575321499281</v>
+        <v>21.2016832680465</v>
       </c>
       <c r="Q282" t="n">
-        <v>484.98332270351</v>
+        <v>485.995376274523</v>
       </c>
       <c r="R282" t="n">
-        <v>567.920848731228</v>
+        <v>569.105974685265</v>
       </c>
       <c r="S282" t="n">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="T282" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="U282" t="n">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="V282" t="n">
         <v>1.71119900704814</v>
@@ -19504,31 +19504,31 @@
         <v>1.84599058261221</v>
       </c>
       <c r="Y282" t="n">
-        <v>0.638866489244733</v>
+        <v>0.633972631620265</v>
       </c>
       <c r="Z282" t="n">
-        <v>27.1850503848729</v>
+        <v>27.0331015933757</v>
       </c>
       <c r="AA282" t="n">
         <v>1</v>
       </c>
       <c r="AB282" t="n">
-        <v>196.547914282631</v>
+        <v>195.449324520106</v>
       </c>
       <c r="AC282" t="n">
-        <v>27.1850503848729</v>
+        <v>27.0331015933757</v>
       </c>
       <c r="AD282" t="n">
         <v>1</v>
       </c>
       <c r="AE282" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF282" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AG282" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="283">
@@ -19558,34 +19558,34 @@
         <v>683</v>
       </c>
       <c r="L283" t="n">
-        <v>307651</v>
+        <v>308293</v>
       </c>
       <c r="M283" t="n">
-        <v>2.22004804144956</v>
+        <v>2.21542493666739</v>
       </c>
       <c r="N283" t="n">
-        <v>12.6367213026103</v>
+        <v>12.6388059084592</v>
       </c>
       <c r="O283" t="n">
-        <v>461.267299613908</v>
+        <v>462.229863058695</v>
       </c>
       <c r="P283" t="n">
-        <v>18.9957216968203</v>
+        <v>19.0353615917966</v>
       </c>
       <c r="Q283" t="n">
-        <v>424.03568508814</v>
+        <v>424.920554338774</v>
       </c>
       <c r="R283" t="n">
-        <v>498.498914139676</v>
+        <v>499.539171778617</v>
       </c>
       <c r="S283" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="T283" t="n">
         <v>424</v>
       </c>
       <c r="U283" t="n">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="V283" t="n">
         <v>1.4993200074562</v>
@@ -19597,28 +19597,28 @@
         <v>1.62033900146489</v>
       </c>
       <c r="Y283" t="n">
-        <v>0.720728033993362</v>
+        <v>0.716104929211188</v>
       </c>
       <c r="Z283" t="n">
-        <v>32.4645242146547</v>
+        <v>32.3235925243492</v>
       </c>
       <c r="AA283" t="n">
         <v>1</v>
       </c>
       <c r="AB283" t="n">
-        <v>221.732700386092</v>
+        <v>220.770136941305</v>
       </c>
       <c r="AC283" t="n">
-        <v>32.4645242146547</v>
+        <v>32.3235925243492</v>
       </c>
       <c r="AD283" t="n">
         <v>1</v>
       </c>
       <c r="AE283" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF283" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AG283" t="n">
         <v>259</v>
@@ -19651,25 +19651,25 @@
         <v>347</v>
       </c>
       <c r="L284" t="n">
-        <v>307651</v>
+        <v>308293</v>
       </c>
       <c r="M284" t="n">
-        <v>1.12790142076574</v>
+        <v>1.12555263985884</v>
       </c>
       <c r="N284" t="n">
-        <v>12.6367213026103</v>
+        <v>12.6388059084592</v>
       </c>
       <c r="O284" t="n">
-        <v>294.220722184874</v>
+        <v>294.834696147717</v>
       </c>
       <c r="P284" t="n">
-        <v>13.3723221166145</v>
+        <v>13.40022721297</v>
       </c>
       <c r="Q284" t="n">
-        <v>268.010970836309</v>
+        <v>268.570250810296</v>
       </c>
       <c r="R284" t="n">
-        <v>320.430473533438</v>
+        <v>321.099141485138</v>
       </c>
       <c r="S284" t="n">
         <v>294</v>
@@ -19678,7 +19678,7 @@
         <v>268</v>
       </c>
       <c r="U284" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="V284" t="n">
         <v>0.956345736515967</v>
@@ -19690,19 +19690,19 @@
         <v>1.04153886557638</v>
       </c>
       <c r="Y284" t="n">
-        <v>0.17155568424977</v>
+        <v>0.169206903342868</v>
       </c>
       <c r="Z284" t="n">
-        <v>15.2101665173274</v>
+        <v>15.033228775874</v>
       </c>
       <c r="AA284" t="n">
         <v>1</v>
       </c>
       <c r="AB284" t="n">
-        <v>52.7792778151261</v>
+        <v>52.1653038522829</v>
       </c>
       <c r="AC284" t="n">
-        <v>15.2101665173274</v>
+        <v>15.033228775874</v>
       </c>
       <c r="AD284" t="n">
         <v>1</v>
@@ -19711,7 +19711,7 @@
         <v>53</v>
       </c>
       <c r="AF284" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG284" t="n">
         <v>79</v>
@@ -19744,34 +19744,34 @@
         <v>522</v>
       </c>
       <c r="L285" t="n">
-        <v>307651</v>
+        <v>308293</v>
       </c>
       <c r="M285" t="n">
-        <v>1.69672778570523</v>
+        <v>1.69319446111329</v>
       </c>
       <c r="N285" t="n">
-        <v>12.6367213026103</v>
+        <v>12.6388059084592</v>
       </c>
       <c r="O285" t="n">
-        <v>399.611828594963</v>
+        <v>400.445730626675</v>
       </c>
       <c r="P285" t="n">
-        <v>16.9375621744613</v>
+        <v>16.9729071430004</v>
       </c>
       <c r="Q285" t="n">
-        <v>366.414206733019</v>
+        <v>367.178832626394</v>
       </c>
       <c r="R285" t="n">
-        <v>432.809450456908</v>
+        <v>433.712628626955</v>
       </c>
       <c r="S285" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="T285" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="U285" t="n">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="V285" t="n">
         <v>1.29891282197998</v>
@@ -19783,31 +19783,31 @@
         <v>1.4068195795135</v>
       </c>
       <c r="Y285" t="n">
-        <v>0.397814963725249</v>
+        <v>0.394281639133309</v>
       </c>
       <c r="Z285" t="n">
-        <v>23.4460098477082</v>
+        <v>23.286258500637</v>
       </c>
       <c r="AA285" t="n">
         <v>1</v>
       </c>
       <c r="AB285" t="n">
-        <v>122.388171405037</v>
+        <v>121.554269373325</v>
       </c>
       <c r="AC285" t="n">
-        <v>23.4460098477082</v>
+        <v>23.286258500637</v>
       </c>
       <c r="AD285" t="n">
         <v>1</v>
       </c>
       <c r="AE285" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF285" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AG285" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="286">
@@ -19837,37 +19837,37 @@
         <v>678</v>
       </c>
       <c r="L286" t="n">
-        <v>307651</v>
+        <v>308293</v>
       </c>
       <c r="M286" t="n">
-        <v>2.20379585959415</v>
+        <v>2.19920659891726</v>
       </c>
       <c r="N286" t="n">
-        <v>12.6367213026103</v>
+        <v>12.6388059084592</v>
       </c>
       <c r="O286" t="n">
-        <v>417.728588960907</v>
+        <v>418.600296688536</v>
       </c>
       <c r="P286" t="n">
-        <v>17.543951212444</v>
+        <v>17.5805615815908</v>
       </c>
       <c r="Q286" t="n">
-        <v>383.342444584516</v>
+        <v>384.142395988618</v>
       </c>
       <c r="R286" t="n">
-        <v>452.114733337297</v>
+        <v>453.058197388454</v>
       </c>
       <c r="S286" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="T286" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="U286" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="V286" t="n">
-        <v>1.35780019879963</v>
+        <v>1.35780019879964</v>
       </c>
       <c r="W286" t="n">
         <v>1.24603022445731</v>
@@ -19876,31 +19876,31 @@
         <v>1.46957017314196</v>
       </c>
       <c r="Y286" t="n">
-        <v>0.845995660794516</v>
+        <v>0.841406400117629</v>
       </c>
       <c r="Z286" t="n">
-        <v>38.3881137225802</v>
+        <v>38.2595432612779</v>
       </c>
       <c r="AA286" t="n">
         <v>1</v>
       </c>
       <c r="AB286" t="n">
-        <v>260.271411039093</v>
+        <v>259.399703311464</v>
       </c>
       <c r="AC286" t="n">
-        <v>38.3881137225802</v>
+        <v>38.2595432612779</v>
       </c>
       <c r="AD286" t="n">
         <v>1</v>
       </c>
       <c r="AE286" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF286" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG286" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="287">
@@ -22950,34 +22950,34 @@
         <v>865</v>
       </c>
       <c r="L335" t="n">
-        <v>414288</v>
+        <v>413815</v>
       </c>
       <c r="M335" t="n">
-        <v>2.08791951492681</v>
+        <v>2.09030605463794</v>
       </c>
       <c r="N335" t="n">
-        <v>12.9343166631275</v>
+        <v>12.9331742930324</v>
       </c>
       <c r="O335" t="n">
-        <v>649.258657749126</v>
+        <v>648.51738755758</v>
       </c>
       <c r="P335" t="n">
-        <v>21.0683130019033</v>
+        <v>21.0442589331156</v>
       </c>
       <c r="Q335" t="n">
-        <v>607.964764265396</v>
+        <v>607.270640048673</v>
       </c>
       <c r="R335" t="n">
-        <v>690.552551232857</v>
+        <v>689.764135066486</v>
       </c>
       <c r="S335" t="n">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="T335" t="n">
         <v>607</v>
       </c>
       <c r="U335" t="n">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="V335" t="n">
         <v>1.56716742398797</v>
@@ -22989,28 +22989,28 @@
         <v>1.66684178936599</v>
       </c>
       <c r="Y335" t="n">
-        <v>0.520752090938849</v>
+        <v>0.523138630649977</v>
       </c>
       <c r="Z335" t="n">
-        <v>24.9411956359392</v>
+        <v>25.0268916118405</v>
       </c>
       <c r="AA335" t="n">
         <v>1</v>
       </c>
       <c r="AB335" t="n">
-        <v>215.741342250874</v>
+        <v>216.48261244242</v>
       </c>
       <c r="AC335" t="n">
-        <v>24.9411956359392</v>
+        <v>25.0268916118405</v>
       </c>
       <c r="AD335" t="n">
         <v>1</v>
       </c>
       <c r="AE335" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF335" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG335" t="n">
         <v>258</v>
@@ -23043,34 +23043,34 @@
         <v>951</v>
       </c>
       <c r="L336" t="n">
-        <v>414288</v>
+        <v>413815</v>
       </c>
       <c r="M336" t="n">
-        <v>2.29550457652647</v>
+        <v>2.29812839070599</v>
       </c>
       <c r="N336" t="n">
-        <v>12.9343166631275</v>
+        <v>12.9331742930324</v>
       </c>
       <c r="O336" t="n">
-        <v>562.622876018667</v>
+        <v>561.980519444601</v>
       </c>
       <c r="P336" t="n">
-        <v>18.755723555786</v>
+        <v>18.7343098116228</v>
       </c>
       <c r="Q336" t="n">
-        <v>525.861657849326</v>
+        <v>525.26127221382</v>
       </c>
       <c r="R336" t="n">
-        <v>599.384094188007</v>
+        <v>598.699766675381</v>
       </c>
       <c r="S336" t="n">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T336" t="n">
         <v>525</v>
       </c>
       <c r="U336" t="n">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="V336" t="n">
         <v>1.35804772529899</v>
@@ -23082,28 +23082,28 @@
         <v>1.44678121062644</v>
       </c>
       <c r="Y336" t="n">
-        <v>0.937456851227487</v>
+        <v>0.940080665407004</v>
       </c>
       <c r="Z336" t="n">
-        <v>40.8388142987732</v>
+        <v>40.9063596798527</v>
       </c>
       <c r="AA336" t="n">
         <v>1</v>
       </c>
       <c r="AB336" t="n">
-        <v>388.377123981333</v>
+        <v>389.019480555399</v>
       </c>
       <c r="AC336" t="n">
-        <v>40.8388142987732</v>
+        <v>40.9063596798527</v>
       </c>
       <c r="AD336" t="n">
         <v>1</v>
       </c>
       <c r="AE336" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF336" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG336" t="n">
         <v>426</v>
@@ -23136,34 +23136,34 @@
         <v>1068</v>
       </c>
       <c r="L337" t="n">
-        <v>414288</v>
+        <v>413815</v>
       </c>
       <c r="M337" t="n">
-        <v>2.57791681149345</v>
+        <v>2.5808634293102</v>
       </c>
       <c r="N337" t="n">
-        <v>12.9343166631275</v>
+        <v>12.9331742930324</v>
       </c>
       <c r="O337" t="n">
-        <v>613.832048665381</v>
+        <v>613.131225665394</v>
       </c>
       <c r="P337" t="n">
-        <v>23.6374286069417</v>
+        <v>23.6104413330379</v>
       </c>
       <c r="Q337" t="n">
-        <v>567.502688595776</v>
+        <v>566.85476065264</v>
       </c>
       <c r="R337" t="n">
-        <v>660.161408734987</v>
+        <v>659.407690678148</v>
       </c>
       <c r="S337" t="n">
         <v>613</v>
       </c>
       <c r="T337" t="n">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="U337" t="n">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="V337" t="n">
         <v>1.48165539109359</v>
@@ -23175,19 +23175,19 @@
         <v>1.59348426392989</v>
       </c>
       <c r="Y337" t="n">
-        <v>1.09626142039986</v>
+        <v>1.09920803821661</v>
       </c>
       <c r="Z337" t="n">
-        <v>42.5250890762751</v>
+        <v>42.5907092073601</v>
       </c>
       <c r="AA337" t="n">
         <v>1</v>
       </c>
       <c r="AB337" t="n">
-        <v>454.167951334619</v>
+        <v>454.868774334606</v>
       </c>
       <c r="AC337" t="n">
-        <v>42.5250890762751</v>
+        <v>42.5907092073601</v>
       </c>
       <c r="AD337" t="n">
         <v>1</v>
@@ -23196,10 +23196,10 @@
         <v>455</v>
       </c>
       <c r="AF337" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG337" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="338">
@@ -23229,34 +23229,34 @@
         <v>946</v>
       </c>
       <c r="L338" t="n">
-        <v>414288</v>
+        <v>413815</v>
       </c>
       <c r="M338" t="n">
-        <v>2.28343567759626</v>
+        <v>2.28604569674855</v>
       </c>
       <c r="N338" t="n">
-        <v>12.9343166631275</v>
+        <v>12.9331742930324</v>
       </c>
       <c r="O338" t="n">
-        <v>574.179725995313</v>
+        <v>573.524174759468</v>
       </c>
       <c r="P338" t="n">
-        <v>22.3824054142627</v>
+        <v>22.3568510227261</v>
       </c>
       <c r="Q338" t="n">
-        <v>530.310211383358</v>
+        <v>529.704746754925</v>
       </c>
       <c r="R338" t="n">
-        <v>618.049240607268</v>
+        <v>617.343602764011</v>
       </c>
       <c r="S338" t="n">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="T338" t="n">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="U338" t="n">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="V338" t="n">
         <v>1.38594341616294</v>
@@ -23268,31 +23268,31 @@
         <v>1.49183476375678</v>
       </c>
       <c r="Y338" t="n">
-        <v>0.897492261433319</v>
+        <v>0.900102280585604</v>
       </c>
       <c r="Z338" t="n">
-        <v>39.3044687108549</v>
+        <v>39.373765881663</v>
       </c>
       <c r="AA338" t="n">
         <v>1</v>
       </c>
       <c r="AB338" t="n">
-        <v>371.820274004687</v>
+        <v>372.475825240532</v>
       </c>
       <c r="AC338" t="n">
-        <v>39.3044687108549</v>
+        <v>39.373765881663</v>
       </c>
       <c r="AD338" t="n">
         <v>1</v>
       </c>
       <c r="AE338" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF338" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG338" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="339">
@@ -23322,34 +23322,34 @@
         <v>841</v>
       </c>
       <c r="L339" t="n">
-        <v>414288</v>
+        <v>413815</v>
       </c>
       <c r="M339" t="n">
-        <v>2.02998880006179</v>
+        <v>2.03230912364221</v>
       </c>
       <c r="N339" t="n">
-        <v>12.9343166631275</v>
+        <v>12.9331742930324</v>
       </c>
       <c r="O339" t="n">
-        <v>630.15576218837</v>
+        <v>629.436302113458</v>
       </c>
       <c r="P339" t="n">
-        <v>24.1531269255106</v>
+        <v>24.125550869637</v>
       </c>
       <c r="Q339" t="n">
-        <v>582.815633414369</v>
+        <v>582.15022240897</v>
       </c>
       <c r="R339" t="n">
-        <v>677.495890962371</v>
+        <v>676.722381817947</v>
       </c>
       <c r="S339" t="n">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="T339" t="n">
         <v>582</v>
       </c>
       <c r="U339" t="n">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="V339" t="n">
         <v>1.52105724082853</v>
@@ -23361,28 +23361,28 @@
         <v>1.63532588673187</v>
       </c>
       <c r="Y339" t="n">
-        <v>0.508931559233262</v>
+        <v>0.511251882813677</v>
       </c>
       <c r="Z339" t="n">
-        <v>25.0706584793852</v>
+        <v>25.1562066452487</v>
       </c>
       <c r="AA339" t="n">
         <v>1</v>
       </c>
       <c r="AB339" t="n">
-        <v>210.84423781163</v>
+        <v>211.563697886542</v>
       </c>
       <c r="AC339" t="n">
-        <v>25.0706584793852</v>
+        <v>25.1562066452487</v>
       </c>
       <c r="AD339" t="n">
         <v>1</v>
       </c>
       <c r="AE339" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF339" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG339" t="n">
         <v>259</v>
@@ -23415,31 +23415,31 @@
         <v>806</v>
       </c>
       <c r="L340" t="n">
-        <v>414288</v>
+        <v>413815</v>
       </c>
       <c r="M340" t="n">
-        <v>1.9455065075503</v>
+        <v>1.94773026594009</v>
       </c>
       <c r="N340" t="n">
-        <v>12.9343166631275</v>
+        <v>12.9331742930324</v>
       </c>
       <c r="O340" t="n">
-        <v>549.651916518132</v>
+        <v>549.024369119914</v>
       </c>
       <c r="P340" t="n">
-        <v>21.6042388668333</v>
+        <v>21.5795729219253</v>
       </c>
       <c r="Q340" t="n">
-        <v>507.307608339139</v>
+        <v>506.72840619294</v>
       </c>
       <c r="R340" t="n">
-        <v>591.996224697125</v>
+        <v>591.320332046887</v>
       </c>
       <c r="S340" t="n">
         <v>549</v>
       </c>
       <c r="T340" t="n">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="U340" t="n">
         <v>591</v>
@@ -23454,19 +23454,19 @@
         <v>1.42894852058743</v>
       </c>
       <c r="Y340" t="n">
-        <v>0.618767822099284</v>
+        <v>0.620991580489075</v>
       </c>
       <c r="Z340" t="n">
-        <v>31.8049731367082</v>
+        <v>31.8828326153953</v>
       </c>
       <c r="AA340" t="n">
         <v>1</v>
       </c>
       <c r="AB340" t="n">
-        <v>256.348083481868</v>
+        <v>256.975630880086</v>
       </c>
       <c r="AC340" t="n">
-        <v>31.8049731367082</v>
+        <v>31.8828326153953</v>
       </c>
       <c r="AD340" t="n">
         <v>1</v>
@@ -23478,7 +23478,7 @@
         <v>215</v>
       </c>
       <c r="AG340" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="341">
@@ -23508,31 +23508,31 @@
         <v>304</v>
       </c>
       <c r="L341" t="n">
-        <v>414288</v>
+        <v>413815</v>
       </c>
       <c r="M341" t="n">
-        <v>0.733789054956938</v>
+        <v>0.734627792612641</v>
       </c>
       <c r="N341" t="n">
-        <v>12.9343166631275</v>
+        <v>12.9331742930324</v>
       </c>
       <c r="O341" t="n">
-        <v>269.813912758423</v>
+        <v>269.505861401071</v>
       </c>
       <c r="P341" t="n">
-        <v>12.5400261321861</v>
+        <v>12.525708960652</v>
       </c>
       <c r="Q341" t="n">
-        <v>245.235461539339</v>
+        <v>244.955471838193</v>
       </c>
       <c r="R341" t="n">
-        <v>294.392363977508</v>
+        <v>294.056250963949</v>
       </c>
       <c r="S341" t="n">
         <v>269</v>
       </c>
       <c r="T341" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U341" t="n">
         <v>294</v>
@@ -23547,19 +23547,19 @@
         <v>0.710598337334193</v>
       </c>
       <c r="Y341" t="n">
-        <v>0.0825176863476049</v>
+        <v>0.0833564240033076</v>
       </c>
       <c r="Z341" t="n">
-        <v>11.2454234347291</v>
+        <v>11.3467561180687</v>
       </c>
       <c r="AA341" t="n">
         <v>1</v>
       </c>
       <c r="AB341" t="n">
-        <v>34.1860872415766</v>
+        <v>34.4941385989287</v>
       </c>
       <c r="AC341" t="n">
-        <v>11.2454234347291</v>
+        <v>11.3467561180687</v>
       </c>
       <c r="AD341" t="n">
         <v>1</v>
@@ -23571,7 +23571,7 @@
         <v>10</v>
       </c>
       <c r="AG341" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="342">
@@ -23601,31 +23601,31 @@
         <v>667</v>
       </c>
       <c r="L342" t="n">
-        <v>414288</v>
+        <v>413815</v>
       </c>
       <c r="M342" t="n">
-        <v>1.60999111729039</v>
+        <v>1.61183137392313</v>
       </c>
       <c r="N342" t="n">
-        <v>12.9343166631275</v>
+        <v>12.9331742930324</v>
       </c>
       <c r="O342" t="n">
-        <v>548.436787276165</v>
+        <v>547.810627212679</v>
       </c>
       <c r="P342" t="n">
-        <v>21.5656476575288</v>
+        <v>21.541025772893</v>
       </c>
       <c r="Q342" t="n">
-        <v>506.168117867409</v>
+        <v>505.590216697809</v>
       </c>
       <c r="R342" t="n">
-        <v>590.705456684922</v>
+        <v>590.031037727549</v>
       </c>
       <c r="S342" t="n">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="T342" t="n">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="U342" t="n">
         <v>590</v>
@@ -23640,31 +23640,31 @@
         <v>1.4258328908511</v>
       </c>
       <c r="Y342" t="n">
-        <v>0.286185486241056</v>
+        <v>0.288025742873799</v>
       </c>
       <c r="Z342" t="n">
-        <v>17.7755941115195</v>
+        <v>17.8694711825069</v>
       </c>
       <c r="AA342" t="n">
         <v>1</v>
       </c>
       <c r="AB342" t="n">
-        <v>118.563212723835</v>
+        <v>119.189372787321</v>
       </c>
       <c r="AC342" t="n">
-        <v>17.7755941115195</v>
+        <v>17.8694711825069</v>
       </c>
       <c r="AD342" t="n">
         <v>1</v>
       </c>
       <c r="AE342" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF342" t="n">
         <v>77</v>
       </c>
       <c r="AG342" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="343">
@@ -23694,34 +23694,34 @@
         <v>829</v>
       </c>
       <c r="L343" t="n">
-        <v>414288</v>
+        <v>413815</v>
       </c>
       <c r="M343" t="n">
-        <v>2.00102344262928</v>
+        <v>2.00331065814434</v>
       </c>
       <c r="N343" t="n">
-        <v>12.9343166631275</v>
+        <v>12.9331742930324</v>
       </c>
       <c r="O343" t="n">
-        <v>558.161406314403</v>
+        <v>557.524143479885</v>
       </c>
       <c r="P343" t="n">
-        <v>21.8743825113603</v>
+        <v>21.8494081386344</v>
       </c>
       <c r="Q343" t="n">
-        <v>515.287616592137</v>
+        <v>514.699303528162</v>
       </c>
       <c r="R343" t="n">
-        <v>601.035196036669</v>
+        <v>600.348983431609</v>
       </c>
       <c r="S343" t="n">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="T343" t="n">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="U343" t="n">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="V343" t="n">
         <v>1.34727871991079</v>
@@ -23733,31 +23733,31 @@
         <v>1.45076660689344</v>
       </c>
       <c r="Y343" t="n">
-        <v>0.653744722718488</v>
+        <v>0.656031938233546</v>
       </c>
       <c r="Z343" t="n">
-        <v>32.6705179355364</v>
+        <v>32.7473892062865</v>
       </c>
       <c r="AA343" t="n">
         <v>1</v>
       </c>
       <c r="AB343" t="n">
-        <v>270.838593685597</v>
+        <v>271.475856520115</v>
       </c>
       <c r="AC343" t="n">
-        <v>32.6705179355364</v>
+        <v>32.7473892062865</v>
       </c>
       <c r="AD343" t="n">
         <v>1</v>
       </c>
       <c r="AE343" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF343" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG343" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="344">
@@ -26807,37 +26807,37 @@
         <v>815</v>
       </c>
       <c r="L392" t="n">
-        <v>623090</v>
+        <v>621702</v>
       </c>
       <c r="M392" t="n">
-        <v>1.30799723956411</v>
+        <v>1.31091744919592</v>
       </c>
       <c r="N392" t="n">
-        <v>13.3424462496152</v>
+        <v>13.3402161572379</v>
       </c>
       <c r="O392" t="n">
-        <v>890.151855166033</v>
+        <v>888.168946156145</v>
       </c>
       <c r="P392" t="n">
-        <v>27.7316452797623</v>
+        <v>27.6698700568437</v>
       </c>
       <c r="Q392" t="n">
-        <v>835.797830417699</v>
+        <v>833.936000844731</v>
       </c>
       <c r="R392" t="n">
-        <v>944.505879914367</v>
+        <v>942.401891467559</v>
       </c>
       <c r="S392" t="n">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="T392" t="n">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="U392" t="n">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="V392" t="n">
-        <v>1.42860879674852</v>
+        <v>1.42860879674851</v>
       </c>
       <c r="W392" t="n">
         <v>1.3413757730307</v>
@@ -26846,31 +26846,31 @@
         <v>1.51584182046633</v>
       </c>
       <c r="Y392" t="n">
-        <v>-0.120611557184409</v>
+        <v>-0.117691347552598</v>
       </c>
       <c r="Z392" t="n">
-        <v>-9.22108652343969</v>
+        <v>-8.97778480443496</v>
       </c>
       <c r="AA392" t="n">
         <v>1</v>
       </c>
       <c r="AB392" t="n">
-        <v>-75.1518551660334</v>
+        <v>-73.168946156145</v>
       </c>
       <c r="AC392" t="n">
-        <v>-9.22108652343969</v>
+        <v>-8.97778480443496</v>
       </c>
       <c r="AD392" t="n">
         <v>1</v>
       </c>
       <c r="AE392" t="n">
-        <v>-75</v>
+        <v>-73</v>
       </c>
       <c r="AF392" t="n">
-        <v>-129</v>
+        <v>-127</v>
       </c>
       <c r="AG392" t="n">
-        <v>-20</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="393">
@@ -26900,70 +26900,70 @@
         <v>930</v>
       </c>
       <c r="L393" t="n">
-        <v>623090</v>
+        <v>621702</v>
       </c>
       <c r="M393" t="n">
-        <v>1.49256126723266</v>
+        <v>1.4958935309843</v>
       </c>
       <c r="N393" t="n">
-        <v>13.3424462496152</v>
+        <v>13.3402161572379</v>
       </c>
       <c r="O393" t="n">
-        <v>810.36468094431</v>
+        <v>808.559506447606</v>
       </c>
       <c r="P393" t="n">
-        <v>25.5968237469548</v>
+        <v>25.5398040686406</v>
       </c>
       <c r="Q393" t="n">
-        <v>760.194906400279</v>
+        <v>758.50149047307</v>
       </c>
       <c r="R393" t="n">
-        <v>860.534455488341</v>
+        <v>858.617522422141</v>
       </c>
       <c r="S393" t="n">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="T393" t="n">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="U393" t="n">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="V393" t="n">
         <v>1.30055799474283</v>
       </c>
       <c r="W393" t="n">
-        <v>1.22004029337701</v>
+        <v>1.220040293377</v>
       </c>
       <c r="X393" t="n">
         <v>1.38107569610865</v>
       </c>
       <c r="Y393" t="n">
-        <v>0.192003272489833</v>
+        <v>0.195335536241469</v>
       </c>
       <c r="Z393" t="n">
-        <v>12.8640128016871</v>
+        <v>13.0581175862789</v>
       </c>
       <c r="AA393" t="n">
         <v>1</v>
       </c>
       <c r="AB393" t="n">
-        <v>119.63531905569</v>
+        <v>121.440493552394</v>
       </c>
       <c r="AC393" t="n">
-        <v>12.8640128016871</v>
+        <v>13.058117586279</v>
       </c>
       <c r="AD393" t="n">
         <v>1</v>
       </c>
       <c r="AE393" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AF393" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AG393" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="394">
@@ -26993,37 +26993,37 @@
         <v>999</v>
       </c>
       <c r="L394" t="n">
-        <v>623090</v>
+        <v>621702</v>
       </c>
       <c r="M394" t="n">
-        <v>1.6032996838338</v>
+        <v>1.60687918005733</v>
       </c>
       <c r="N394" t="n">
-        <v>13.3424462496152</v>
+        <v>13.3402161572379</v>
       </c>
       <c r="O394" t="n">
-        <v>809.52543907642</v>
+        <v>807.722134081252</v>
       </c>
       <c r="P394" t="n">
-        <v>30.0219256945575</v>
+        <v>29.9550486256524</v>
       </c>
       <c r="Q394" t="n">
-        <v>750.682464715087</v>
+        <v>749.010238774973</v>
       </c>
       <c r="R394" t="n">
-        <v>868.368413437752</v>
+        <v>866.434029387531</v>
       </c>
       <c r="S394" t="n">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="T394" t="n">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="U394" t="n">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="V394" t="n">
-        <v>1.29921109161826</v>
+        <v>1.29921109161825</v>
       </c>
       <c r="W394" t="n">
         <v>1.20477373206934</v>
@@ -27032,31 +27032,31 @@
         <v>1.39364845116717</v>
       </c>
       <c r="Y394" t="n">
-        <v>0.304088592215539</v>
+        <v>0.307668088439072</v>
       </c>
       <c r="Z394" t="n">
-        <v>18.9664225148729</v>
+        <v>19.1469335254002</v>
       </c>
       <c r="AA394" t="n">
         <v>1</v>
       </c>
       <c r="AB394" t="n">
-        <v>189.47456092358</v>
+        <v>191.277865918748</v>
       </c>
       <c r="AC394" t="n">
-        <v>18.9664225148729</v>
+        <v>19.1469335254002</v>
       </c>
       <c r="AD394" t="n">
         <v>1</v>
       </c>
       <c r="AE394" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AF394" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AG394" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="395">
@@ -27086,70 +27086,70 @@
         <v>924</v>
       </c>
       <c r="L395" t="n">
-        <v>623090</v>
+        <v>621702</v>
       </c>
       <c r="M395" t="n">
-        <v>1.48293183970213</v>
+        <v>1.48624260497795</v>
       </c>
       <c r="N395" t="n">
-        <v>13.3424462496152</v>
+        <v>13.3402161572379</v>
       </c>
       <c r="O395" t="n">
-        <v>802.315344708018</v>
+        <v>800.528100973636</v>
       </c>
       <c r="P395" t="n">
-        <v>29.7935224556187</v>
+        <v>29.7271541794973</v>
       </c>
       <c r="Q395" t="n">
-        <v>743.920040695005</v>
+        <v>742.262878781822</v>
       </c>
       <c r="R395" t="n">
-        <v>860.71064872103</v>
+        <v>858.793323165451</v>
       </c>
       <c r="S395" t="n">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="T395" t="n">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U395" t="n">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="V395" t="n">
         <v>1.28763957808345</v>
       </c>
       <c r="W395" t="n">
-        <v>1.19392068673066</v>
+        <v>1.19392068673065</v>
       </c>
       <c r="X395" t="n">
-        <v>1.38135846943625</v>
+        <v>1.38135846943624</v>
       </c>
       <c r="Y395" t="n">
-        <v>0.195292261618679</v>
+        <v>0.198603026894499</v>
       </c>
       <c r="Z395" t="n">
-        <v>13.1693349883098</v>
+        <v>13.3627596348878</v>
       </c>
       <c r="AA395" t="n">
         <v>1</v>
       </c>
       <c r="AB395" t="n">
-        <v>121.684655291982</v>
+        <v>123.471899026364</v>
       </c>
       <c r="AC395" t="n">
-        <v>13.1693349883098</v>
+        <v>13.3627596348878</v>
       </c>
       <c r="AD395" t="n">
         <v>1</v>
       </c>
       <c r="AE395" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AF395" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AG395" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="396">
@@ -27179,37 +27179,37 @@
         <v>944</v>
       </c>
       <c r="L396" t="n">
-        <v>623090</v>
+        <v>621702</v>
       </c>
       <c r="M396" t="n">
-        <v>1.51502993147057</v>
+        <v>1.51841235833245</v>
       </c>
       <c r="N396" t="n">
-        <v>13.3424462496152</v>
+        <v>13.3402161572379</v>
       </c>
       <c r="O396" t="n">
-        <v>861.3055983716</v>
+        <v>859.386947501677</v>
       </c>
       <c r="P396" t="n">
-        <v>31.6607841654568</v>
+        <v>31.5902563630179</v>
       </c>
       <c r="Q396" t="n">
-        <v>799.250461407305</v>
+        <v>797.470045030162</v>
       </c>
       <c r="R396" t="n">
-        <v>923.360735335895</v>
+        <v>921.303849973192</v>
       </c>
       <c r="S396" t="n">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="T396" t="n">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="U396" t="n">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="V396" t="n">
-        <v>1.38231330686033</v>
+        <v>1.38231330686032</v>
       </c>
       <c r="W396" t="n">
         <v>1.28272073281116</v>
@@ -27218,31 +27218,31 @@
         <v>1.48190588090949</v>
       </c>
       <c r="Y396" t="n">
-        <v>0.132716624610249</v>
+        <v>0.136099051472125</v>
       </c>
       <c r="Z396" t="n">
-        <v>8.76000017249998</v>
+        <v>8.96324708668678</v>
       </c>
       <c r="AA396" t="n">
         <v>1</v>
       </c>
       <c r="AB396" t="n">
-        <v>82.6944016283999</v>
+        <v>84.6130524983233</v>
       </c>
       <c r="AC396" t="n">
-        <v>8.76000017249998</v>
+        <v>8.9632470866868</v>
       </c>
       <c r="AD396" t="n">
         <v>1</v>
       </c>
       <c r="AE396" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AF396" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG396" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="397">
@@ -27272,34 +27272,34 @@
         <v>929</v>
       </c>
       <c r="L397" t="n">
-        <v>623090</v>
+        <v>621702</v>
       </c>
       <c r="M397" t="n">
-        <v>1.49095636264424</v>
+        <v>1.49428504331657</v>
       </c>
       <c r="N397" t="n">
-        <v>13.3424462496152</v>
+        <v>13.3402161572379</v>
       </c>
       <c r="O397" t="n">
-        <v>789.558104245299</v>
+        <v>787.799278636329</v>
       </c>
       <c r="P397" t="n">
-        <v>29.3892653986116</v>
+        <v>29.3237976485702</v>
       </c>
       <c r="Q397" t="n">
-        <v>731.95514406402</v>
+        <v>730.324635245131</v>
       </c>
       <c r="R397" t="n">
-        <v>847.161064426578</v>
+        <v>845.273922027527</v>
       </c>
       <c r="S397" t="n">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="T397" t="n">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="U397" t="n">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="V397" t="n">
         <v>1.26716542432923</v>
@@ -27308,34 +27308,34 @@
         <v>1.17471816922759</v>
       </c>
       <c r="X397" t="n">
-        <v>1.35961267943087</v>
+        <v>1.35961267943086</v>
       </c>
       <c r="Y397" t="n">
-        <v>0.223790938315012</v>
+        <v>0.227119618987346</v>
       </c>
       <c r="Z397" t="n">
-        <v>15.0098919003984</v>
+        <v>15.1992165084684</v>
       </c>
       <c r="AA397" t="n">
         <v>1</v>
       </c>
       <c r="AB397" t="n">
-        <v>139.441895754701</v>
+        <v>141.200721363671</v>
       </c>
       <c r="AC397" t="n">
-        <v>15.0098919003984</v>
+        <v>15.1992165084684</v>
       </c>
       <c r="AD397" t="n">
         <v>1</v>
       </c>
       <c r="AE397" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AF397" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AG397" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="398">
@@ -27365,70 +27365,70 @@
         <v>406</v>
       </c>
       <c r="L398" t="n">
-        <v>623090</v>
+        <v>621702</v>
       </c>
       <c r="M398" t="n">
-        <v>0.651591262899421</v>
+        <v>0.653045993096371</v>
       </c>
       <c r="N398" t="n">
-        <v>13.3424462496152</v>
+        <v>13.3402161572379</v>
       </c>
       <c r="O398" t="n">
-        <v>355.403263655573</v>
+        <v>354.611564655502</v>
       </c>
       <c r="P398" t="n">
-        <v>15.4416452109295</v>
+        <v>15.407247285184</v>
       </c>
       <c r="Q398" t="n">
-        <v>325.137639042151</v>
+        <v>324.413359976541</v>
       </c>
       <c r="R398" t="n">
-        <v>385.668888268995</v>
+        <v>384.809769334462</v>
       </c>
       <c r="S398" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="T398" t="n">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U398" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="V398" t="n">
-        <v>0.570388328581061</v>
+        <v>0.57038832858106</v>
       </c>
       <c r="W398" t="n">
-        <v>0.521814888767516</v>
+        <v>0.521814888767515</v>
       </c>
       <c r="X398" t="n">
-        <v>0.618961768394606</v>
+        <v>0.618961768394605</v>
       </c>
       <c r="Y398" t="n">
-        <v>0.08120293431836</v>
+        <v>0.0826576645153114</v>
       </c>
       <c r="Z398" t="n">
-        <v>12.4622503311396</v>
+        <v>12.6572500848518</v>
       </c>
       <c r="AA398" t="n">
         <v>1</v>
       </c>
       <c r="AB398" t="n">
-        <v>50.596736344427</v>
+        <v>51.3884353444981</v>
       </c>
       <c r="AC398" t="n">
-        <v>12.4622503311396</v>
+        <v>12.6572500848517</v>
       </c>
       <c r="AD398" t="n">
         <v>1</v>
       </c>
       <c r="AE398" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AF398" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG398" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="399">
@@ -27458,34 +27458,34 @@
         <v>820</v>
       </c>
       <c r="L399" t="n">
-        <v>623090</v>
+        <v>621702</v>
       </c>
       <c r="M399" t="n">
-        <v>1.31602176250622</v>
+        <v>1.31895988753454</v>
       </c>
       <c r="N399" t="n">
-        <v>13.3424462496152</v>
+        <v>13.3402161572379</v>
       </c>
       <c r="O399" t="n">
-        <v>758.598732000328</v>
+        <v>756.908871723293</v>
       </c>
       <c r="P399" t="n">
-        <v>28.4074822522849</v>
+        <v>28.3442015298111</v>
       </c>
       <c r="Q399" t="n">
-        <v>702.920066785849</v>
+        <v>701.354236724864</v>
       </c>
       <c r="R399" t="n">
-        <v>814.277397214806</v>
+        <v>812.463506721723</v>
       </c>
       <c r="S399" t="n">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="T399" t="n">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="U399" t="n">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="V399" t="n">
         <v>1.2174785857586</v>
@@ -27497,31 +27497,31 @@
         <v>1.30683753103854</v>
       </c>
       <c r="Y399" t="n">
-        <v>0.0985431767476166</v>
+        <v>0.101481301775942</v>
       </c>
       <c r="Z399" t="n">
-        <v>7.48795951215517</v>
+        <v>7.6940400337447</v>
       </c>
       <c r="AA399" t="n">
         <v>1</v>
       </c>
       <c r="AB399" t="n">
-        <v>61.4012679996723</v>
+        <v>63.0911282767065</v>
       </c>
       <c r="AC399" t="n">
-        <v>7.48795951215516</v>
+        <v>7.6940400337447</v>
       </c>
       <c r="AD399" t="n">
         <v>1</v>
       </c>
       <c r="AE399" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AF399" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG399" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="400">
@@ -27551,34 +27551,34 @@
         <v>904</v>
       </c>
       <c r="L400" t="n">
-        <v>623090</v>
+        <v>621702</v>
       </c>
       <c r="M400" t="n">
-        <v>1.45083374793369</v>
+        <v>1.45407285162345</v>
       </c>
       <c r="N400" t="n">
-        <v>13.3424462496152</v>
+        <v>13.3402161572379</v>
       </c>
       <c r="O400" t="n">
-        <v>805.71134505177</v>
+        <v>803.91653636132</v>
       </c>
       <c r="P400" t="n">
-        <v>29.9011083277527</v>
+        <v>29.8345003925284</v>
       </c>
       <c r="Q400" t="n">
-        <v>747.105172729375</v>
+        <v>745.440915591965</v>
       </c>
       <c r="R400" t="n">
-        <v>864.317517374166</v>
+        <v>862.392157130676</v>
       </c>
       <c r="S400" t="n">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="T400" t="n">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="U400" t="n">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="V400" t="n">
         <v>1.29308983461742</v>
@@ -27590,31 +27590,31 @@
         <v>1.3871471494875</v>
       </c>
       <c r="Y400" t="n">
-        <v>0.157743913316262</v>
+        <v>0.160983017006025</v>
       </c>
       <c r="Z400" t="n">
-        <v>10.8726388217068</v>
+        <v>11.0711796060486</v>
       </c>
       <c r="AA400" t="n">
         <v>1</v>
       </c>
       <c r="AB400" t="n">
-        <v>98.2886549482296</v>
+        <v>100.08346363868</v>
       </c>
       <c r="AC400" t="n">
-        <v>10.8726388217068</v>
+        <v>11.0711796060486</v>
       </c>
       <c r="AD400" t="n">
         <v>1</v>
       </c>
       <c r="AE400" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AF400" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AG400" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="401">
@@ -30762,25 +30762,25 @@
         <v>53</v>
       </c>
       <c r="L449" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M449" t="n">
-        <v>0.0510903450815421</v>
+        <v>0.0511821631127253</v>
       </c>
       <c r="N449" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O449" t="n">
-        <v>84.364986729854</v>
+        <v>84.2136405086075</v>
       </c>
       <c r="P449" t="n">
-        <v>6.36178476088074</v>
+        <v>6.35037206325268</v>
       </c>
       <c r="Q449" t="n">
-        <v>71.8958885985277</v>
+        <v>71.7669112646322</v>
       </c>
       <c r="R449" t="n">
-        <v>96.8340848611802</v>
+        <v>96.6603697525828</v>
       </c>
       <c r="S449" t="n">
         <v>84</v>
@@ -30801,19 +30801,19 @@
         <v>0.0933450341738308</v>
       </c>
       <c r="Y449" t="n">
-        <v>-0.0302348678397402</v>
+        <v>-0.030143049808557</v>
       </c>
       <c r="Z449" t="n">
-        <v>-59.1792202450075</v>
+        <v>-58.8936613369953</v>
       </c>
       <c r="AA449" t="n">
         <v>1</v>
       </c>
       <c r="AB449" t="n">
-        <v>-31.364986729854</v>
+        <v>-31.2136405086075</v>
       </c>
       <c r="AC449" t="n">
-        <v>-59.1792202450075</v>
+        <v>-58.8936613369953</v>
       </c>
       <c r="AD449" t="n">
         <v>1</v>
@@ -30857,25 +30857,25 @@
         <v>56</v>
       </c>
       <c r="L450" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M450" t="n">
-        <v>0.0539822514069124</v>
+        <v>0.0540792666851437</v>
       </c>
       <c r="N450" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O450" t="n">
-        <v>81.7377306968798</v>
+        <v>81.5910976307969</v>
       </c>
       <c r="P450" t="n">
-        <v>6.22365548411121</v>
+        <v>6.21249058293157</v>
       </c>
       <c r="Q450" t="n">
-        <v>69.5393659480218</v>
+        <v>69.4146160882511</v>
       </c>
       <c r="R450" t="n">
-        <v>93.9360954457377</v>
+        <v>93.7675791733428</v>
       </c>
       <c r="S450" t="n">
         <v>81</v>
@@ -30896,19 +30896,19 @@
         <v>0.090551462866706</v>
       </c>
       <c r="Y450" t="n">
-        <v>-0.0248103687343281</v>
+        <v>-0.0247133534560968</v>
       </c>
       <c r="Z450" t="n">
-        <v>-45.9602333872853</v>
+        <v>-45.6983886264231</v>
       </c>
       <c r="AA450" t="n">
         <v>1</v>
       </c>
       <c r="AB450" t="n">
-        <v>-25.7377306968798</v>
+        <v>-25.5910976307969</v>
       </c>
       <c r="AC450" t="n">
-        <v>-45.9602333872853</v>
+        <v>-45.6983886264231</v>
       </c>
       <c r="AD450" t="n">
         <v>1</v>
@@ -30952,25 +30952,25 @@
         <v>61</v>
       </c>
       <c r="L451" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M451" t="n">
-        <v>0.0588020952825296</v>
+        <v>0.0589077726391744</v>
       </c>
       <c r="N451" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O451" t="n">
-        <v>99.6500448309368</v>
+        <v>99.4712780425237</v>
       </c>
       <c r="P451" t="n">
-        <v>8.54419372292953</v>
+        <v>8.52886590171261</v>
       </c>
       <c r="Q451" t="n">
-        <v>82.9034251339949</v>
+        <v>82.754700875167</v>
       </c>
       <c r="R451" t="n">
-        <v>116.396664527879</v>
+        <v>116.18785520988</v>
       </c>
       <c r="S451" t="n">
         <v>99</v>
@@ -30991,19 +30991,19 @@
         <v>0.112202750133393</v>
       </c>
       <c r="Y451" t="n">
-        <v>-0.037257436374144</v>
+        <v>-0.0371517590174992</v>
       </c>
       <c r="Z451" t="n">
-        <v>-63.3607292310439</v>
+        <v>-63.06766892217</v>
       </c>
       <c r="AA451" t="n">
         <v>1</v>
       </c>
       <c r="AB451" t="n">
-        <v>-38.6500448309368</v>
+        <v>-38.4712780425237</v>
       </c>
       <c r="AC451" t="n">
-        <v>-63.3607292310439</v>
+        <v>-63.0676689221701</v>
       </c>
       <c r="AD451" t="n">
         <v>1</v>
@@ -31047,31 +31047,31 @@
         <v>70</v>
       </c>
       <c r="L452" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M452" t="n">
-        <v>0.0674778142586405</v>
+        <v>0.0675990833564297</v>
       </c>
       <c r="N452" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O452" t="n">
-        <v>116.928067948483</v>
+        <v>116.718305321503</v>
       </c>
       <c r="P452" t="n">
-        <v>9.61078904785571</v>
+        <v>9.5935478123388</v>
       </c>
       <c r="Q452" t="n">
-        <v>98.0909214146863</v>
+        <v>97.9149516093186</v>
       </c>
       <c r="R452" t="n">
-        <v>135.765214482281</v>
+        <v>135.521659033687</v>
       </c>
       <c r="S452" t="n">
         <v>116</v>
       </c>
       <c r="T452" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U452" t="n">
         <v>135</v>
@@ -31086,19 +31086,19 @@
         <v>0.130873427508855</v>
       </c>
       <c r="Y452" t="n">
-        <v>-0.045237192179209</v>
+        <v>-0.0451159230814199</v>
       </c>
       <c r="Z452" t="n">
-        <v>-67.0400970692621</v>
+        <v>-66.7404361735752</v>
       </c>
       <c r="AA452" t="n">
         <v>1</v>
       </c>
       <c r="AB452" t="n">
-        <v>-46.9280679484835</v>
+        <v>-46.7183053215027</v>
       </c>
       <c r="AC452" t="n">
-        <v>-67.0400970692621</v>
+        <v>-66.7404361735752</v>
       </c>
       <c r="AD452" t="n">
         <v>1</v>
@@ -31110,7 +31110,7 @@
         <v>-65</v>
       </c>
       <c r="AG452" t="n">
-        <v>-28</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="453">
@@ -31142,25 +31142,25 @@
         <v>71</v>
       </c>
       <c r="L453" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M453" t="n">
-        <v>0.068441783033764</v>
+        <v>0.0685647845472358</v>
       </c>
       <c r="N453" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O453" t="n">
-        <v>110.49905044341</v>
+        <v>110.300821125963</v>
       </c>
       <c r="P453" t="n">
-        <v>9.21577699341794</v>
+        <v>9.19924438815279</v>
       </c>
       <c r="Q453" t="n">
-        <v>92.4361275363111</v>
+        <v>92.2703021251831</v>
       </c>
       <c r="R453" t="n">
-        <v>128.561973350509</v>
+        <v>128.331340126742</v>
       </c>
       <c r="S453" t="n">
         <v>110</v>
@@ -31181,19 +31181,19 @@
         <v>0.123929727978142</v>
       </c>
       <c r="Y453" t="n">
-        <v>-0.038075851274473</v>
+        <v>-0.0379528497610011</v>
       </c>
       <c r="Z453" t="n">
-        <v>-55.6324654132538</v>
+        <v>-55.3532691914966</v>
       </c>
       <c r="AA453" t="n">
         <v>1</v>
       </c>
       <c r="AB453" t="n">
-        <v>-39.4990504434102</v>
+        <v>-39.3008211259626</v>
       </c>
       <c r="AC453" t="n">
-        <v>-55.6324654132538</v>
+        <v>-55.3532691914966</v>
       </c>
       <c r="AD453" t="n">
         <v>1</v>
@@ -31237,28 +31237,28 @@
         <v>117</v>
       </c>
       <c r="L454" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M454" t="n">
-        <v>0.112784346689442</v>
+        <v>0.112987039324318</v>
       </c>
       <c r="N454" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O454" t="n">
-        <v>133.000695747985</v>
+        <v>132.762099696413</v>
       </c>
       <c r="P454" t="n">
-        <v>10.5905481023867</v>
+        <v>10.5715492321403</v>
       </c>
       <c r="Q454" t="n">
-        <v>112.243221467307</v>
+        <v>112.041863201418</v>
       </c>
       <c r="R454" t="n">
-        <v>153.758170028663</v>
+        <v>153.482336191408</v>
       </c>
       <c r="S454" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T454" t="n">
         <v>112</v>
@@ -31276,25 +31276,25 @@
         <v>0.148218074827751</v>
       </c>
       <c r="Y454" t="n">
-        <v>-0.0154241710813074</v>
+        <v>-0.0152214784464313</v>
       </c>
       <c r="Z454" t="n">
-        <v>-13.6758083316107</v>
+        <v>-13.4718800824044</v>
       </c>
       <c r="AA454" t="n">
         <v>0</v>
       </c>
       <c r="AB454" t="n">
-        <v>-16.0006957479845</v>
+        <v>-15.7620996964132</v>
       </c>
       <c r="AC454" t="n">
-        <v>-13.6758083316107</v>
+        <v>-13.4718800824045</v>
       </c>
       <c r="AD454" t="n">
         <v>0</v>
       </c>
       <c r="AE454" t="n">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="AF454" t="n">
         <v>-36</v>
@@ -31332,28 +31332,28 @@
         <v>83</v>
       </c>
       <c r="L455" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M455" t="n">
-        <v>0.0800094083352452</v>
+        <v>0.0801531988369095</v>
       </c>
       <c r="N455" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O455" t="n">
-        <v>114.115375114689</v>
+        <v>113.910658306458</v>
       </c>
       <c r="P455" t="n">
-        <v>9.4382170173072</v>
+        <v>9.42128536667531</v>
       </c>
       <c r="Q455" t="n">
-        <v>95.6164697607667</v>
+        <v>95.4449389877748</v>
       </c>
       <c r="R455" t="n">
-        <v>132.614280468611</v>
+        <v>132.376377625142</v>
       </c>
       <c r="S455" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T455" t="n">
         <v>95</v>
@@ -31365,31 +31365,31 @@
         <v>0.110003658372058</v>
       </c>
       <c r="W455" t="n">
-        <v>0.0921712912369133</v>
+        <v>0.0921712912369134</v>
       </c>
       <c r="X455" t="n">
         <v>0.127836025507203</v>
       </c>
       <c r="Y455" t="n">
-        <v>-0.0299942500368128</v>
+        <v>-0.0298504595351485</v>
       </c>
       <c r="Z455" t="n">
-        <v>-37.4884037526371</v>
+        <v>-37.241756995733</v>
       </c>
       <c r="AA455" t="n">
         <v>1</v>
       </c>
       <c r="AB455" t="n">
-        <v>-31.1153751146888</v>
+        <v>-30.9106583064584</v>
       </c>
       <c r="AC455" t="n">
-        <v>-37.4884037526371</v>
+        <v>-37.241756995733</v>
       </c>
       <c r="AD455" t="n">
         <v>1</v>
       </c>
       <c r="AE455" t="n">
-        <v>-31</v>
+        <v>-30</v>
       </c>
       <c r="AF455" t="n">
         <v>-49</v>
@@ -31427,25 +31427,25 @@
         <v>92</v>
       </c>
       <c r="L456" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M456" t="n">
-        <v>0.0886851273113561</v>
+        <v>0.0888445095541647</v>
       </c>
       <c r="N456" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O456" t="n">
-        <v>119.338962534501</v>
+        <v>119.124874893085</v>
       </c>
       <c r="P456" t="n">
-        <v>9.75842204653982</v>
+        <v>9.74091596541162</v>
       </c>
       <c r="Q456" t="n">
-        <v>100.212455323283</v>
+        <v>100.032679600879</v>
       </c>
       <c r="R456" t="n">
-        <v>138.465469745719</v>
+        <v>138.217070185292</v>
       </c>
       <c r="S456" t="n">
         <v>119</v>
@@ -31466,19 +31466,19 @@
         <v>0.133476389267672</v>
       </c>
       <c r="Y456" t="n">
-        <v>-0.0263539062275287</v>
+        <v>-0.0261945239847201</v>
       </c>
       <c r="Z456" t="n">
-        <v>-29.7162636244579</v>
+        <v>-29.4835596663972</v>
       </c>
       <c r="AA456" t="n">
         <v>1</v>
       </c>
       <c r="AB456" t="n">
-        <v>-27.3389625345013</v>
+        <v>-27.1248748930854</v>
       </c>
       <c r="AC456" t="n">
-        <v>-29.7162636244579</v>
+        <v>-29.4835596663972</v>
       </c>
       <c r="AD456" t="n">
         <v>1</v>
@@ -31522,34 +31522,34 @@
         <v>92</v>
       </c>
       <c r="L457" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M457" t="n">
-        <v>0.0886851273113561</v>
+        <v>0.0888445095541647</v>
       </c>
       <c r="N457" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O457" t="n">
-        <v>130.589791472669</v>
+        <v>130.355520452915</v>
       </c>
       <c r="P457" t="n">
-        <v>10.4442086043296</v>
+        <v>10.4254722592243</v>
       </c>
       <c r="Q457" t="n">
-        <v>110.119142608183</v>
+        <v>109.921594824835</v>
       </c>
       <c r="R457" t="n">
-        <v>151.060440337155</v>
+        <v>150.789446080994</v>
       </c>
       <c r="S457" t="n">
         <v>130</v>
       </c>
       <c r="T457" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U457" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="V457" t="n">
         <v>0.125884481329534</v>
@@ -31561,19 +31561,19 @@
         <v>0.145617547641414</v>
       </c>
       <c r="Y457" t="n">
-        <v>-0.0371993540181775</v>
+        <v>-0.0370399717753689</v>
       </c>
       <c r="Z457" t="n">
-        <v>-41.9454255137706</v>
+        <v>-41.6907831009943</v>
       </c>
       <c r="AA457" t="n">
         <v>1</v>
       </c>
       <c r="AB457" t="n">
-        <v>-38.589791472669</v>
+        <v>-38.3555204529147</v>
       </c>
       <c r="AC457" t="n">
-        <v>-41.9454255137706</v>
+        <v>-41.6907831009943</v>
       </c>
       <c r="AD457" t="n">
         <v>1</v>
@@ -31582,10 +31582,10 @@
         <v>-38</v>
       </c>
       <c r="AF457" t="n">
-        <v>-59</v>
+        <v>-58</v>
       </c>
       <c r="AG457" t="n">
-        <v>-18</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="458">
@@ -34733,25 +34733,25 @@
         <v>31</v>
       </c>
       <c r="L506" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M506" t="n">
-        <v>0.0298830320288265</v>
+        <v>0.0299367369149903</v>
       </c>
       <c r="N506" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O506" t="n">
-        <v>28.9991408146541</v>
+        <v>28.9471179251615</v>
       </c>
       <c r="P506" t="n">
-        <v>3.60943628568735</v>
+        <v>3.60296115229561</v>
       </c>
       <c r="Q506" t="n">
-        <v>21.9246456947069</v>
+        <v>21.8853140666621</v>
       </c>
       <c r="R506" t="n">
-        <v>36.0736359346013</v>
+        <v>36.0089217836609</v>
       </c>
       <c r="S506" t="n">
         <v>28</v>
@@ -34766,25 +34766,25 @@
         <v>0.0279542662507342</v>
       </c>
       <c r="W506" t="n">
-        <v>0.0211346738553419</v>
+        <v>0.021134673855342</v>
       </c>
       <c r="X506" t="n">
         <v>0.0347738586461264</v>
       </c>
       <c r="Y506" t="n">
-        <v>0.00192876577809233</v>
+        <v>0.0019824706642561</v>
       </c>
       <c r="Z506" t="n">
-        <v>6.45438446885764</v>
+        <v>6.62220024141446</v>
       </c>
       <c r="AA506" t="n">
         <v>0</v>
       </c>
       <c r="AB506" t="n">
-        <v>2.00085918534587</v>
+        <v>2.05288207483848</v>
       </c>
       <c r="AC506" t="n">
-        <v>6.45438446885764</v>
+        <v>6.62220024141446</v>
       </c>
       <c r="AD506" t="n">
         <v>0</v>
@@ -34828,25 +34828,25 @@
         <v>14</v>
       </c>
       <c r="L507" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M507" t="n">
-        <v>0.0134955628517281</v>
+        <v>0.0135198166712859</v>
       </c>
       <c r="N507" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O507" t="n">
-        <v>18.6583682238419</v>
+        <v>18.6248961208433</v>
       </c>
       <c r="P507" t="n">
-        <v>2.62468949981174</v>
+        <v>2.6199809488697</v>
       </c>
       <c r="Q507" t="n">
-        <v>13.5139768042109</v>
+        <v>13.4897334610586</v>
       </c>
       <c r="R507" t="n">
-        <v>23.802759643473</v>
+        <v>23.7600587806279</v>
       </c>
       <c r="S507" t="n">
         <v>18</v>
@@ -34867,19 +34867,19 @@
         <v>0.0229451170580762</v>
       </c>
       <c r="Y507" t="n">
-        <v>-0.00449052151081086</v>
+        <v>-0.00446626769125303</v>
       </c>
       <c r="Z507" t="n">
-        <v>-33.2740587417282</v>
+        <v>-33.0349722917376</v>
       </c>
       <c r="AA507" t="n">
         <v>0</v>
       </c>
       <c r="AB507" t="n">
-        <v>-4.65836822384195</v>
+        <v>-4.62489612084327</v>
       </c>
       <c r="AC507" t="n">
-        <v>-33.2740587417282</v>
+        <v>-33.0349722917376</v>
       </c>
       <c r="AD507" t="n">
         <v>0</v>
@@ -34923,25 +34923,25 @@
         <v>33</v>
       </c>
       <c r="L508" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M508" t="n">
-        <v>0.0318109695790734</v>
+        <v>0.0318681392966026</v>
       </c>
       <c r="N508" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O508" t="n">
-        <v>24.0621937076282</v>
+        <v>24.0190274341099</v>
       </c>
       <c r="P508" t="n">
-        <v>3.65546953293783</v>
+        <v>3.64891181839135</v>
       </c>
       <c r="Q508" t="n">
-        <v>16.8974734230701</v>
+        <v>16.8671602700628</v>
       </c>
       <c r="R508" t="n">
-        <v>31.2269139921863</v>
+        <v>31.1708945981569</v>
       </c>
       <c r="S508" t="n">
         <v>24</v>
@@ -34959,22 +34959,22 @@
         <v>0.0162886367583177</v>
       </c>
       <c r="X508" t="n">
-        <v>0.0301017700319327</v>
+        <v>0.0301017700319328</v>
       </c>
       <c r="Y508" t="n">
-        <v>0.0086157661839482</v>
+        <v>0.00867293590147736</v>
       </c>
       <c r="Z508" t="n">
-        <v>27.0842614920358</v>
+        <v>27.2150683814853</v>
       </c>
       <c r="AA508" t="n">
         <v>1</v>
       </c>
       <c r="AB508" t="n">
-        <v>8.93780629237181</v>
+        <v>8.98097256589013</v>
       </c>
       <c r="AC508" t="n">
-        <v>27.0842614920358</v>
+        <v>27.2150683814853</v>
       </c>
       <c r="AD508" t="n">
         <v>1</v>
@@ -35018,25 +35018,25 @@
         <v>19</v>
       </c>
       <c r="L509" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M509" t="n">
-        <v>0.0183154067273453</v>
+        <v>0.0183483226253166</v>
       </c>
       <c r="N509" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O509" t="n">
-        <v>21.1277943595716</v>
+        <v>21.0898922397048</v>
       </c>
       <c r="P509" t="n">
-        <v>3.32537733565489</v>
+        <v>3.31941178864922</v>
       </c>
       <c r="Q509" t="n">
-        <v>14.610054781688</v>
+        <v>14.5838451339523</v>
       </c>
       <c r="R509" t="n">
-        <v>27.6455339374552</v>
+        <v>27.5959393454573</v>
       </c>
       <c r="S509" t="n">
         <v>21</v>
@@ -35057,19 +35057,19 @@
         <v>0.0266494314873221</v>
       </c>
       <c r="Y509" t="n">
-        <v>-0.00205112732251077</v>
+        <v>-0.00201821142453943</v>
       </c>
       <c r="Z509" t="n">
-        <v>-11.1989176819557</v>
+        <v>-10.9994328405516</v>
       </c>
       <c r="AA509" t="n">
         <v>0</v>
       </c>
       <c r="AB509" t="n">
-        <v>-2.12779435957158</v>
+        <v>-2.08989223970481</v>
       </c>
       <c r="AC509" t="n">
-        <v>-11.1989176819557</v>
+        <v>-10.9994328405516</v>
       </c>
       <c r="AD509" t="n">
         <v>0</v>
@@ -35113,25 +35113,25 @@
         <v>33</v>
       </c>
       <c r="L510" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M510" t="n">
-        <v>0.0318109695790734</v>
+        <v>0.0318681392966026</v>
       </c>
       <c r="N510" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O510" t="n">
-        <v>24.3556363588543</v>
+        <v>24.3119436650977</v>
       </c>
       <c r="P510" t="n">
-        <v>3.68825185147389</v>
+        <v>3.68163532722179</v>
       </c>
       <c r="Q510" t="n">
-        <v>17.1266627299655</v>
+        <v>17.095938423743</v>
       </c>
       <c r="R510" t="n">
-        <v>31.5846099877431</v>
+        <v>31.5279489064524</v>
       </c>
       <c r="S510" t="n">
         <v>24</v>
@@ -35152,19 +35152,19 @@
         <v>0.0304465778026362</v>
       </c>
       <c r="Y510" t="n">
-        <v>0.00833289663087678</v>
+        <v>0.00839006634840595</v>
       </c>
       <c r="Z510" t="n">
-        <v>26.1950413368051</v>
+        <v>26.3274434390978</v>
       </c>
       <c r="AA510" t="n">
         <v>1</v>
       </c>
       <c r="AB510" t="n">
-        <v>8.64436364114569</v>
+        <v>8.68805633490229</v>
       </c>
       <c r="AC510" t="n">
-        <v>26.1950413368051</v>
+        <v>26.3274434390978</v>
       </c>
       <c r="AD510" t="n">
         <v>1</v>
@@ -35208,25 +35208,25 @@
         <v>20</v>
       </c>
       <c r="L511" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M511" t="n">
-        <v>0.0192793755024687</v>
+        <v>0.0193140238161228</v>
       </c>
       <c r="N511" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O511" t="n">
-        <v>21.4212239792025</v>
+        <v>21.3827954624754</v>
       </c>
       <c r="P511" t="n">
-        <v>3.3585891883899</v>
+        <v>3.35256406111749</v>
       </c>
       <c r="Q511" t="n">
-        <v>14.8383891699583</v>
+        <v>14.8117699026852</v>
       </c>
       <c r="R511" t="n">
-        <v>28.0040587884467</v>
+        <v>27.9538210222657</v>
       </c>
       <c r="S511" t="n">
         <v>21</v>
@@ -35235,7 +35235,7 @@
         <v>14</v>
       </c>
       <c r="U511" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V511" t="n">
         <v>0.0206493910408766</v>
@@ -35247,19 +35247,19 @@
         <v>0.0269950382487837</v>
       </c>
       <c r="Y511" t="n">
-        <v>-0.0013700155384079</v>
+        <v>-0.00133536722475386</v>
       </c>
       <c r="Z511" t="n">
-        <v>-7.10611989601255</v>
+        <v>-6.9139773123772</v>
       </c>
       <c r="AA511" t="n">
         <v>0</v>
       </c>
       <c r="AB511" t="n">
-        <v>-1.42122397920251</v>
+        <v>-1.38279546247544</v>
       </c>
       <c r="AC511" t="n">
-        <v>-7.10611989601255</v>
+        <v>-6.91397731237722</v>
       </c>
       <c r="AD511" t="n">
         <v>0</v>
@@ -35268,7 +35268,7 @@
         <v>-1</v>
       </c>
       <c r="AF511" t="n">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="AG511" t="n">
         <v>6</v>
@@ -35303,25 +35303,25 @@
         <v>18</v>
       </c>
       <c r="L512" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M512" t="n">
-        <v>0.0173514379522219</v>
+        <v>0.0173826214345105</v>
       </c>
       <c r="N512" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O512" t="n">
-        <v>17.8999416042163</v>
+        <v>17.8678300775352</v>
       </c>
       <c r="P512" t="n">
-        <v>2.95632411430851</v>
+        <v>2.95102062881264</v>
       </c>
       <c r="Q512" t="n">
-        <v>12.1055463401717</v>
+        <v>12.0838296450624</v>
       </c>
       <c r="R512" t="n">
-        <v>23.694336868261</v>
+        <v>23.651830510008</v>
       </c>
       <c r="S512" t="n">
         <v>17</v>
@@ -35342,19 +35342,19 @@
         <v>0.0228406008882596</v>
       </c>
       <c r="Y512" t="n">
-        <v>0.0000964531692244051</v>
+        <v>0.000127636651513042</v>
       </c>
       <c r="Z512" t="n">
-        <v>0.555879976575968</v>
+        <v>0.734277347026835</v>
       </c>
       <c r="AA512" t="n">
         <v>0</v>
       </c>
       <c r="AB512" t="n">
-        <v>0.100058395783677</v>
+        <v>0.132169922464829</v>
       </c>
       <c r="AC512" t="n">
-        <v>0.555879976575979</v>
+        <v>0.734277347026824</v>
       </c>
       <c r="AD512" t="n">
         <v>0</v>
@@ -35398,25 +35398,25 @@
         <v>26</v>
       </c>
       <c r="L513" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M513" t="n">
-        <v>0.0250631881532093</v>
+        <v>0.0251082309609596</v>
       </c>
       <c r="N513" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O513" t="n">
-        <v>24.649066354599</v>
+        <v>24.6048472633074</v>
       </c>
       <c r="P513" t="n">
-        <v>3.72099530910783</v>
+        <v>3.71432004486447</v>
       </c>
       <c r="Q513" t="n">
-        <v>17.3559155487476</v>
+        <v>17.324779975373</v>
       </c>
       <c r="R513" t="n">
-        <v>31.9422171604503</v>
+        <v>31.8849145512417</v>
       </c>
       <c r="S513" t="n">
         <v>24</v>
@@ -35437,19 +35437,19 @@
         <v>0.0307912999508861</v>
       </c>
       <c r="Y513" t="n">
-        <v>0.00130225785143025</v>
+        <v>0.0013473006591805</v>
       </c>
       <c r="Z513" t="n">
-        <v>5.19589863615774</v>
+        <v>5.36597206420235</v>
       </c>
       <c r="AA513" t="n">
         <v>0</v>
       </c>
       <c r="AB513" t="n">
-        <v>1.35093364540101</v>
+        <v>1.39515273669262</v>
       </c>
       <c r="AC513" t="n">
-        <v>5.19589863615774</v>
+        <v>5.36597206420237</v>
       </c>
       <c r="AD513" t="n">
         <v>0</v>
@@ -35493,25 +35493,25 @@
         <v>33</v>
       </c>
       <c r="L514" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M514" t="n">
-        <v>0.0318109695790734</v>
+        <v>0.0318681392966026</v>
       </c>
       <c r="N514" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O514" t="n">
-        <v>28.1703945615794</v>
+        <v>28.1198583980218</v>
       </c>
       <c r="P514" t="n">
-        <v>4.11138042693728</v>
+        <v>4.10400483291608</v>
       </c>
       <c r="Q514" t="n">
-        <v>20.1120889247824</v>
+        <v>20.0760089255063</v>
       </c>
       <c r="R514" t="n">
-        <v>36.2287001983765</v>
+        <v>36.1637078705373</v>
       </c>
       <c r="S514" t="n">
         <v>28</v>
@@ -35523,7 +35523,7 @@
         <v>36</v>
       </c>
       <c r="V514" t="n">
-        <v>0.0271553807402696</v>
+        <v>0.0271553807402697</v>
       </c>
       <c r="W514" t="n">
         <v>0.0193874257259961</v>
@@ -35532,19 +35532,19 @@
         <v>0.0349233357545432</v>
       </c>
       <c r="Y514" t="n">
-        <v>0.00465558883880375</v>
+        <v>0.00471275855633291</v>
       </c>
       <c r="Z514" t="n">
-        <v>14.6351679952138</v>
+        <v>14.7883078847824</v>
       </c>
       <c r="AA514" t="n">
         <v>0</v>
       </c>
       <c r="AB514" t="n">
-        <v>4.82960543842056</v>
+        <v>4.88014160197819</v>
       </c>
       <c r="AC514" t="n">
-        <v>14.6351679952138</v>
+        <v>14.7883078847824</v>
       </c>
       <c r="AD514" t="n">
         <v>0</v>
@@ -38704,34 +38704,34 @@
         <v>768</v>
       </c>
       <c r="L563" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M563" t="n">
-        <v>0.740328019294799</v>
+        <v>0.741658514539114</v>
       </c>
       <c r="N563" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O563" t="n">
-        <v>745.76242004216</v>
+        <v>744.424562613433</v>
       </c>
       <c r="P563" t="n">
-        <v>27.1998055839488</v>
+        <v>27.151010604499</v>
       </c>
       <c r="Q563" t="n">
-        <v>692.450801097621</v>
+        <v>691.208581828615</v>
       </c>
       <c r="R563" t="n">
-        <v>799.0740389867</v>
+        <v>797.640543398251</v>
       </c>
       <c r="S563" t="n">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="T563" t="n">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="U563" t="n">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="V563" t="n">
         <v>0.718891686581131</v>
@@ -38743,31 +38743,31 @@
         <v>0.770282422594946</v>
       </c>
       <c r="Y563" t="n">
-        <v>0.0214363327136681</v>
+        <v>0.0227668279579831</v>
       </c>
       <c r="Z563" t="n">
-        <v>2.89551822367703</v>
+        <v>3.06971840970922</v>
       </c>
       <c r="AA563" t="n">
         <v>0</v>
       </c>
       <c r="AB563" t="n">
-        <v>22.2375799578397</v>
+        <v>23.5754373865669</v>
       </c>
       <c r="AC563" t="n">
-        <v>2.89551822367704</v>
+        <v>3.06971840970923</v>
       </c>
       <c r="AD563" t="n">
         <v>0</v>
       </c>
       <c r="AE563" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF563" t="n">
-        <v>-31</v>
+        <v>-29</v>
       </c>
       <c r="AG563" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="564">
@@ -38799,34 +38799,34 @@
         <v>869</v>
       </c>
       <c r="L564" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M564" t="n">
-        <v>0.837688865582266</v>
+        <v>0.839194334810534</v>
       </c>
       <c r="N564" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O564" t="n">
-        <v>660.709668154434</v>
+        <v>659.524390760432</v>
       </c>
       <c r="P564" t="n">
-        <v>24.4751564972655</v>
+        <v>24.4312493908477</v>
       </c>
       <c r="Q564" t="n">
-        <v>612.738361419794</v>
+        <v>611.63914195437</v>
       </c>
       <c r="R564" t="n">
-        <v>708.680974889074</v>
+        <v>707.409639566494</v>
       </c>
       <c r="S564" t="n">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="T564" t="n">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="U564" t="n">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="V564" t="n">
         <v>0.636903489523042</v>
@@ -38838,31 +38838,31 @@
         <v>0.683146331317104</v>
       </c>
       <c r="Y564" t="n">
-        <v>0.200785376059224</v>
+        <v>0.202290845287492</v>
       </c>
       <c r="Z564" t="n">
-        <v>23.9689679914345</v>
+        <v>24.1053635488571</v>
       </c>
       <c r="AA564" t="n">
         <v>1</v>
       </c>
       <c r="AB564" t="n">
-        <v>208.290331845566</v>
+        <v>209.475609239568</v>
       </c>
       <c r="AC564" t="n">
-        <v>23.9689679914345</v>
+        <v>24.1053635488571</v>
       </c>
       <c r="AD564" t="n">
         <v>1</v>
       </c>
       <c r="AE564" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF564" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG564" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="565">
@@ -38894,70 +38894,70 @@
         <v>969</v>
       </c>
       <c r="L565" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M565" t="n">
-        <v>0.93408574309461</v>
+        <v>0.935764453891148</v>
       </c>
       <c r="N565" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O565" t="n">
-        <v>729.763913661452</v>
+        <v>728.454756687501</v>
       </c>
       <c r="P565" t="n">
-        <v>31.3329933349852</v>
+        <v>31.2767836403547</v>
       </c>
       <c r="Q565" t="n">
-        <v>668.351246724881</v>
+        <v>667.152260752406</v>
       </c>
       <c r="R565" t="n">
-        <v>791.176580598023</v>
+        <v>789.757252622596</v>
       </c>
       <c r="S565" t="n">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="T565" t="n">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="U565" t="n">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="V565" t="n">
-        <v>0.703469625981515</v>
+        <v>0.703469625981516</v>
       </c>
       <c r="W565" t="n">
-        <v>0.644269732657605</v>
+        <v>0.644269732657606</v>
       </c>
       <c r="X565" t="n">
         <v>0.762669519305425</v>
       </c>
       <c r="Y565" t="n">
-        <v>0.230616117113094</v>
+        <v>0.232294827909633</v>
       </c>
       <c r="Z565" t="n">
-        <v>24.6889665984053</v>
+        <v>24.8240705172858</v>
       </c>
       <c r="AA565" t="n">
         <v>1</v>
       </c>
       <c r="AB565" t="n">
-        <v>239.236086338548</v>
+        <v>240.545243312499</v>
       </c>
       <c r="AC565" t="n">
-        <v>24.6889665984053</v>
+        <v>24.8240705172858</v>
       </c>
       <c r="AD565" t="n">
         <v>1</v>
       </c>
       <c r="AE565" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF565" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AG565" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="566">
@@ -38989,34 +38989,34 @@
         <v>825</v>
       </c>
       <c r="L566" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M566" t="n">
-        <v>0.795274239476835</v>
+        <v>0.796703482415064</v>
       </c>
       <c r="N566" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O566" t="n">
-        <v>639.746357966183</v>
+        <v>638.598687616345</v>
       </c>
       <c r="P566" t="n">
-        <v>27.9250427126836</v>
+        <v>27.874946697067</v>
       </c>
       <c r="Q566" t="n">
-        <v>585.013274249323</v>
+        <v>583.963792090093</v>
       </c>
       <c r="R566" t="n">
-        <v>694.479441683043</v>
+        <v>693.233583142596</v>
       </c>
       <c r="S566" t="n">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="T566" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="U566" t="n">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="V566" t="n">
         <v>0.616695513078341</v>
@@ -39028,31 +39028,31 @@
         <v>0.669456496747611</v>
       </c>
       <c r="Y566" t="n">
-        <v>0.178578726398494</v>
+        <v>0.180007969336723</v>
       </c>
       <c r="Z566" t="n">
-        <v>22.4549869131899</v>
+        <v>22.5940984707461</v>
       </c>
       <c r="AA566" t="n">
         <v>1</v>
       </c>
       <c r="AB566" t="n">
-        <v>185.253642033817</v>
+        <v>186.401312383655</v>
       </c>
       <c r="AC566" t="n">
-        <v>22.4549869131899</v>
+        <v>22.5940984707461</v>
       </c>
       <c r="AD566" t="n">
         <v>1</v>
       </c>
       <c r="AE566" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF566" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG566" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="567">
@@ -39084,34 +39084,34 @@
         <v>908</v>
       </c>
       <c r="L567" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M567" t="n">
-        <v>0.87528364781208</v>
+        <v>0.876856681251974</v>
       </c>
       <c r="N567" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O567" t="n">
-        <v>705.62182446923</v>
+        <v>704.355977096973</v>
       </c>
       <c r="P567" t="n">
-        <v>30.4197931289709</v>
+        <v>30.3652216660972</v>
       </c>
       <c r="Q567" t="n">
-        <v>645.999029936447</v>
+        <v>644.840142631422</v>
       </c>
       <c r="R567" t="n">
-        <v>765.244619002013</v>
+        <v>763.871811562524</v>
       </c>
       <c r="S567" t="n">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="T567" t="n">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="U567" t="n">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="V567" t="n">
         <v>0.680197405833968</v>
@@ -39123,31 +39123,31 @@
         <v>0.737671918049171</v>
       </c>
       <c r="Y567" t="n">
-        <v>0.195086241978112</v>
+        <v>0.196659275418006</v>
       </c>
       <c r="Z567" t="n">
-        <v>22.288345322772</v>
+        <v>22.4277558263246</v>
       </c>
       <c r="AA567" t="n">
         <v>1</v>
       </c>
       <c r="AB567" t="n">
-        <v>202.37817553077</v>
+        <v>203.644022903027</v>
       </c>
       <c r="AC567" t="n">
-        <v>22.288345322772</v>
+        <v>22.4277558263246</v>
       </c>
       <c r="AD567" t="n">
         <v>1</v>
       </c>
       <c r="AE567" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF567" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AG567" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="568">
@@ -39179,34 +39179,34 @@
         <v>830</v>
       </c>
       <c r="L568" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M568" t="n">
-        <v>0.800094083352452</v>
+        <v>0.801531988369095</v>
       </c>
       <c r="N568" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O568" t="n">
-        <v>597.359550592341</v>
+        <v>596.287919881402</v>
       </c>
       <c r="P568" t="n">
-        <v>26.3171214724172</v>
+        <v>26.2699099805019</v>
       </c>
       <c r="Q568" t="n">
-        <v>545.777992506403</v>
+        <v>544.798896319618</v>
       </c>
       <c r="R568" t="n">
-        <v>648.941108678278</v>
+        <v>647.776943443185</v>
       </c>
       <c r="S568" t="n">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="T568" t="n">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="U568" t="n">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="V568" t="n">
         <v>0.575835954292785</v>
@@ -39218,31 +39218,31 @@
         <v>0.625558965659845</v>
       </c>
       <c r="Y568" t="n">
-        <v>0.224258129059667</v>
+        <v>0.22569603407631</v>
       </c>
       <c r="Z568" t="n">
-        <v>28.0289698081517</v>
+        <v>28.1580819419998</v>
       </c>
       <c r="AA568" t="n">
         <v>1</v>
       </c>
       <c r="AB568" t="n">
-        <v>232.640449407659</v>
+        <v>233.712080118598</v>
       </c>
       <c r="AC568" t="n">
-        <v>28.0289698081517</v>
+        <v>28.1580819419998</v>
       </c>
       <c r="AD568" t="n">
         <v>1</v>
       </c>
       <c r="AE568" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF568" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG568" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="569">
@@ -39274,25 +39274,25 @@
         <v>391</v>
       </c>
       <c r="L569" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M569" t="n">
-        <v>0.376911791073264</v>
+        <v>0.3775891656052</v>
       </c>
       <c r="N569" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O569" t="n">
-        <v>334.839144018406</v>
+        <v>334.238460712014</v>
       </c>
       <c r="P569" t="n">
-        <v>16.2713522167152</v>
+        <v>16.242162291273</v>
       </c>
       <c r="Q569" t="n">
-        <v>302.947293673644</v>
+        <v>302.403822621119</v>
       </c>
       <c r="R569" t="n">
-        <v>366.730994363167</v>
+        <v>366.073098802909</v>
       </c>
       <c r="S569" t="n">
         <v>334</v>
@@ -39307,25 +39307,25 @@
         <v>0.322774479522802</v>
       </c>
       <c r="W569" t="n">
-        <v>0.292031731609542</v>
+        <v>0.292031731609543</v>
       </c>
       <c r="X569" t="n">
         <v>0.353517227436062</v>
       </c>
       <c r="Y569" t="n">
-        <v>0.0541373115504611</v>
+        <v>0.0548146860823976</v>
       </c>
       <c r="Z569" t="n">
-        <v>14.3633902766226</v>
+        <v>14.5170177207126</v>
       </c>
       <c r="AA569" t="n">
         <v>1</v>
       </c>
       <c r="AB569" t="n">
-        <v>56.1608559815943</v>
+        <v>56.7615392879862</v>
       </c>
       <c r="AC569" t="n">
-        <v>14.3633902766226</v>
+        <v>14.5170177207126</v>
       </c>
       <c r="AD569" t="n">
         <v>1</v>
@@ -39369,34 +39369,34 @@
         <v>640</v>
       </c>
       <c r="L570" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M570" t="n">
-        <v>0.616940016078999</v>
+        <v>0.618048762115929</v>
       </c>
       <c r="N570" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O570" t="n">
-        <v>575.070077332957</v>
+        <v>574.038432730973</v>
       </c>
       <c r="P570" t="n">
-        <v>25.4705701997618</v>
+        <v>25.4248773750231</v>
       </c>
       <c r="Q570" t="n">
-        <v>525.147759741424</v>
+        <v>524.205673075928</v>
       </c>
       <c r="R570" t="n">
-        <v>624.99239492449</v>
+        <v>623.871192386018</v>
       </c>
       <c r="S570" t="n">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="T570" t="n">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="U570" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="V570" t="n">
         <v>0.55434959805679</v>
@@ -39408,31 +39408,31 @@
         <v>0.602473153396823</v>
       </c>
       <c r="Y570" t="n">
-        <v>0.0625904180222092</v>
+        <v>0.0636991640591386</v>
       </c>
       <c r="Z570" t="n">
-        <v>10.1453004167255</v>
+        <v>10.3064948857855</v>
       </c>
       <c r="AA570" t="n">
         <v>1</v>
       </c>
       <c r="AB570" t="n">
-        <v>64.9299226670433</v>
+        <v>65.9615672690269</v>
       </c>
       <c r="AC570" t="n">
-        <v>10.1453004167255</v>
+        <v>10.3064948857855</v>
       </c>
       <c r="AD570" t="n">
         <v>1</v>
       </c>
       <c r="AE570" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF570" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG570" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="571">
@@ -39464,34 +39464,34 @@
         <v>843</v>
       </c>
       <c r="L571" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M571" t="n">
-        <v>0.812625677429057</v>
+        <v>0.814086103849575</v>
       </c>
       <c r="N571" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O571" t="n">
-        <v>630.402214954219</v>
+        <v>629.271307491337</v>
       </c>
       <c r="P571" t="n">
-        <v>27.5707779767056</v>
+        <v>27.5213174928562</v>
       </c>
       <c r="Q571" t="n">
-        <v>576.363490119876</v>
+        <v>575.329525205339</v>
       </c>
       <c r="R571" t="n">
-        <v>684.440939788562</v>
+        <v>683.213089777335</v>
       </c>
       <c r="S571" t="n">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="T571" t="n">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="U571" t="n">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="V571" t="n">
         <v>0.60768805098452</v>
@@ -39503,31 +39503,31 @@
         <v>0.659779694372314</v>
       </c>
       <c r="Y571" t="n">
-        <v>0.204937626444537</v>
+        <v>0.206398052865055</v>
       </c>
       <c r="Z571" t="n">
-        <v>25.2191915831294</v>
+        <v>25.3533443070775</v>
       </c>
       <c r="AA571" t="n">
         <v>1</v>
       </c>
       <c r="AB571" t="n">
-        <v>212.597785045781</v>
+        <v>213.728692508663</v>
       </c>
       <c r="AC571" t="n">
-        <v>25.2191915831294</v>
+        <v>25.3533443070775</v>
       </c>
       <c r="AD571" t="n">
         <v>1</v>
       </c>
       <c r="AE571" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF571" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG571" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="572">
@@ -42675,25 +42675,25 @@
         <v>96</v>
       </c>
       <c r="L620" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M620" t="n">
-        <v>0.0925410024118499</v>
+        <v>0.0927073143173893</v>
       </c>
       <c r="N620" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O620" t="n">
-        <v>79.2282014848881</v>
+        <v>79.0860703784222</v>
       </c>
       <c r="P620" t="n">
-        <v>6.49955086896375</v>
+        <v>6.48789102639225</v>
       </c>
       <c r="Q620" t="n">
-        <v>66.4890817817191</v>
+        <v>66.3698039666934</v>
       </c>
       <c r="R620" t="n">
-        <v>91.967321188057</v>
+        <v>91.802336790151</v>
       </c>
       <c r="S620" t="n">
         <v>79</v>
@@ -42714,19 +42714,19 @@
         <v>0.088653625957035</v>
       </c>
       <c r="Y620" t="n">
-        <v>0.0161674900712295</v>
+        <v>0.0163338019767689</v>
       </c>
       <c r="Z620" t="n">
-        <v>17.4706234532416</v>
+        <v>17.6186766891435</v>
       </c>
       <c r="AA620" t="n">
         <v>1</v>
       </c>
       <c r="AB620" t="n">
-        <v>16.7717985151119</v>
+        <v>16.9139296215778</v>
       </c>
       <c r="AC620" t="n">
-        <v>17.4706234532416</v>
+        <v>17.6186766891436</v>
       </c>
       <c r="AD620" t="n">
         <v>1</v>
@@ -42770,25 +42770,25 @@
         <v>94</v>
       </c>
       <c r="L621" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M621" t="n">
-        <v>0.090613064861603</v>
+        <v>0.090775911935777</v>
       </c>
       <c r="N621" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O621" t="n">
-        <v>66.8398140893305</v>
+        <v>66.7199070795229</v>
       </c>
       <c r="P621" t="n">
-        <v>5.75127635545118</v>
+        <v>5.74095887686817</v>
       </c>
       <c r="Q621" t="n">
-        <v>55.5673124326462</v>
+        <v>55.4676276808613</v>
       </c>
       <c r="R621" t="n">
-        <v>78.1123157460149</v>
+        <v>77.9721864781845</v>
       </c>
       <c r="S621" t="n">
         <v>66</v>
@@ -42797,31 +42797,31 @@
         <v>55</v>
       </c>
       <c r="U621" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V621" t="n">
-        <v>0.0644314937171701</v>
+        <v>0.0644314937171702</v>
       </c>
       <c r="W621" t="n">
         <v>0.0535651541025993</v>
       </c>
       <c r="X621" t="n">
-        <v>0.075297833331741</v>
+        <v>0.0752978333317411</v>
       </c>
       <c r="Y621" t="n">
-        <v>0.0261815711444329</v>
+        <v>0.0263444182186068</v>
       </c>
       <c r="Z621" t="n">
-        <v>28.8938147985845</v>
+        <v>29.0213754473161</v>
       </c>
       <c r="AA621" t="n">
         <v>1</v>
       </c>
       <c r="AB621" t="n">
-        <v>27.1601859106695</v>
+        <v>27.2800929204771</v>
       </c>
       <c r="AC621" t="n">
-        <v>28.8938147985845</v>
+        <v>29.0213754473161</v>
       </c>
       <c r="AD621" t="n">
         <v>1</v>
@@ -42830,7 +42830,7 @@
         <v>28</v>
       </c>
       <c r="AF621" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG621" t="n">
         <v>39</v>
@@ -42865,25 +42865,25 @@
         <v>118</v>
       </c>
       <c r="L622" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M622" t="n">
-        <v>0.113748315464565</v>
+        <v>0.113952740515124</v>
       </c>
       <c r="N622" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O622" t="n">
-        <v>83.4319271073005</v>
+        <v>83.2822547445295</v>
       </c>
       <c r="P622" t="n">
-        <v>8.06216957279133</v>
+        <v>8.04770647681767</v>
       </c>
       <c r="Q622" t="n">
-        <v>67.6300747446295</v>
+        <v>67.5087500499668</v>
       </c>
       <c r="R622" t="n">
-        <v>99.2337794699715</v>
+        <v>99.0557594390921</v>
       </c>
       <c r="S622" t="n">
         <v>83</v>
@@ -42904,19 +42904,19 @@
         <v>0.0956582648465376</v>
       </c>
       <c r="Y622" t="n">
-        <v>0.0333225428847532</v>
+        <v>0.0335269679353121</v>
       </c>
       <c r="Z622" t="n">
-        <v>29.2949770277115</v>
+        <v>29.4218180131106</v>
       </c>
       <c r="AA622" t="n">
         <v>1</v>
       </c>
       <c r="AB622" t="n">
-        <v>34.5680728926995</v>
+        <v>34.7177452554705</v>
       </c>
       <c r="AC622" t="n">
-        <v>29.2949770277115</v>
+        <v>29.4218180131106</v>
       </c>
       <c r="AD622" t="n">
         <v>1</v>
@@ -42960,25 +42960,25 @@
         <v>94</v>
       </c>
       <c r="L623" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M623" t="n">
-        <v>0.090613064861603</v>
+        <v>0.090775911935777</v>
       </c>
       <c r="N623" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O623" t="n">
-        <v>73.9420381833659</v>
+        <v>73.8093901678313</v>
       </c>
       <c r="P623" t="n">
-        <v>7.37419148925266</v>
+        <v>7.36096258873472</v>
       </c>
       <c r="Q623" t="n">
-        <v>59.4886228644307</v>
+        <v>59.3819034939113</v>
       </c>
       <c r="R623" t="n">
-        <v>88.3954535023011</v>
+        <v>88.2368768417514</v>
       </c>
       <c r="S623" t="n">
         <v>73</v>
@@ -42999,19 +42999,19 @@
         <v>0.0852104570390939</v>
       </c>
       <c r="Y623" t="n">
-        <v>0.0193352488838534</v>
+        <v>0.0194980959580274</v>
       </c>
       <c r="Z623" t="n">
-        <v>21.3382572517384</v>
+        <v>21.4793721618816</v>
       </c>
       <c r="AA623" t="n">
         <v>1</v>
       </c>
       <c r="AB623" t="n">
-        <v>20.0579618166341</v>
+        <v>20.1906098321687</v>
       </c>
       <c r="AC623" t="n">
-        <v>21.3382572517384</v>
+        <v>21.4793721618816</v>
       </c>
       <c r="AD623" t="n">
         <v>1</v>
@@ -43055,25 +43055,25 @@
         <v>91</v>
       </c>
       <c r="L624" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M624" t="n">
-        <v>0.0877211585362327</v>
+        <v>0.0878788083633586</v>
       </c>
       <c r="N624" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O624" t="n">
-        <v>76.7099267786425</v>
+        <v>76.572313320737</v>
       </c>
       <c r="P624" t="n">
-        <v>7.57565939183752</v>
+        <v>7.56206906880367</v>
       </c>
       <c r="Q624" t="n">
-        <v>61.8616343706409</v>
+        <v>61.7506579458818</v>
       </c>
       <c r="R624" t="n">
-        <v>91.558219186644</v>
+        <v>91.3939686955922</v>
       </c>
       <c r="S624" t="n">
         <v>76</v>
@@ -43094,19 +43094,19 @@
         <v>0.0882592644018323</v>
       </c>
       <c r="Y624" t="n">
-        <v>0.0137751843796162</v>
+        <v>0.0139328342067421</v>
       </c>
       <c r="Z624" t="n">
-        <v>15.703377166327</v>
+        <v>15.8546007464428</v>
       </c>
       <c r="AA624" t="n">
         <v>0</v>
       </c>
       <c r="AB624" t="n">
-        <v>14.2900732213575</v>
+        <v>14.427686679263</v>
       </c>
       <c r="AC624" t="n">
-        <v>15.703377166327</v>
+        <v>15.8546007464428</v>
       </c>
       <c r="AD624" t="n">
         <v>0</v>
@@ -43150,25 +43150,25 @@
         <v>116</v>
       </c>
       <c r="L625" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M625" t="n">
-        <v>0.111820377914319</v>
+        <v>0.112021338133512</v>
       </c>
       <c r="N625" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O625" t="n">
-        <v>73.1512207548401</v>
+        <v>73.0199914229815</v>
       </c>
       <c r="P625" t="n">
-        <v>7.31649545499197</v>
+        <v>7.3033700580376</v>
       </c>
       <c r="Q625" t="n">
-        <v>58.8108896630558</v>
+        <v>58.7053861092278</v>
       </c>
       <c r="R625" t="n">
-        <v>87.4915518466243</v>
+        <v>87.3345967367352</v>
       </c>
       <c r="S625" t="n">
         <v>73</v>
@@ -43189,19 +43189,19 @@
         <v>0.0843391240672391</v>
       </c>
       <c r="Y625" t="n">
-        <v>0.0413048852444913</v>
+        <v>0.0415058454636848</v>
       </c>
       <c r="Z625" t="n">
-        <v>36.9386027975517</v>
+        <v>37.0517315319125</v>
       </c>
       <c r="AA625" t="n">
         <v>1</v>
       </c>
       <c r="AB625" t="n">
-        <v>42.8487792451599</v>
+        <v>42.9800085770185</v>
       </c>
       <c r="AC625" t="n">
-        <v>36.9386027975517</v>
+        <v>37.0517315319125</v>
       </c>
       <c r="AD625" t="n">
         <v>1</v>
@@ -43245,25 +43245,25 @@
         <v>64</v>
       </c>
       <c r="L626" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M626" t="n">
-        <v>0.0616940016078999</v>
+        <v>0.0618048762115929</v>
       </c>
       <c r="N626" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O626" t="n">
-        <v>52.1943776816513</v>
+        <v>52.1007437923019</v>
       </c>
       <c r="P626" t="n">
-        <v>5.75893622377383</v>
+        <v>5.74860500380151</v>
       </c>
       <c r="Q626" t="n">
-        <v>40.9068626830546</v>
+        <v>40.8334779848509</v>
       </c>
       <c r="R626" t="n">
-        <v>63.481892680248</v>
+        <v>63.3680095997528</v>
       </c>
       <c r="S626" t="n">
         <v>52</v>
@@ -43284,19 +43284,19 @@
         <v>0.0611945623294961</v>
       </c>
       <c r="Y626" t="n">
-        <v>0.0113802512857885</v>
+        <v>0.0114911258894814</v>
       </c>
       <c r="Z626" t="n">
-        <v>18.4462848724198</v>
+        <v>18.5925878245283</v>
       </c>
       <c r="AA626" t="n">
         <v>1</v>
       </c>
       <c r="AB626" t="n">
-        <v>11.8056223183487</v>
+        <v>11.8992562076981</v>
       </c>
       <c r="AC626" t="n">
-        <v>18.4462848724198</v>
+        <v>18.5925878245283</v>
       </c>
       <c r="AD626" t="n">
         <v>1</v>
@@ -43340,25 +43340,25 @@
         <v>79</v>
       </c>
       <c r="L627" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M627" t="n">
-        <v>0.0761535332347514</v>
+        <v>0.0762903940736849</v>
       </c>
       <c r="N627" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O627" t="n">
-        <v>72.3603975320664</v>
+        <v>72.2305868942785</v>
       </c>
       <c r="P627" t="n">
-        <v>7.2587364245744</v>
+        <v>7.24571464419527</v>
       </c>
       <c r="Q627" t="n">
-        <v>58.1332741399006</v>
+        <v>58.0289861916558</v>
       </c>
       <c r="R627" t="n">
-        <v>86.5875209242322</v>
+        <v>86.4321875969012</v>
       </c>
       <c r="S627" t="n">
         <v>72</v>
@@ -43376,22 +43376,22 @@
         <v>0.0560386610665549</v>
       </c>
       <c r="X627" t="n">
-        <v>0.083467666486307</v>
+        <v>0.0834676664863071</v>
       </c>
       <c r="Y627" t="n">
-        <v>0.00640036945832047</v>
+        <v>0.00653723029725395</v>
       </c>
       <c r="Z627" t="n">
-        <v>8.40456008599186</v>
+        <v>8.56887734901458</v>
       </c>
       <c r="AA627" t="n">
         <v>0</v>
       </c>
       <c r="AB627" t="n">
-        <v>6.63960246793359</v>
+        <v>6.76941310572151</v>
       </c>
       <c r="AC627" t="n">
-        <v>8.40456008599187</v>
+        <v>8.56887734901457</v>
       </c>
       <c r="AD627" t="n">
         <v>0</v>
@@ -43435,25 +43435,25 @@
         <v>105</v>
       </c>
       <c r="L628" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M628" t="n">
-        <v>0.101216721387961</v>
+        <v>0.101398625034645</v>
       </c>
       <c r="N628" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O628" t="n">
-        <v>79.8731948630542</v>
+        <v>79.7299066733681</v>
       </c>
       <c r="P628" t="n">
-        <v>7.80506427615788</v>
+        <v>7.79106241317455</v>
       </c>
       <c r="Q628" t="n">
-        <v>64.5752688817847</v>
+        <v>64.459424343546</v>
       </c>
       <c r="R628" t="n">
-        <v>95.1711208443236</v>
+        <v>95.0003890031902</v>
       </c>
       <c r="S628" t="n">
         <v>79</v>
@@ -43465,28 +43465,28 @@
         <v>95</v>
       </c>
       <c r="V628" t="n">
-        <v>0.0769952658173338</v>
+        <v>0.0769952658173339</v>
       </c>
       <c r="W628" t="n">
-        <v>0.0622485428472405</v>
+        <v>0.0622485428472406</v>
       </c>
       <c r="X628" t="n">
         <v>0.0917419887874271</v>
       </c>
       <c r="Y628" t="n">
-        <v>0.024221455570627</v>
+        <v>0.0244033592173107</v>
       </c>
       <c r="Z628" t="n">
-        <v>23.9302906066151</v>
+        <v>24.0667555491732</v>
       </c>
       <c r="AA628" t="n">
         <v>1</v>
       </c>
       <c r="AB628" t="n">
-        <v>25.1268051369458</v>
+        <v>25.2700933266319</v>
       </c>
       <c r="AC628" t="n">
-        <v>23.9302906066151</v>
+        <v>24.0667555491732</v>
       </c>
       <c r="AD628" t="n">
         <v>1</v>
@@ -46646,37 +46646,37 @@
         <v>898</v>
       </c>
       <c r="L677" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M677" t="n">
-        <v>0.865643960060846</v>
+        <v>0.867199669343912</v>
       </c>
       <c r="N677" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O677" t="n">
-        <v>930.629161099557</v>
+        <v>928.959662740419</v>
       </c>
       <c r="P677" t="n">
-        <v>26.7343883024477</v>
+        <v>26.6864282564173</v>
       </c>
       <c r="Q677" t="n">
-        <v>878.22976002676</v>
+        <v>876.654263357841</v>
       </c>
       <c r="R677" t="n">
-        <v>983.028562172355</v>
+        <v>981.265062122997</v>
       </c>
       <c r="S677" t="n">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="T677" t="n">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="U677" t="n">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="V677" t="n">
-        <v>0.897097452519291</v>
+        <v>0.897097452519292</v>
       </c>
       <c r="W677" t="n">
         <v>0.846586066049945</v>
@@ -46685,31 +46685,31 @@
         <v>0.947608838988638</v>
       </c>
       <c r="Y677" t="n">
-        <v>-0.0314534924584455</v>
+        <v>-0.0298977831753793</v>
       </c>
       <c r="Z677" t="n">
-        <v>-3.63353687077475</v>
+        <v>-3.447623913187</v>
       </c>
       <c r="AA677" t="n">
         <v>0</v>
       </c>
       <c r="AB677" t="n">
-        <v>-32.6291610995573</v>
+        <v>-30.9596627404192</v>
       </c>
       <c r="AC677" t="n">
-        <v>-3.63353687077477</v>
+        <v>-3.44762391318698</v>
       </c>
       <c r="AD677" t="n">
         <v>0</v>
       </c>
       <c r="AE677" t="n">
-        <v>-32</v>
+        <v>-30</v>
       </c>
       <c r="AF677" t="n">
-        <v>-85</v>
+        <v>-83</v>
       </c>
       <c r="AG677" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="678">
@@ -46741,34 +46741,34 @@
         <v>1039</v>
       </c>
       <c r="L678" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M678" t="n">
-        <v>1.00156355735325</v>
+        <v>1.00336353724758</v>
       </c>
       <c r="N678" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O678" t="n">
-        <v>858.791944563014</v>
+        <v>857.251318283267</v>
       </c>
       <c r="P678" t="n">
-        <v>25.043898276114</v>
+        <v>24.9989708777194</v>
       </c>
       <c r="Q678" t="n">
-        <v>809.705903941831</v>
+        <v>808.253335362937</v>
       </c>
       <c r="R678" t="n">
-        <v>907.877985184197</v>
+        <v>906.249301203597</v>
       </c>
       <c r="S678" t="n">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="T678" t="n">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="U678" t="n">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="V678" t="n">
         <v>0.827848618886283</v>
@@ -46780,31 +46780,31 @@
         <v>0.875166029339544</v>
       </c>
       <c r="Y678" t="n">
-        <v>0.173714938466968</v>
+        <v>0.175514918361295</v>
       </c>
       <c r="Z678" t="n">
-        <v>17.3443749217503</v>
+        <v>17.4926546406865</v>
       </c>
       <c r="AA678" t="n">
         <v>1</v>
       </c>
       <c r="AB678" t="n">
-        <v>180.208055436986</v>
+        <v>181.748681716733</v>
       </c>
       <c r="AC678" t="n">
-        <v>17.3443749217503</v>
+        <v>17.4926546406865</v>
       </c>
       <c r="AD678" t="n">
         <v>1</v>
       </c>
       <c r="AE678" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF678" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG678" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="679">
@@ -46836,70 +46836,70 @@
         <v>1165</v>
       </c>
       <c r="L679" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M679" t="n">
-        <v>1.1230236230188</v>
+        <v>1.12504188728915</v>
       </c>
       <c r="N679" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O679" t="n">
-        <v>885.894285439863</v>
+        <v>884.305039027077</v>
       </c>
       <c r="P679" t="n">
-        <v>30.4817990460179</v>
+        <v>30.4271163478841</v>
       </c>
       <c r="Q679" t="n">
-        <v>826.149959309668</v>
+        <v>824.667890985224</v>
       </c>
       <c r="R679" t="n">
-        <v>945.638611570058</v>
+        <v>943.94218706893</v>
       </c>
       <c r="S679" t="n">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="T679" t="n">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="U679" t="n">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="V679" t="n">
         <v>0.853974429224317</v>
       </c>
       <c r="W679" t="n">
-        <v>0.796382764344017</v>
+        <v>0.796382764344018</v>
       </c>
       <c r="X679" t="n">
         <v>0.911566094104616</v>
       </c>
       <c r="Y679" t="n">
-        <v>0.269049193794486</v>
+        <v>0.271067458064834</v>
       </c>
       <c r="Z679" t="n">
-        <v>23.9575720652478</v>
+        <v>24.0939880663453</v>
       </c>
       <c r="AA679" t="n">
         <v>1</v>
       </c>
       <c r="AB679" t="n">
-        <v>279.105714560137</v>
+        <v>280.694960972923</v>
       </c>
       <c r="AC679" t="n">
-        <v>23.9575720652478</v>
+        <v>24.0939880663453</v>
       </c>
       <c r="AD679" t="n">
         <v>1</v>
       </c>
       <c r="AE679" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF679" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AG679" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="680">
@@ -46931,70 +46931,70 @@
         <v>1113</v>
       </c>
       <c r="L680" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M680" t="n">
-        <v>1.07289724671238</v>
+        <v>1.07482542536723</v>
       </c>
       <c r="N680" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O680" t="n">
-        <v>874.047960369233</v>
+        <v>872.479965622625</v>
       </c>
       <c r="P680" t="n">
-        <v>30.1489807278615</v>
+        <v>30.0948950877819</v>
       </c>
       <c r="Q680" t="n">
-        <v>814.955958142625</v>
+        <v>813.493971250573</v>
       </c>
       <c r="R680" t="n">
-        <v>933.139962595842</v>
+        <v>931.465959994678</v>
       </c>
       <c r="S680" t="n">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="T680" t="n">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="U680" t="n">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="V680" t="n">
         <v>0.842554941756268</v>
       </c>
       <c r="W680" t="n">
-        <v>0.785592096750292</v>
+        <v>0.785592096750293</v>
       </c>
       <c r="X680" t="n">
         <v>0.899517786762243</v>
       </c>
       <c r="Y680" t="n">
-        <v>0.230342304956117</v>
+        <v>0.232270483610964</v>
       </c>
       <c r="Z680" t="n">
-        <v>21.4691859506529</v>
+        <v>21.6100659817947</v>
       </c>
       <c r="AA680" t="n">
         <v>1</v>
       </c>
       <c r="AB680" t="n">
-        <v>238.952039630767</v>
+        <v>240.520034377375</v>
       </c>
       <c r="AC680" t="n">
-        <v>21.4691859506529</v>
+        <v>21.6100659817947</v>
       </c>
       <c r="AD680" t="n">
         <v>1</v>
       </c>
       <c r="AE680" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AF680" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AG680" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="681">
@@ -47026,34 +47026,34 @@
         <v>1027</v>
       </c>
       <c r="L681" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M681" t="n">
-        <v>0.989995932051769</v>
+        <v>0.991775122957904</v>
       </c>
       <c r="N681" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O681" t="n">
-        <v>944.580240613492</v>
+        <v>942.885714772592</v>
       </c>
       <c r="P681" t="n">
-        <v>32.128078621231</v>
+        <v>32.0704425866186</v>
       </c>
       <c r="Q681" t="n">
-        <v>881.609206515879</v>
+        <v>880.027647302819</v>
       </c>
       <c r="R681" t="n">
-        <v>1007.5512747111</v>
+        <v>1005.74378224236</v>
       </c>
       <c r="S681" t="n">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="T681" t="n">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="U681" t="n">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="V681" t="n">
         <v>0.910545857549989</v>
@@ -47065,31 +47065,31 @@
         <v>0.971247968157321</v>
       </c>
       <c r="Y681" t="n">
-        <v>0.0794500745017803</v>
+        <v>0.0812292654079154</v>
       </c>
       <c r="Z681" t="n">
-        <v>8.02529302692384</v>
+        <v>8.19029067452857</v>
       </c>
       <c r="AA681" t="n">
         <v>1</v>
       </c>
       <c r="AB681" t="n">
-        <v>82.419759386508</v>
+        <v>84.1142852274083</v>
       </c>
       <c r="AC681" t="n">
-        <v>8.02529302692385</v>
+        <v>8.19029067452857</v>
       </c>
       <c r="AD681" t="n">
         <v>1</v>
       </c>
       <c r="AE681" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AF681" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AG681" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="682">
@@ -47121,34 +47121,34 @@
         <v>981</v>
       </c>
       <c r="L682" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M682" t="n">
-        <v>0.945653368396091</v>
+        <v>0.947352868180822</v>
       </c>
       <c r="N682" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O682" t="n">
-        <v>789.073893962187</v>
+        <v>787.658338092809</v>
       </c>
       <c r="P682" t="n">
-        <v>27.7559215344999</v>
+        <v>27.7061289131259</v>
       </c>
       <c r="Q682" t="n">
-        <v>734.672287754567</v>
+        <v>733.354325423082</v>
       </c>
       <c r="R682" t="n">
-        <v>843.475500169807</v>
+        <v>841.962350762536</v>
       </c>
       <c r="S682" t="n">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="T682" t="n">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="U682" t="n">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="V682" t="n">
         <v>0.76064259504461</v>
@@ -47157,34 +47157,34 @@
         <v>0.708201145343903</v>
       </c>
       <c r="X682" t="n">
-        <v>0.813084044745316</v>
+        <v>0.813084044745317</v>
       </c>
       <c r="Y682" t="n">
-        <v>0.185010773351481</v>
+        <v>0.186710273136212</v>
       </c>
       <c r="Z682" t="n">
-        <v>19.5643329294407</v>
+        <v>19.7086301638319</v>
       </c>
       <c r="AA682" t="n">
         <v>1</v>
       </c>
       <c r="AB682" t="n">
-        <v>191.926106037813</v>
+        <v>193.341661907191</v>
       </c>
       <c r="AC682" t="n">
-        <v>19.5643329294407</v>
+        <v>19.7086301638319</v>
       </c>
       <c r="AD682" t="n">
         <v>1</v>
       </c>
       <c r="AE682" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AF682" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AG682" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="683">
@@ -47216,34 +47216,34 @@
         <v>268</v>
       </c>
       <c r="L683" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M683" t="n">
-        <v>0.258343631733081</v>
+        <v>0.258807919136045</v>
       </c>
       <c r="N683" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O683" t="n">
-        <v>248.752727074691</v>
+        <v>248.306478142204</v>
       </c>
       <c r="P683" t="n">
-        <v>11.9353266651333</v>
+        <v>11.9139153349105</v>
       </c>
       <c r="Q683" t="n">
-        <v>225.35948681103</v>
+        <v>224.955204085779</v>
       </c>
       <c r="R683" t="n">
-        <v>272.145967338352</v>
+        <v>271.657752198628</v>
       </c>
       <c r="S683" t="n">
         <v>248</v>
       </c>
       <c r="T683" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U683" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="V683" t="n">
         <v>0.239789861626804</v>
@@ -47255,19 +47255,19 @@
         <v>0.262340214789934</v>
       </c>
       <c r="Y683" t="n">
-        <v>0.0185537701062766</v>
+        <v>0.0190180575092408</v>
       </c>
       <c r="Z683" t="n">
-        <v>7.18181825571231</v>
+        <v>7.34832905141659</v>
       </c>
       <c r="AA683" t="n">
         <v>0</v>
       </c>
       <c r="AB683" t="n">
-        <v>19.247272925309</v>
+        <v>19.6935218577964</v>
       </c>
       <c r="AC683" t="n">
-        <v>7.18181825571231</v>
+        <v>7.34832905141658</v>
       </c>
       <c r="AD683" t="n">
         <v>0</v>
@@ -47276,10 +47276,10 @@
         <v>20</v>
       </c>
       <c r="AF683" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="AG683" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="684">
@@ -47311,34 +47311,34 @@
         <v>931</v>
       </c>
       <c r="L684" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M684" t="n">
-        <v>0.897454929639919</v>
+        <v>0.899067808640515</v>
       </c>
       <c r="N684" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O684" t="n">
-        <v>860.909731195713</v>
+        <v>859.365305721339</v>
       </c>
       <c r="P684" t="n">
-        <v>29.7796538364792</v>
+        <v>29.7262307488586</v>
       </c>
       <c r="Q684" t="n">
-        <v>802.541609676213</v>
+        <v>801.101893453576</v>
       </c>
       <c r="R684" t="n">
-        <v>919.277852715212</v>
+        <v>917.628717989102</v>
       </c>
       <c r="S684" t="n">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="T684" t="n">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="U684" t="n">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="V684" t="n">
         <v>0.829890099072578</v>
@@ -47347,34 +47347,34 @@
         <v>0.77362505246517</v>
       </c>
       <c r="X684" t="n">
-        <v>0.886155145679985</v>
+        <v>0.886155145679986</v>
       </c>
       <c r="Y684" t="n">
-        <v>0.0675648305673413</v>
+        <v>0.0691777095679368</v>
       </c>
       <c r="Z684" t="n">
-        <v>7.52849288982679</v>
+        <v>7.69438176999583</v>
       </c>
       <c r="AA684" t="n">
         <v>1</v>
       </c>
       <c r="AB684" t="n">
-        <v>70.0902688042873</v>
+        <v>71.6346942786612</v>
       </c>
       <c r="AC684" t="n">
-        <v>7.52849288982679</v>
+        <v>7.69438176999583</v>
       </c>
       <c r="AD684" t="n">
         <v>1</v>
       </c>
       <c r="AE684" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF684" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AG684" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="685">
@@ -47406,70 +47406,70 @@
         <v>1055</v>
       </c>
       <c r="L685" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M685" t="n">
-        <v>1.01698705775523</v>
+        <v>1.01881475630048</v>
       </c>
       <c r="N685" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O685" t="n">
-        <v>924.569828940712</v>
+        <v>922.9112006956</v>
       </c>
       <c r="P685" t="n">
-        <v>31.5671816151404</v>
+        <v>31.5105517994071</v>
       </c>
       <c r="Q685" t="n">
-        <v>862.698152975037</v>
+        <v>861.150519168762</v>
       </c>
       <c r="R685" t="n">
-        <v>986.441504906387</v>
+        <v>984.671882222437</v>
       </c>
       <c r="S685" t="n">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="T685" t="n">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="U685" t="n">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="V685" t="n">
-        <v>0.891256445520063</v>
+        <v>0.891256445520064</v>
       </c>
       <c r="W685" t="n">
-        <v>0.831614081824597</v>
+        <v>0.831614081824598</v>
       </c>
       <c r="X685" t="n">
         <v>0.950898809215529</v>
       </c>
       <c r="Y685" t="n">
-        <v>0.125730612235162</v>
+        <v>0.127558310780413</v>
       </c>
       <c r="Z685" t="n">
-        <v>12.3630493895059</v>
+        <v>12.52026533691</v>
       </c>
       <c r="AA685" t="n">
         <v>1</v>
       </c>
       <c r="AB685" t="n">
-        <v>130.430171059288</v>
+        <v>132.0887993044</v>
       </c>
       <c r="AC685" t="n">
-        <v>12.363049389506</v>
+        <v>12.52026533691</v>
       </c>
       <c r="AD685" t="n">
         <v>1</v>
       </c>
       <c r="AE685" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AF685" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AG685" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="686">
@@ -50617,25 +50617,25 @@
         <v>151</v>
       </c>
       <c r="L734" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M734" t="n">
-        <v>0.145559285043639</v>
+        <v>0.145820879811727</v>
       </c>
       <c r="N734" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O734" t="n">
-        <v>166.834069626142</v>
+        <v>166.53477833254</v>
       </c>
       <c r="P734" t="n">
-        <v>8.74702831462834</v>
+        <v>8.73133661912918</v>
       </c>
       <c r="Q734" t="n">
-        <v>149.68989412947</v>
+        <v>149.421358559047</v>
       </c>
       <c r="R734" t="n">
-        <v>183.978245122814</v>
+        <v>183.648198106033</v>
       </c>
       <c r="S734" t="n">
         <v>166</v>
@@ -50656,19 +50656,19 @@
         <v>0.177349283600398</v>
       </c>
       <c r="Y734" t="n">
-        <v>-0.0152635487027314</v>
+        <v>-0.0150019539346433</v>
       </c>
       <c r="Z734" t="n">
-        <v>-10.4861388252596</v>
+        <v>-10.2879326705563</v>
       </c>
       <c r="AA734" t="n">
         <v>0</v>
       </c>
       <c r="AB734" t="n">
-        <v>-15.834069626142</v>
+        <v>-15.5347783325401</v>
       </c>
       <c r="AC734" t="n">
-        <v>-10.4861388252596</v>
+        <v>-10.2879326705563</v>
       </c>
       <c r="AD734" t="n">
         <v>0</v>
@@ -50712,25 +50712,25 @@
         <v>147</v>
       </c>
       <c r="L735" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M735" t="n">
-        <v>0.141703409943145</v>
+        <v>0.141958075048502</v>
       </c>
       <c r="N735" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O735" t="n">
-        <v>145.979809624405</v>
+        <v>145.717929744833</v>
       </c>
       <c r="P735" t="n">
-        <v>7.91925756057425</v>
+        <v>7.90505084101761</v>
       </c>
       <c r="Q735" t="n">
-        <v>130.45806480568</v>
+        <v>130.224030096438</v>
       </c>
       <c r="R735" t="n">
-        <v>161.501554443131</v>
+        <v>161.211829393227</v>
       </c>
       <c r="S735" t="n">
         <v>145</v>
@@ -50748,22 +50748,22 @@
         <v>0.125757500935705</v>
       </c>
       <c r="X735" t="n">
-        <v>0.155682455617075</v>
+        <v>0.155682455617076</v>
       </c>
       <c r="Y735" t="n">
-        <v>0.000983431666754991</v>
+        <v>0.00123809677211217</v>
       </c>
       <c r="Z735" t="n">
-        <v>0.694007058227863</v>
+        <v>0.87215663616822</v>
       </c>
       <c r="AA735" t="n">
         <v>0</v>
       </c>
       <c r="AB735" t="n">
-        <v>1.02019037559495</v>
+        <v>1.28207025516727</v>
       </c>
       <c r="AC735" t="n">
-        <v>0.694007058227852</v>
+        <v>0.872156636168209</v>
       </c>
       <c r="AD735" t="n">
         <v>0</v>
@@ -50807,34 +50807,34 @@
         <v>156</v>
       </c>
       <c r="L736" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M736" t="n">
-        <v>0.150379128919256</v>
+        <v>0.150649385765758</v>
       </c>
       <c r="N736" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O736" t="n">
-        <v>146.100927761343</v>
+        <v>145.838830602387</v>
       </c>
       <c r="P736" t="n">
-        <v>9.22476072628696</v>
+        <v>9.20821200469115</v>
       </c>
       <c r="Q736" t="n">
-        <v>128.020396737821</v>
+        <v>127.790735073192</v>
       </c>
       <c r="R736" t="n">
-        <v>164.181458784865</v>
+        <v>163.886926131581</v>
       </c>
       <c r="S736" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T736" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U736" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V736" t="n">
         <v>0.140836732378499</v>
@@ -50846,31 +50846,31 @@
         <v>0.158265799722826</v>
       </c>
       <c r="Y736" t="n">
-        <v>0.00954239654075664</v>
+        <v>0.0098126533872582</v>
       </c>
       <c r="Z736" t="n">
-        <v>6.34555912734426</v>
+        <v>6.51357012667529</v>
       </c>
       <c r="AA736" t="n">
         <v>0</v>
       </c>
       <c r="AB736" t="n">
-        <v>9.89907223865706</v>
+        <v>10.1611693976134</v>
       </c>
       <c r="AC736" t="n">
-        <v>6.34555912734427</v>
+        <v>6.51357012667528</v>
       </c>
       <c r="AD736" t="n">
         <v>0</v>
       </c>
       <c r="AE736" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF736" t="n">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="AG736" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="737">
@@ -50902,31 +50902,31 @@
         <v>126</v>
       </c>
       <c r="L737" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M737" t="n">
-        <v>0.121460065665553</v>
+        <v>0.121678350041573</v>
       </c>
       <c r="N737" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O737" t="n">
-        <v>144.026494653164</v>
+        <v>143.768118914957</v>
       </c>
       <c r="P737" t="n">
-        <v>9.12704250243444</v>
+        <v>9.11066908204474</v>
       </c>
       <c r="Q737" t="n">
-        <v>126.137491348393</v>
+        <v>125.911207514149</v>
       </c>
       <c r="R737" t="n">
-        <v>161.915497957936</v>
+        <v>161.625030315765</v>
       </c>
       <c r="S737" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T737" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U737" t="n">
         <v>161</v>
@@ -50941,31 +50941,31 @@
         <v>0.156081484240012</v>
       </c>
       <c r="Y737" t="n">
-        <v>-0.0173769779705797</v>
+        <v>-0.0171586935945592</v>
       </c>
       <c r="Z737" t="n">
-        <v>-14.3067417882254</v>
+        <v>-14.1016816785374</v>
       </c>
       <c r="AA737" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB737" t="n">
-        <v>-18.026494653164</v>
+        <v>-17.7681189149572</v>
       </c>
       <c r="AC737" t="n">
-        <v>-14.3067417882254</v>
+        <v>-14.1016816785374</v>
       </c>
       <c r="AD737" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE737" t="n">
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="AF737" t="n">
         <v>-35</v>
       </c>
       <c r="AG737" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738">
@@ -50997,28 +50997,28 @@
         <v>135</v>
       </c>
       <c r="L738" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M738" t="n">
-        <v>0.130135784641664</v>
+        <v>0.130369660758829</v>
       </c>
       <c r="N738" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O738" t="n">
-        <v>160.029426160001</v>
+        <v>159.742342028581</v>
       </c>
       <c r="P738" t="n">
-        <v>9.87793723971891</v>
+        <v>9.86021675480105</v>
       </c>
       <c r="Q738" t="n">
-        <v>140.668669170152</v>
+        <v>140.416317189171</v>
       </c>
       <c r="R738" t="n">
-        <v>179.39018314985</v>
+        <v>179.068366867991</v>
       </c>
       <c r="S738" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T738" t="n">
         <v>140</v>
@@ -51033,28 +51033,28 @@
         <v>0.135600204718195</v>
       </c>
       <c r="X738" t="n">
-        <v>0.172926535120129</v>
+        <v>0.17292653512013</v>
       </c>
       <c r="Y738" t="n">
-        <v>-0.0241275852774983</v>
+        <v>-0.0238937091603335</v>
       </c>
       <c r="Z738" t="n">
-        <v>-18.5403156740745</v>
+        <v>-18.3276607619119</v>
       </c>
       <c r="AA738" t="n">
         <v>1</v>
       </c>
       <c r="AB738" t="n">
-        <v>-25.0294261600006</v>
+        <v>-24.7423420285811</v>
       </c>
       <c r="AC738" t="n">
-        <v>-18.5403156740745</v>
+        <v>-18.3276607619119</v>
       </c>
       <c r="AD738" t="n">
         <v>1</v>
       </c>
       <c r="AE738" t="n">
-        <v>-25</v>
+        <v>-24</v>
       </c>
       <c r="AF738" t="n">
         <v>-44</v>
@@ -51092,28 +51092,28 @@
         <v>122</v>
       </c>
       <c r="L739" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M739" t="n">
-        <v>0.117604190565059</v>
+        <v>0.117815545278349</v>
       </c>
       <c r="N739" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O739" t="n">
-        <v>127.134487523977</v>
+        <v>126.906415132542</v>
       </c>
       <c r="P739" t="n">
-        <v>8.32630905115866</v>
+        <v>8.31137210325326</v>
       </c>
       <c r="Q739" t="n">
-        <v>110.814921783706</v>
+        <v>110.616125810165</v>
       </c>
       <c r="R739" t="n">
-        <v>143.454053264248</v>
+        <v>143.196704454918</v>
       </c>
       <c r="S739" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T739" t="n">
         <v>110</v>
@@ -51131,25 +51131,25 @@
         <v>0.138285228011629</v>
       </c>
       <c r="Y739" t="n">
-        <v>-0.00494948564937449</v>
+        <v>-0.00473813093608484</v>
       </c>
       <c r="Z739" t="n">
-        <v>-4.20859633112853</v>
+        <v>-4.02165174798506</v>
       </c>
       <c r="AA739" t="n">
         <v>0</v>
       </c>
       <c r="AB739" t="n">
-        <v>-5.13448752397679</v>
+        <v>-4.90641513254175</v>
       </c>
       <c r="AC739" t="n">
-        <v>-4.20859633112851</v>
+        <v>-4.02165174798503</v>
       </c>
       <c r="AD739" t="n">
         <v>0</v>
       </c>
       <c r="AE739" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="AF739" t="n">
         <v>-21</v>
@@ -51187,25 +51187,25 @@
         <v>46</v>
       </c>
       <c r="L740" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M740" t="n">
-        <v>0.0443425636556781</v>
+        <v>0.0444222547770824</v>
       </c>
       <c r="N740" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O740" t="n">
-        <v>58.9738127336206</v>
+        <v>58.8680169046198</v>
       </c>
       <c r="P740" t="n">
-        <v>4.9282294712235</v>
+        <v>4.91938849421614</v>
       </c>
       <c r="Q740" t="n">
-        <v>49.3144829700226</v>
+        <v>49.2260154559561</v>
       </c>
       <c r="R740" t="n">
-        <v>68.6331424972187</v>
+        <v>68.5100183532834</v>
       </c>
       <c r="S740" t="n">
         <v>58</v>
@@ -51223,22 +51223,22 @@
         <v>0.0475376217444582</v>
       </c>
       <c r="X740" t="n">
-        <v>0.0661602063059161</v>
+        <v>0.0661602063059162</v>
       </c>
       <c r="Y740" t="n">
-        <v>-0.0125063503695091</v>
+        <v>-0.0124266592481048</v>
       </c>
       <c r="Z740" t="n">
-        <v>-28.2039407252622</v>
+        <v>-27.9739497926516</v>
       </c>
       <c r="AA740" t="n">
         <v>1</v>
       </c>
       <c r="AB740" t="n">
-        <v>-12.9738127336206</v>
+        <v>-12.8680169046198</v>
       </c>
       <c r="AC740" t="n">
-        <v>-28.2039407252622</v>
+        <v>-27.9739497926516</v>
       </c>
       <c r="AD740" t="n">
         <v>1</v>
@@ -51282,25 +51282,25 @@
         <v>100</v>
       </c>
       <c r="L741" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M741" t="n">
-        <v>0.0963968775123436</v>
+        <v>0.0965701190806138</v>
       </c>
       <c r="N741" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O741" t="n">
-        <v>122.689235298006</v>
+        <v>122.469137448534</v>
       </c>
       <c r="P741" t="n">
-        <v>8.1139025080901</v>
+        <v>8.09934660602975</v>
       </c>
       <c r="Q741" t="n">
-        <v>106.785986382149</v>
+        <v>106.594418100715</v>
       </c>
       <c r="R741" t="n">
-        <v>138.592484213862</v>
+        <v>138.343856796352</v>
       </c>
       <c r="S741" t="n">
         <v>122</v>
@@ -51321,19 +51321,19 @@
         <v>0.133598827248951</v>
       </c>
       <c r="Y741" t="n">
-        <v>-0.0218717143587059</v>
+        <v>-0.0216984727904357</v>
       </c>
       <c r="Z741" t="n">
-        <v>-22.6892352980056</v>
+        <v>-22.4691374485336</v>
       </c>
       <c r="AA741" t="n">
         <v>1</v>
       </c>
       <c r="AB741" t="n">
-        <v>-22.6892352980056</v>
+        <v>-22.4691374485336</v>
       </c>
       <c r="AC741" t="n">
-        <v>-22.6892352980056</v>
+        <v>-22.4691374485336</v>
       </c>
       <c r="AD741" t="n">
         <v>1</v>
@@ -51377,25 +51377,25 @@
         <v>119</v>
       </c>
       <c r="L742" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M742" t="n">
-        <v>0.114712284239689</v>
+        <v>0.11491844170593</v>
       </c>
       <c r="N742" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O742" t="n">
-        <v>139.877569011438</v>
+        <v>139.626636221336</v>
       </c>
       <c r="P742" t="n">
-        <v>8.93122534706604</v>
+        <v>8.9152032120575</v>
       </c>
       <c r="Q742" t="n">
-        <v>122.372367331188</v>
+        <v>122.152837925703</v>
       </c>
       <c r="R742" t="n">
-        <v>157.382770691687</v>
+        <v>157.100434516969</v>
       </c>
       <c r="S742" t="n">
         <v>139</v>
@@ -51413,22 +51413,22 @@
         <v>0.117963141045201</v>
       </c>
       <c r="X742" t="n">
-        <v>0.151712076689198</v>
+        <v>0.151712076689199</v>
       </c>
       <c r="Y742" t="n">
-        <v>-0.0201253246275108</v>
+        <v>-0.0199191671612693</v>
       </c>
       <c r="Z742" t="n">
-        <v>-17.5441756398638</v>
+        <v>-17.3333077490219</v>
       </c>
       <c r="AA742" t="n">
         <v>1</v>
       </c>
       <c r="AB742" t="n">
-        <v>-20.8775690114379</v>
+        <v>-20.6266362213361</v>
       </c>
       <c r="AC742" t="n">
-        <v>-17.5441756398638</v>
+        <v>-17.3333077490219</v>
       </c>
       <c r="AD742" t="n">
         <v>1</v>
@@ -54588,25 +54588,25 @@
         <v>40</v>
       </c>
       <c r="L791" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M791" t="n">
-        <v>0.0385587510049374</v>
+        <v>0.0386280476322455</v>
       </c>
       <c r="N791" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O791" t="n">
-        <v>91.8265910247402</v>
+        <v>91.6618590891323</v>
       </c>
       <c r="P791" t="n">
-        <v>8.75401925017094</v>
+        <v>8.7383150133117</v>
       </c>
       <c r="Q791" t="n">
-        <v>74.6687132944051</v>
+        <v>74.5347616630414</v>
       </c>
       <c r="R791" t="n">
-        <v>108.984468755075</v>
+        <v>108.788956515223</v>
       </c>
       <c r="S791" t="n">
         <v>91</v>
@@ -54621,25 +54621,25 @@
         <v>0.0885179664738795</v>
       </c>
       <c r="W791" t="n">
-        <v>0.0719783080944507</v>
+        <v>0.0719783080944508</v>
       </c>
       <c r="X791" t="n">
         <v>0.105057624853308</v>
       </c>
       <c r="Y791" t="n">
-        <v>-0.049959215468942</v>
+        <v>-0.049889918841634</v>
       </c>
       <c r="Z791" t="n">
-        <v>-129.56647756185</v>
+        <v>-129.154647722831</v>
       </c>
       <c r="AA791" t="n">
         <v>1</v>
       </c>
       <c r="AB791" t="n">
-        <v>-51.8265910247402</v>
+        <v>-51.6618590891323</v>
       </c>
       <c r="AC791" t="n">
-        <v>-129.56647756185</v>
+        <v>-129.154647722831</v>
       </c>
       <c r="AD791" t="n">
         <v>1</v>
@@ -54683,25 +54683,25 @@
         <v>43</v>
       </c>
       <c r="L792" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M792" t="n">
-        <v>0.0414506573303078</v>
+        <v>0.0415251512046639</v>
       </c>
       <c r="N792" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O792" t="n">
-        <v>58.3784413583108</v>
+        <v>58.273713593342</v>
       </c>
       <c r="P792" t="n">
-        <v>6.20247942712668</v>
+        <v>6.19135251464745</v>
       </c>
       <c r="Q792" t="n">
-        <v>46.2215816811425</v>
+        <v>46.138662664633</v>
       </c>
       <c r="R792" t="n">
-        <v>70.5353010354791</v>
+        <v>70.408764522051</v>
       </c>
       <c r="S792" t="n">
         <v>58</v>
@@ -54719,22 +54719,22 @@
         <v>0.0445561614774388</v>
       </c>
       <c r="X792" t="n">
-        <v>0.0679938277421336</v>
+        <v>0.0679938277421337</v>
       </c>
       <c r="Y792" t="n">
-        <v>-0.0148243372794785</v>
+        <v>-0.0147498434051223</v>
       </c>
       <c r="Z792" t="n">
-        <v>-35.7638171123507</v>
+        <v>-35.5202641705628</v>
       </c>
       <c r="AA792" t="n">
         <v>1</v>
       </c>
       <c r="AB792" t="n">
-        <v>-15.3784413583108</v>
+        <v>-15.273713593342</v>
       </c>
       <c r="AC792" t="n">
-        <v>-35.7638171123507</v>
+        <v>-35.5202641705628</v>
       </c>
       <c r="AD792" t="n">
         <v>1</v>
@@ -54778,25 +54778,25 @@
         <v>52</v>
       </c>
       <c r="L793" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M793" t="n">
-        <v>0.0501263763064187</v>
+        <v>0.0502164619219192</v>
       </c>
       <c r="N793" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O793" t="n">
-        <v>64.6739806710472</v>
+        <v>64.5579590491998</v>
       </c>
       <c r="P793" t="n">
-        <v>8.13683025754622</v>
+        <v>8.12223322434396</v>
       </c>
       <c r="Q793" t="n">
-        <v>48.7257933662566</v>
+        <v>48.6383819294856</v>
       </c>
       <c r="R793" t="n">
-        <v>80.6221679758377</v>
+        <v>80.4775361689139</v>
       </c>
       <c r="S793" t="n">
         <v>64</v>
@@ -54817,19 +54817,19 @@
         <v>0.0777172525114642</v>
       </c>
       <c r="Y793" t="n">
-        <v>-0.0122173216234074</v>
+        <v>-0.0121272360079069</v>
       </c>
       <c r="Z793" t="n">
-        <v>-24.3730397520138</v>
+        <v>-24.1499212484611</v>
       </c>
       <c r="AA793" t="n">
         <v>0</v>
       </c>
       <c r="AB793" t="n">
-        <v>-12.6739806710472</v>
+        <v>-12.5579590491998</v>
       </c>
       <c r="AC793" t="n">
-        <v>-24.3730397520138</v>
+        <v>-24.1499212484611</v>
       </c>
       <c r="AD793" t="n">
         <v>0</v>
@@ -54873,25 +54873,25 @@
         <v>47</v>
       </c>
       <c r="L794" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M794" t="n">
-        <v>0.0453065324308015</v>
+        <v>0.0453879559678885</v>
       </c>
       <c r="N794" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O794" t="n">
-        <v>77.4863054926173</v>
+        <v>77.3472992533085</v>
       </c>
       <c r="P794" t="n">
-        <v>9.33524454873265</v>
+        <v>9.3184976251376</v>
       </c>
       <c r="Q794" t="n">
-        <v>59.1892261771013</v>
+        <v>59.0830439080388</v>
       </c>
       <c r="R794" t="n">
-        <v>95.7833848081333</v>
+        <v>95.6115545985782</v>
       </c>
       <c r="S794" t="n">
         <v>77</v>
@@ -54912,19 +54912,19 @@
         <v>0.092332192130673</v>
       </c>
       <c r="Y794" t="n">
-        <v>-0.0293878465637572</v>
+        <v>-0.0293064230266702</v>
       </c>
       <c r="Z794" t="n">
-        <v>-64.8644797715262</v>
+        <v>-64.5687218155499</v>
       </c>
       <c r="AA794" t="n">
         <v>1</v>
       </c>
       <c r="AB794" t="n">
-        <v>-30.4863054926173</v>
+        <v>-30.3472992533085</v>
       </c>
       <c r="AC794" t="n">
-        <v>-64.8644797715262</v>
+        <v>-64.56872181555</v>
       </c>
       <c r="AD794" t="n">
         <v>1</v>
@@ -54968,25 +54968,25 @@
         <v>42</v>
       </c>
       <c r="L795" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M795" t="n">
-        <v>0.0404866885551843</v>
+        <v>0.0405594500138578</v>
       </c>
       <c r="N795" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O795" t="n">
-        <v>79.8353587298652</v>
+        <v>79.6921384161548</v>
       </c>
       <c r="P795" t="n">
-        <v>9.5534302009135</v>
+        <v>9.53629186406435</v>
       </c>
       <c r="Q795" t="n">
-        <v>61.1106355360748</v>
+        <v>61.0010063625887</v>
       </c>
       <c r="R795" t="n">
-        <v>98.5600819236557</v>
+        <v>98.383270469721</v>
       </c>
       <c r="S795" t="n">
         <v>79</v>
@@ -55001,25 +55001,25 @@
         <v>0.0769587929663683</v>
       </c>
       <c r="W795" t="n">
-        <v>0.0589087444847247</v>
+        <v>0.0589087444847248</v>
       </c>
       <c r="X795" t="n">
         <v>0.0950088414480119</v>
       </c>
       <c r="Y795" t="n">
-        <v>-0.036472104411184</v>
+        <v>-0.0363993429525105</v>
       </c>
       <c r="Z795" t="n">
-        <v>-90.0841874520601</v>
+        <v>-89.7431867051306</v>
       </c>
       <c r="AA795" t="n">
         <v>1</v>
       </c>
       <c r="AB795" t="n">
-        <v>-37.8353587298652</v>
+        <v>-37.6921384161548</v>
       </c>
       <c r="AC795" t="n">
-        <v>-90.0841874520601</v>
+        <v>-89.7431867051306</v>
       </c>
       <c r="AD795" t="n">
         <v>1</v>
@@ -55063,25 +55063,25 @@
         <v>35</v>
       </c>
       <c r="L796" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M796" t="n">
-        <v>0.0337389071293203</v>
+        <v>0.0337995416782148</v>
       </c>
       <c r="N796" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O796" t="n">
-        <v>55.3732531231087</v>
+        <v>55.2739165032246</v>
       </c>
       <c r="P796" t="n">
-        <v>7.25502967215563</v>
+        <v>7.24201454148978</v>
       </c>
       <c r="Q796" t="n">
-        <v>41.1533949656836</v>
+        <v>41.0795680019046</v>
       </c>
       <c r="R796" t="n">
-        <v>69.5931112805337</v>
+        <v>69.4682650045445</v>
       </c>
       <c r="S796" t="n">
         <v>55</v>
@@ -55093,7 +55093,7 @@
         <v>69</v>
       </c>
       <c r="V796" t="n">
-        <v>0.053378086987683</v>
+        <v>0.0533780869876831</v>
       </c>
       <c r="W796" t="n">
         <v>0.039670587737241</v>
@@ -55102,19 +55102,19 @@
         <v>0.0670855862381251</v>
       </c>
       <c r="Y796" t="n">
-        <v>-0.0196391798583628</v>
+        <v>-0.0195785453094682</v>
       </c>
       <c r="Z796" t="n">
-        <v>-58.2092946374533</v>
+        <v>-57.9254757234988</v>
       </c>
       <c r="AA796" t="n">
         <v>1</v>
       </c>
       <c r="AB796" t="n">
-        <v>-20.3732531231087</v>
+        <v>-20.2739165032246</v>
       </c>
       <c r="AC796" t="n">
-        <v>-58.2092946374533</v>
+        <v>-57.9254757234988</v>
       </c>
       <c r="AD796" t="n">
         <v>1</v>
@@ -55158,25 +55158,25 @@
         <v>37</v>
       </c>
       <c r="L797" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M797" t="n">
-        <v>0.0356668446795671</v>
+        <v>0.0357309440598271</v>
       </c>
       <c r="N797" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O797" t="n">
-        <v>55.8287413766025</v>
+        <v>55.7285876354379</v>
       </c>
       <c r="P797" t="n">
-        <v>7.29851477940808</v>
+        <v>7.28542163881278</v>
       </c>
       <c r="Q797" t="n">
-        <v>41.5236524089626</v>
+        <v>41.4491612233648</v>
       </c>
       <c r="R797" t="n">
-        <v>70.1338303442423</v>
+        <v>70.0080140475109</v>
       </c>
       <c r="S797" t="n">
         <v>55</v>
@@ -55197,19 +55197,19 @@
         <v>0.0676068225316542</v>
       </c>
       <c r="Y797" t="n">
-        <v>-0.0181503187619195</v>
+        <v>-0.0180862193816595</v>
       </c>
       <c r="Z797" t="n">
-        <v>-50.8884902070337</v>
+        <v>-50.6178044201024</v>
       </c>
       <c r="AA797" t="n">
         <v>1</v>
       </c>
       <c r="AB797" t="n">
-        <v>-18.8287413766025</v>
+        <v>-18.7285876354379</v>
       </c>
       <c r="AC797" t="n">
-        <v>-50.8884902070337</v>
+        <v>-50.6178044201024</v>
       </c>
       <c r="AD797" t="n">
         <v>1</v>
@@ -55253,25 +55253,25 @@
         <v>38</v>
       </c>
       <c r="L798" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M798" t="n">
-        <v>0.0366308134546906</v>
+        <v>0.0366966452506333</v>
       </c>
       <c r="N798" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O798" t="n">
-        <v>79.1732209598308</v>
+        <v>79.0311884854519</v>
       </c>
       <c r="P798" t="n">
-        <v>9.49197014888782</v>
+        <v>9.47494206804643</v>
       </c>
       <c r="Q798" t="n">
-        <v>60.5689594680107</v>
+        <v>60.4603020320809</v>
       </c>
       <c r="R798" t="n">
-        <v>97.7774824516509</v>
+        <v>97.6020749388229</v>
       </c>
       <c r="S798" t="n">
         <v>79</v>
@@ -55292,19 +55292,19 @@
         <v>0.0942544399935712</v>
       </c>
       <c r="Y798" t="n">
-        <v>-0.0396896993765347</v>
+        <v>-0.039623867580592</v>
       </c>
       <c r="Z798" t="n">
-        <v>-108.350581473239</v>
+        <v>-107.976811803821</v>
       </c>
       <c r="AA798" t="n">
         <v>1</v>
       </c>
       <c r="AB798" t="n">
-        <v>-41.1732209598308</v>
+        <v>-41.0311884854519</v>
       </c>
       <c r="AC798" t="n">
-        <v>-108.350581473239</v>
+        <v>-107.976811803821</v>
       </c>
       <c r="AD798" t="n">
         <v>1</v>
@@ -55348,28 +55348,28 @@
         <v>54</v>
       </c>
       <c r="L799" t="n">
-        <v>1037378</v>
+        <v>1035517</v>
       </c>
       <c r="M799" t="n">
-        <v>0.0520543138566656</v>
+        <v>0.0521478643035315</v>
       </c>
       <c r="N799" t="n">
-        <v>13.8522069338113</v>
+        <v>13.8504113768728</v>
       </c>
       <c r="O799" t="n">
-        <v>74.0600860874326</v>
+        <v>73.9272263003456</v>
       </c>
       <c r="P799" t="n">
-        <v>9.01624403607382</v>
+        <v>9.00006938213752</v>
       </c>
       <c r="Q799" t="n">
-        <v>56.3882477767279</v>
+        <v>56.2870903113561</v>
       </c>
       <c r="R799" t="n">
-        <v>91.7319243981373</v>
+        <v>91.5673622893352</v>
       </c>
       <c r="S799" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T799" t="n">
         <v>56</v>
@@ -55384,28 +55384,28 @@
         <v>0.0543565101406892</v>
       </c>
       <c r="X799" t="n">
-        <v>0.088426710801788</v>
+        <v>0.0884267108017881</v>
       </c>
       <c r="Y799" t="n">
-        <v>-0.0193372966145731</v>
+        <v>-0.0192437461677072</v>
       </c>
       <c r="Z799" t="n">
-        <v>-37.1483075693196</v>
+        <v>-36.902270926566</v>
       </c>
       <c r="AA799" t="n">
         <v>1</v>
       </c>
       <c r="AB799" t="n">
-        <v>-20.0600860874326</v>
+        <v>-19.9272263003456</v>
       </c>
       <c r="AC799" t="n">
-        <v>-37.1483075693196</v>
+        <v>-36.902270926566</v>
       </c>
       <c r="AD799" t="n">
         <v>1</v>
       </c>
       <c r="AE799" t="n">
-        <v>-20</v>
+        <v>-19</v>
       </c>
       <c r="AF799" t="n">
         <v>-37</v>
